--- a/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga1_RGB_Vector.xlsx
+++ b/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga1_RGB_Vector.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,10 +453,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>895</v>
+        <v>25471</v>
       </c>
       <c r="B2">
-        <v>223.75</v>
+        <v>254.71</v>
       </c>
       <c r="C2">
         <v>255</v>
@@ -465,22 +465,22 @@
         <v>255</v>
       </c>
       <c r="E2">
-        <v>3906.25</v>
+        <v>0.7534343434343423</v>
       </c>
       <c r="F2">
-        <v>62.5</v>
+        <v>0.8680059581790567</v>
       </c>
       <c r="G2">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>130</v>
+        <v>252</v>
       </c>
       <c r="I2">
         <v>255</v>
       </c>
       <c r="J2">
-        <v>223.75</v>
+        <v>255</v>
       </c>
       <c r="K2">
         <v>255</v>
@@ -491,37 +491,37 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>1002</v>
+        <v>25481</v>
       </c>
       <c r="B3">
-        <v>250.5</v>
+        <v>254.81</v>
       </c>
       <c r="C3">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D3">
         <v>255</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>0.3372727272727267</v>
       </c>
       <c r="F3">
-        <v>5.744562646538029</v>
+        <v>0.5807518637703427</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="I3">
         <v>255</v>
       </c>
       <c r="J3">
-        <v>247.5</v>
+        <v>255</v>
       </c>
       <c r="K3">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L3">
         <v>255</v>
@@ -529,37 +529,37 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>902</v>
+        <v>25496</v>
       </c>
       <c r="B4">
-        <v>225.5</v>
+        <v>254.96</v>
       </c>
       <c r="C4">
-        <v>225.5</v>
+        <v>255</v>
       </c>
       <c r="D4">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="E4">
-        <v>1160.333333333333</v>
+        <v>0.03878787878787879</v>
       </c>
       <c r="F4">
-        <v>34.06366588218792</v>
+        <v>0.1969463855669324</v>
       </c>
       <c r="G4">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="I4">
         <v>255</v>
       </c>
       <c r="J4">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="K4">
-        <v>225.5</v>
+        <v>255</v>
       </c>
       <c r="L4">
         <v>255</v>
@@ -567,39 +567,3687 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>966</v>
+        <v>25500</v>
       </c>
       <c r="B5">
+        <v>255</v>
+      </c>
+      <c r="C5">
+        <v>255</v>
+      </c>
+      <c r="D5">
+        <v>255</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>255</v>
+      </c>
+      <c r="I5">
+        <v>255</v>
+      </c>
+      <c r="J5">
+        <v>255</v>
+      </c>
+      <c r="K5">
+        <v>255</v>
+      </c>
+      <c r="L5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>25500</v>
+      </c>
+      <c r="B6">
+        <v>255</v>
+      </c>
+      <c r="C6">
+        <v>255</v>
+      </c>
+      <c r="D6">
+        <v>255</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>255</v>
+      </c>
+      <c r="I6">
+        <v>255</v>
+      </c>
+      <c r="J6">
+        <v>255</v>
+      </c>
+      <c r="K6">
+        <v>255</v>
+      </c>
+      <c r="L6">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>25479</v>
+      </c>
+      <c r="B7">
+        <v>254.79</v>
+      </c>
+      <c r="C7">
+        <v>255</v>
+      </c>
+      <c r="D7">
+        <v>255</v>
+      </c>
+      <c r="E7">
+        <v>0.2483838383838386</v>
+      </c>
+      <c r="F7">
+        <v>0.4983812179284434</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>252</v>
+      </c>
+      <c r="I7">
+        <v>255</v>
+      </c>
+      <c r="J7">
+        <v>255</v>
+      </c>
+      <c r="K7">
+        <v>255</v>
+      </c>
+      <c r="L7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>25473</v>
+      </c>
+      <c r="B8">
+        <v>254.73</v>
+      </c>
+      <c r="C8">
+        <v>255</v>
+      </c>
+      <c r="D8">
+        <v>255</v>
+      </c>
+      <c r="E8">
+        <v>0.4617171717171711</v>
+      </c>
+      <c r="F8">
+        <v>0.6794977348874469</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>251</v>
+      </c>
+      <c r="I8">
+        <v>255</v>
+      </c>
+      <c r="J8">
+        <v>255</v>
+      </c>
+      <c r="K8">
+        <v>255</v>
+      </c>
+      <c r="L8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>25356</v>
+      </c>
+      <c r="B9">
+        <v>253.56</v>
+      </c>
+      <c r="C9">
+        <v>255</v>
+      </c>
+      <c r="D9">
+        <v>255</v>
+      </c>
+      <c r="E9">
+        <v>20.91555555555557</v>
+      </c>
+      <c r="F9">
+        <v>4.573352769638001</v>
+      </c>
+      <c r="G9">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>229</v>
+      </c>
+      <c r="I9">
+        <v>255</v>
+      </c>
+      <c r="J9">
+        <v>254</v>
+      </c>
+      <c r="K9">
+        <v>255</v>
+      </c>
+      <c r="L9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>24838</v>
+      </c>
+      <c r="B10">
+        <v>248.38</v>
+      </c>
+      <c r="C10">
+        <v>255</v>
+      </c>
+      <c r="D10">
+        <v>255</v>
+      </c>
+      <c r="E10">
+        <v>416.8440404040397</v>
+      </c>
+      <c r="F10">
+        <v>20.416758812408</v>
+      </c>
+      <c r="G10">
+        <v>99</v>
+      </c>
+      <c r="H10">
+        <v>156</v>
+      </c>
+      <c r="I10">
+        <v>255</v>
+      </c>
+      <c r="J10">
+        <v>254</v>
+      </c>
+      <c r="K10">
+        <v>255</v>
+      </c>
+      <c r="L10">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>24336</v>
+      </c>
+      <c r="B11">
+        <v>243.36</v>
+      </c>
+      <c r="C11">
+        <v>255</v>
+      </c>
+      <c r="D11">
+        <v>255</v>
+      </c>
+      <c r="E11">
+        <v>973.323636363637</v>
+      </c>
+      <c r="F11">
+        <v>31.19813514240294</v>
+      </c>
+      <c r="G11">
+        <v>118</v>
+      </c>
+      <c r="H11">
+        <v>137</v>
+      </c>
+      <c r="I11">
+        <v>255</v>
+      </c>
+      <c r="J11">
+        <v>254</v>
+      </c>
+      <c r="K11">
+        <v>255</v>
+      </c>
+      <c r="L11">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>23858</v>
+      </c>
+      <c r="B12">
+        <v>238.58</v>
+      </c>
+      <c r="C12">
+        <v>255</v>
+      </c>
+      <c r="D12">
+        <v>255</v>
+      </c>
+      <c r="E12">
+        <v>1471.43797979798</v>
+      </c>
+      <c r="F12">
+        <v>38.35932715517804</v>
+      </c>
+      <c r="G12">
+        <v>121</v>
+      </c>
+      <c r="H12">
+        <v>134</v>
+      </c>
+      <c r="I12">
+        <v>255</v>
+      </c>
+      <c r="J12">
+        <v>254</v>
+      </c>
+      <c r="K12">
+        <v>255</v>
+      </c>
+      <c r="L12">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>23332</v>
+      </c>
+      <c r="B13">
+        <v>233.32</v>
+      </c>
+      <c r="C13">
+        <v>255</v>
+      </c>
+      <c r="D13">
+        <v>255</v>
+      </c>
+      <c r="E13">
+        <v>1930.785454545452</v>
+      </c>
+      <c r="F13">
+        <v>43.94070384672339</v>
+      </c>
+      <c r="G13">
+        <v>124</v>
+      </c>
+      <c r="H13">
+        <v>131</v>
+      </c>
+      <c r="I13">
+        <v>255</v>
+      </c>
+      <c r="J13">
+        <v>252.5</v>
+      </c>
+      <c r="K13">
+        <v>255</v>
+      </c>
+      <c r="L13">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>23009</v>
+      </c>
+      <c r="B14">
+        <v>230.09</v>
+      </c>
+      <c r="C14">
+        <v>255</v>
+      </c>
+      <c r="D14">
+        <v>255</v>
+      </c>
+      <c r="E14">
+        <v>2235.193838383839</v>
+      </c>
+      <c r="F14">
+        <v>47.27783665084348</v>
+      </c>
+      <c r="G14">
+        <v>128</v>
+      </c>
+      <c r="H14">
+        <v>127</v>
+      </c>
+      <c r="I14">
+        <v>255</v>
+      </c>
+      <c r="J14">
+        <v>250.75</v>
+      </c>
+      <c r="K14">
+        <v>255</v>
+      </c>
+      <c r="L14">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>22629</v>
+      </c>
+      <c r="B15">
+        <v>226.29</v>
+      </c>
+      <c r="C15">
+        <v>255</v>
+      </c>
+      <c r="D15">
+        <v>255</v>
+      </c>
+      <c r="E15">
+        <v>2609.278686868687</v>
+      </c>
+      <c r="F15">
+        <v>51.08109911570704</v>
+      </c>
+      <c r="G15">
+        <v>136</v>
+      </c>
+      <c r="H15">
+        <v>119</v>
+      </c>
+      <c r="I15">
+        <v>255</v>
+      </c>
+      <c r="J15">
+        <v>243.25</v>
+      </c>
+      <c r="K15">
+        <v>255</v>
+      </c>
+      <c r="L15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>22299</v>
+      </c>
+      <c r="B16">
+        <v>222.99</v>
+      </c>
+      <c r="C16">
+        <v>255</v>
+      </c>
+      <c r="D16">
+        <v>255</v>
+      </c>
+      <c r="E16">
+        <v>2881.848383838387</v>
+      </c>
+      <c r="F16">
+        <v>53.68284999735378</v>
+      </c>
+      <c r="G16">
+        <v>138</v>
+      </c>
+      <c r="H16">
+        <v>117</v>
+      </c>
+      <c r="I16">
+        <v>255</v>
+      </c>
+      <c r="J16">
+        <v>202.25</v>
+      </c>
+      <c r="K16">
+        <v>255</v>
+      </c>
+      <c r="L16">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>21910</v>
+      </c>
+      <c r="B17">
+        <v>219.1</v>
+      </c>
+      <c r="C17">
+        <v>255</v>
+      </c>
+      <c r="D17">
+        <v>255</v>
+      </c>
+      <c r="E17">
+        <v>3277.60606060606</v>
+      </c>
+      <c r="F17">
+        <v>57.25038044071026</v>
+      </c>
+      <c r="G17">
+        <v>144</v>
+      </c>
+      <c r="H17">
+        <v>111</v>
+      </c>
+      <c r="I17">
+        <v>255</v>
+      </c>
+      <c r="J17">
+        <v>145.5</v>
+      </c>
+      <c r="K17">
+        <v>255</v>
+      </c>
+      <c r="L17">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>21559</v>
+      </c>
+      <c r="B18">
+        <v>215.59</v>
+      </c>
+      <c r="C18">
+        <v>255</v>
+      </c>
+      <c r="D18">
+        <v>255</v>
+      </c>
+      <c r="E18">
+        <v>3563.597878787877</v>
+      </c>
+      <c r="F18">
+        <v>59.69587823952234</v>
+      </c>
+      <c r="G18">
+        <v>149</v>
+      </c>
+      <c r="H18">
+        <v>106</v>
+      </c>
+      <c r="I18">
+        <v>255</v>
+      </c>
+      <c r="J18">
+        <v>135.75</v>
+      </c>
+      <c r="K18">
+        <v>255</v>
+      </c>
+      <c r="L18">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>21112</v>
+      </c>
+      <c r="B19">
+        <v>211.12</v>
+      </c>
+      <c r="C19">
+        <v>254.5</v>
+      </c>
+      <c r="D19">
+        <v>255</v>
+      </c>
+      <c r="E19">
+        <v>3796.773333333332</v>
+      </c>
+      <c r="F19">
+        <v>61.61796274896901</v>
+      </c>
+      <c r="G19">
+        <v>159</v>
+      </c>
+      <c r="H19">
+        <v>96</v>
+      </c>
+      <c r="I19">
+        <v>255</v>
+      </c>
+      <c r="J19">
+        <v>127.5</v>
+      </c>
+      <c r="K19">
+        <v>254.5</v>
+      </c>
+      <c r="L19">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>20599</v>
+      </c>
+      <c r="B20">
+        <v>205.99</v>
+      </c>
+      <c r="C20">
+        <v>255</v>
+      </c>
+      <c r="D20">
+        <v>255</v>
+      </c>
+      <c r="E20">
+        <v>4279.585757575756</v>
+      </c>
+      <c r="F20">
+        <v>65.41854291847042</v>
+      </c>
+      <c r="G20">
+        <v>183</v>
+      </c>
+      <c r="H20">
+        <v>72</v>
+      </c>
+      <c r="I20">
+        <v>255</v>
+      </c>
+      <c r="J20">
+        <v>127.5</v>
+      </c>
+      <c r="K20">
+        <v>255</v>
+      </c>
+      <c r="L20">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>20209</v>
+      </c>
+      <c r="B21">
+        <v>202.09</v>
+      </c>
+      <c r="C21">
+        <v>255</v>
+      </c>
+      <c r="D21">
+        <v>255</v>
+      </c>
+      <c r="E21">
+        <v>4339.395858585859</v>
+      </c>
+      <c r="F21">
+        <v>65.87409095073616</v>
+      </c>
+      <c r="G21">
+        <v>180</v>
+      </c>
+      <c r="H21">
+        <v>75</v>
+      </c>
+      <c r="I21">
+        <v>255</v>
+      </c>
+      <c r="J21">
+        <v>124.75</v>
+      </c>
+      <c r="K21">
+        <v>255</v>
+      </c>
+      <c r="L21">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>20413</v>
+      </c>
+      <c r="B22">
+        <v>204.13</v>
+      </c>
+      <c r="C22">
+        <v>255</v>
+      </c>
+      <c r="D22">
+        <v>255</v>
+      </c>
+      <c r="E22">
+        <v>3837.81121212121</v>
+      </c>
+      <c r="F22">
+        <v>61.95007031570836</v>
+      </c>
+      <c r="G22">
+        <v>152</v>
+      </c>
+      <c r="H22">
+        <v>103</v>
+      </c>
+      <c r="I22">
+        <v>255</v>
+      </c>
+      <c r="J22">
+        <v>129.75</v>
+      </c>
+      <c r="K22">
+        <v>255</v>
+      </c>
+      <c r="L22">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>20668</v>
+      </c>
+      <c r="B23">
+        <v>206.68</v>
+      </c>
+      <c r="C23">
+        <v>253.5</v>
+      </c>
+      <c r="D23">
+        <v>255</v>
+      </c>
+      <c r="E23">
+        <v>3924.03797979798</v>
+      </c>
+      <c r="F23">
+        <v>62.64214220313654</v>
+      </c>
+      <c r="G23">
+        <v>153</v>
+      </c>
+      <c r="H23">
+        <v>102</v>
+      </c>
+      <c r="I23">
+        <v>255</v>
+      </c>
+      <c r="J23">
+        <v>130.75</v>
+      </c>
+      <c r="K23">
+        <v>253.5</v>
+      </c>
+      <c r="L23">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>20628</v>
+      </c>
+      <c r="B24">
+        <v>206.28</v>
+      </c>
+      <c r="C24">
+        <v>253</v>
+      </c>
+      <c r="D24">
+        <v>255</v>
+      </c>
+      <c r="E24">
+        <v>4006.365252525251</v>
+      </c>
+      <c r="F24">
+        <v>63.29585493952388</v>
+      </c>
+      <c r="G24">
+        <v>155</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+      <c r="I24">
+        <v>255</v>
+      </c>
+      <c r="J24">
+        <v>126.75</v>
+      </c>
+      <c r="K24">
+        <v>253</v>
+      </c>
+      <c r="L24">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>20622</v>
+      </c>
+      <c r="B25">
+        <v>206.22</v>
+      </c>
+      <c r="C25">
+        <v>251</v>
+      </c>
+      <c r="D25">
+        <v>255</v>
+      </c>
+      <c r="E25">
+        <v>3960.698585858583</v>
+      </c>
+      <c r="F25">
+        <v>62.93408127444606</v>
+      </c>
+      <c r="G25">
+        <v>148</v>
+      </c>
+      <c r="H25">
+        <v>107</v>
+      </c>
+      <c r="I25">
+        <v>255</v>
+      </c>
+      <c r="J25">
+        <v>127</v>
+      </c>
+      <c r="K25">
+        <v>251</v>
+      </c>
+      <c r="L25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>20542</v>
+      </c>
+      <c r="B26">
+        <v>205.42</v>
+      </c>
+      <c r="C26">
+        <v>252</v>
+      </c>
+      <c r="D26">
+        <v>255</v>
+      </c>
+      <c r="E26">
+        <v>4102.690505050505</v>
+      </c>
+      <c r="F26">
+        <v>64.05224824352776</v>
+      </c>
+      <c r="G26">
+        <v>152</v>
+      </c>
+      <c r="H26">
+        <v>103</v>
+      </c>
+      <c r="I26">
+        <v>255</v>
+      </c>
+      <c r="J26">
+        <v>127.5</v>
+      </c>
+      <c r="K26">
+        <v>252</v>
+      </c>
+      <c r="L26">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>20516</v>
+      </c>
+      <c r="B27">
+        <v>205.16</v>
+      </c>
+      <c r="C27">
+        <v>252</v>
+      </c>
+      <c r="D27">
+        <v>255</v>
+      </c>
+      <c r="E27">
+        <v>4153.953939393939</v>
+      </c>
+      <c r="F27">
+        <v>64.45117484882599</v>
+      </c>
+      <c r="G27">
+        <v>159</v>
+      </c>
+      <c r="H27">
+        <v>96</v>
+      </c>
+      <c r="I27">
+        <v>255</v>
+      </c>
+      <c r="J27">
+        <v>127.75</v>
+      </c>
+      <c r="K27">
+        <v>252</v>
+      </c>
+      <c r="L27">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>20783</v>
+      </c>
+      <c r="B28">
+        <v>207.83</v>
+      </c>
+      <c r="C28">
+        <v>250.5</v>
+      </c>
+      <c r="D28">
+        <v>255</v>
+      </c>
+      <c r="E28">
+        <v>4091.657676767678</v>
+      </c>
+      <c r="F28">
+        <v>63.96606660384612</v>
+      </c>
+      <c r="G28">
+        <v>164</v>
+      </c>
+      <c r="H28">
+        <v>91</v>
+      </c>
+      <c r="I28">
+        <v>255</v>
+      </c>
+      <c r="J28">
+        <v>120</v>
+      </c>
+      <c r="K28">
+        <v>250.5</v>
+      </c>
+      <c r="L28">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>21206</v>
+      </c>
+      <c r="B29">
+        <v>212.06</v>
+      </c>
+      <c r="C29">
+        <v>249.5</v>
+      </c>
+      <c r="D29">
+        <v>255</v>
+      </c>
+      <c r="E29">
+        <v>3832.117575757578</v>
+      </c>
+      <c r="F29">
+        <v>61.90409982995939</v>
+      </c>
+      <c r="G29">
+        <v>158</v>
+      </c>
+      <c r="H29">
+        <v>97</v>
+      </c>
+      <c r="I29">
+        <v>255</v>
+      </c>
+      <c r="J29">
+        <v>151.5</v>
+      </c>
+      <c r="K29">
+        <v>249.5</v>
+      </c>
+      <c r="L29">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>21526</v>
+      </c>
+      <c r="B30">
+        <v>215.26</v>
+      </c>
+      <c r="C30">
+        <v>252</v>
+      </c>
+      <c r="D30">
+        <v>255</v>
+      </c>
+      <c r="E30">
+        <v>3783.345858585863</v>
+      </c>
+      <c r="F30">
+        <v>61.50890877414314</v>
+      </c>
+      <c r="G30">
+        <v>168</v>
+      </c>
+      <c r="H30">
+        <v>87</v>
+      </c>
+      <c r="I30">
+        <v>255</v>
+      </c>
+      <c r="J30">
+        <v>189.25</v>
+      </c>
+      <c r="K30">
+        <v>252</v>
+      </c>
+      <c r="L30">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>21886</v>
+      </c>
+      <c r="B31">
+        <v>218.86</v>
+      </c>
+      <c r="C31">
+        <v>253</v>
+      </c>
+      <c r="D31">
+        <v>255</v>
+      </c>
+      <c r="E31">
+        <v>3493.798383838388</v>
+      </c>
+      <c r="F31">
+        <v>59.10836136993131</v>
+      </c>
+      <c r="G31">
+        <v>175</v>
+      </c>
+      <c r="H31">
+        <v>80</v>
+      </c>
+      <c r="I31">
+        <v>255</v>
+      </c>
+      <c r="J31">
+        <v>223</v>
+      </c>
+      <c r="K31">
+        <v>253</v>
+      </c>
+      <c r="L31">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>22786</v>
+      </c>
+      <c r="B32">
+        <v>227.86</v>
+      </c>
+      <c r="C32">
+        <v>252.5</v>
+      </c>
+      <c r="D32">
+        <v>255</v>
+      </c>
+      <c r="E32">
+        <v>2147.96</v>
+      </c>
+      <c r="F32">
+        <v>46.34608937116485</v>
+      </c>
+      <c r="G32">
+        <v>156</v>
+      </c>
+      <c r="H32">
+        <v>99</v>
+      </c>
+      <c r="I32">
+        <v>255</v>
+      </c>
+      <c r="J32">
+        <v>231.5</v>
+      </c>
+      <c r="K32">
+        <v>252.5</v>
+      </c>
+      <c r="L32">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>23593</v>
+      </c>
+      <c r="B33">
+        <v>235.93</v>
+      </c>
+      <c r="C33">
+        <v>253.5</v>
+      </c>
+      <c r="D33">
+        <v>255</v>
+      </c>
+      <c r="E33">
+        <v>1337.823333333334</v>
+      </c>
+      <c r="F33">
+        <v>36.57626735102058</v>
+      </c>
+      <c r="G33">
+        <v>148</v>
+      </c>
+      <c r="H33">
+        <v>107</v>
+      </c>
+      <c r="I33">
+        <v>255</v>
+      </c>
+      <c r="J33">
         <v>241.5</v>
       </c>
-      <c r="C5">
+      <c r="K33">
+        <v>253.5</v>
+      </c>
+      <c r="L33">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>24065</v>
+      </c>
+      <c r="B34">
+        <v>240.65</v>
+      </c>
+      <c r="C34">
+        <v>254</v>
+      </c>
+      <c r="D34">
+        <v>255</v>
+      </c>
+      <c r="E34">
+        <v>699.9267676767681</v>
+      </c>
+      <c r="F34">
+        <v>26.45612911362447</v>
+      </c>
+      <c r="G34">
+        <v>107</v>
+      </c>
+      <c r="H34">
+        <v>148</v>
+      </c>
+      <c r="I34">
+        <v>255</v>
+      </c>
+      <c r="J34">
+        <v>240</v>
+      </c>
+      <c r="K34">
+        <v>254</v>
+      </c>
+      <c r="L34">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>24472</v>
+      </c>
+      <c r="B35">
+        <v>244.72</v>
+      </c>
+      <c r="C35">
+        <v>254</v>
+      </c>
+      <c r="D35">
+        <v>255</v>
+      </c>
+      <c r="E35">
+        <v>385.7389898989892</v>
+      </c>
+      <c r="F35">
+        <v>19.64023904892681</v>
+      </c>
+      <c r="G35">
+        <v>118</v>
+      </c>
+      <c r="H35">
+        <v>137</v>
+      </c>
+      <c r="I35">
+        <v>255</v>
+      </c>
+      <c r="J35">
+        <v>244</v>
+      </c>
+      <c r="K35">
+        <v>254</v>
+      </c>
+      <c r="L35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>24736</v>
+      </c>
+      <c r="B36">
+        <v>247.36</v>
+      </c>
+      <c r="C36">
+        <v>254</v>
+      </c>
+      <c r="D36">
+        <v>255</v>
+      </c>
+      <c r="E36">
+        <v>175.9498989898987</v>
+      </c>
+      <c r="F36">
+        <v>13.26461077415763</v>
+      </c>
+      <c r="G36">
+        <v>68</v>
+      </c>
+      <c r="H36">
+        <v>187</v>
+      </c>
+      <c r="I36">
+        <v>255</v>
+      </c>
+      <c r="J36">
+        <v>244.75</v>
+      </c>
+      <c r="K36">
+        <v>254</v>
+      </c>
+      <c r="L36">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>24752</v>
+      </c>
+      <c r="B37">
+        <v>247.52</v>
+      </c>
+      <c r="C37">
+        <v>254</v>
+      </c>
+      <c r="D37">
+        <v>255</v>
+      </c>
+      <c r="E37">
+        <v>207.3228282828286</v>
+      </c>
+      <c r="F37">
+        <v>14.39870925752821</v>
+      </c>
+      <c r="G37">
+        <v>75</v>
+      </c>
+      <c r="H37">
+        <v>180</v>
+      </c>
+      <c r="I37">
+        <v>255</v>
+      </c>
+      <c r="J37">
+        <v>247</v>
+      </c>
+      <c r="K37">
+        <v>254</v>
+      </c>
+      <c r="L37">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>24780</v>
+      </c>
+      <c r="B38">
+        <v>247.8</v>
+      </c>
+      <c r="C38">
+        <v>254</v>
+      </c>
+      <c r="D38">
+        <v>255</v>
+      </c>
+      <c r="E38">
+        <v>180.0606060606061</v>
+      </c>
+      <c r="F38">
+        <v>13.41866632943103</v>
+      </c>
+      <c r="G38">
+        <v>65</v>
+      </c>
+      <c r="H38">
+        <v>190</v>
+      </c>
+      <c r="I38">
+        <v>255</v>
+      </c>
+      <c r="J38">
+        <v>248</v>
+      </c>
+      <c r="K38">
+        <v>254</v>
+      </c>
+      <c r="L38">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>24731</v>
+      </c>
+      <c r="B39">
+        <v>247.31</v>
+      </c>
+      <c r="C39">
+        <v>254.5</v>
+      </c>
+      <c r="D39">
+        <v>255</v>
+      </c>
+      <c r="E39">
+        <v>226.7615151515151</v>
+      </c>
+      <c r="F39">
+        <v>15.0586026958518</v>
+      </c>
+      <c r="G39">
+        <v>81</v>
+      </c>
+      <c r="H39">
+        <v>174</v>
+      </c>
+      <c r="I39">
+        <v>255</v>
+      </c>
+      <c r="J39">
+        <v>247.5</v>
+      </c>
+      <c r="K39">
+        <v>254.5</v>
+      </c>
+      <c r="L39">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>24768</v>
+      </c>
+      <c r="B40">
+        <v>247.68</v>
+      </c>
+      <c r="C40">
+        <v>254</v>
+      </c>
+      <c r="D40">
+        <v>255</v>
+      </c>
+      <c r="E40">
+        <v>205.5127272727273</v>
+      </c>
+      <c r="F40">
+        <v>14.33571509457157</v>
+      </c>
+      <c r="G40">
+        <v>67</v>
+      </c>
+      <c r="H40">
+        <v>188</v>
+      </c>
+      <c r="I40">
+        <v>255</v>
+      </c>
+      <c r="J40">
+        <v>247.75</v>
+      </c>
+      <c r="K40">
+        <v>254</v>
+      </c>
+      <c r="L40">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>24705</v>
+      </c>
+      <c r="B41">
+        <v>247.05</v>
+      </c>
+      <c r="C41">
+        <v>254</v>
+      </c>
+      <c r="D41">
+        <v>255</v>
+      </c>
+      <c r="E41">
+        <v>215.0176767676766</v>
+      </c>
+      <c r="F41">
+        <v>14.66348105900085</v>
+      </c>
+      <c r="G41">
+        <v>71</v>
+      </c>
+      <c r="H41">
+        <v>184</v>
+      </c>
+      <c r="I41">
+        <v>255</v>
+      </c>
+      <c r="J41">
+        <v>247.75</v>
+      </c>
+      <c r="K41">
+        <v>254</v>
+      </c>
+      <c r="L41">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>24666</v>
+      </c>
+      <c r="B42">
+        <v>246.66</v>
+      </c>
+      <c r="C42">
+        <v>253</v>
+      </c>
+      <c r="D42">
+        <v>255</v>
+      </c>
+      <c r="E42">
+        <v>232.772121212121</v>
+      </c>
+      <c r="F42">
+        <v>15.25687127861152</v>
+      </c>
+      <c r="G42">
+        <v>78</v>
+      </c>
+      <c r="H42">
+        <v>177</v>
+      </c>
+      <c r="I42">
+        <v>255</v>
+      </c>
+      <c r="J42">
+        <v>245.75</v>
+      </c>
+      <c r="K42">
+        <v>253</v>
+      </c>
+      <c r="L42">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>24606</v>
+      </c>
+      <c r="B43">
+        <v>246.06</v>
+      </c>
+      <c r="C43">
+        <v>253</v>
+      </c>
+      <c r="D43">
+        <v>255</v>
+      </c>
+      <c r="E43">
+        <v>230.784242424242</v>
+      </c>
+      <c r="F43">
+        <v>15.19158459227483</v>
+      </c>
+      <c r="G43">
+        <v>78</v>
+      </c>
+      <c r="H43">
+        <v>177</v>
+      </c>
+      <c r="I43">
+        <v>255</v>
+      </c>
+      <c r="J43">
+        <v>245</v>
+      </c>
+      <c r="K43">
+        <v>253</v>
+      </c>
+      <c r="L43">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>24385</v>
+      </c>
+      <c r="B44">
+        <v>243.85</v>
+      </c>
+      <c r="C44">
+        <v>251</v>
+      </c>
+      <c r="D44">
+        <v>255</v>
+      </c>
+      <c r="E44">
+        <v>258.4924242424239</v>
+      </c>
+      <c r="F44">
+        <v>16.07769959423374</v>
+      </c>
+      <c r="G44">
+        <v>76</v>
+      </c>
+      <c r="H44">
+        <v>179</v>
+      </c>
+      <c r="I44">
+        <v>255</v>
+      </c>
+      <c r="J44">
+        <v>241</v>
+      </c>
+      <c r="K44">
+        <v>251</v>
+      </c>
+      <c r="L44">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>24291</v>
+      </c>
+      <c r="B45">
+        <v>242.91</v>
+      </c>
+      <c r="C45">
+        <v>249</v>
+      </c>
+      <c r="D45">
+        <v>255</v>
+      </c>
+      <c r="E45">
+        <v>266.2847474747473</v>
+      </c>
+      <c r="F45">
+        <v>16.31823358929352</v>
+      </c>
+      <c r="G45">
+        <v>61</v>
+      </c>
+      <c r="H45">
+        <v>194</v>
+      </c>
+      <c r="I45">
+        <v>255</v>
+      </c>
+      <c r="J45">
+        <v>235</v>
+      </c>
+      <c r="K45">
+        <v>249</v>
+      </c>
+      <c r="L45">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>24110</v>
+      </c>
+      <c r="B46">
+        <v>241.1</v>
+      </c>
+      <c r="C46">
+        <v>250.5</v>
+      </c>
+      <c r="D46">
+        <v>255</v>
+      </c>
+      <c r="E46">
+        <v>357.3434343434342</v>
+      </c>
+      <c r="F46">
+        <v>18.90352967949198</v>
+      </c>
+      <c r="G46">
+        <v>65</v>
+      </c>
+      <c r="H46">
+        <v>190</v>
+      </c>
+      <c r="I46">
+        <v>255</v>
+      </c>
+      <c r="J46">
+        <v>234.75</v>
+      </c>
+      <c r="K46">
+        <v>250.5</v>
+      </c>
+      <c r="L46">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>23836</v>
+      </c>
+      <c r="B47">
+        <v>238.36</v>
+      </c>
+      <c r="C47">
+        <v>248</v>
+      </c>
+      <c r="D47">
+        <v>255</v>
+      </c>
+      <c r="E47">
+        <v>436.9802020202026</v>
+      </c>
+      <c r="F47">
+        <v>20.90407142209868</v>
+      </c>
+      <c r="G47">
+        <v>76</v>
+      </c>
+      <c r="H47">
+        <v>179</v>
+      </c>
+      <c r="I47">
+        <v>255</v>
+      </c>
+      <c r="J47">
+        <v>229.75</v>
+      </c>
+      <c r="K47">
+        <v>248</v>
+      </c>
+      <c r="L47">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>23572</v>
+      </c>
+      <c r="B48">
+        <v>235.72</v>
+      </c>
+      <c r="C48">
+        <v>243</v>
+      </c>
+      <c r="D48">
+        <v>255</v>
+      </c>
+      <c r="E48">
+        <v>491.8804040404037</v>
+      </c>
+      <c r="F48">
+        <v>22.17837694783826</v>
+      </c>
+      <c r="G48">
+        <v>78</v>
+      </c>
+      <c r="H48">
+        <v>177</v>
+      </c>
+      <c r="I48">
+        <v>255</v>
+      </c>
+      <c r="J48">
+        <v>226.5</v>
+      </c>
+      <c r="K48">
+        <v>243</v>
+      </c>
+      <c r="L48">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49">
+        <v>23451</v>
+      </c>
+      <c r="B49">
+        <v>234.51</v>
+      </c>
+      <c r="C49">
+        <v>243</v>
+      </c>
+      <c r="D49">
+        <v>255</v>
+      </c>
+      <c r="E49">
+        <v>560.777676767677</v>
+      </c>
+      <c r="F49">
+        <v>23.68074485246773</v>
+      </c>
+      <c r="G49">
+        <v>81</v>
+      </c>
+      <c r="H49">
+        <v>174</v>
+      </c>
+      <c r="I49">
+        <v>255</v>
+      </c>
+      <c r="J49">
+        <v>223.5</v>
+      </c>
+      <c r="K49">
+        <v>243</v>
+      </c>
+      <c r="L49">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50">
+        <v>23225</v>
+      </c>
+      <c r="B50">
+        <v>232.25</v>
+      </c>
+      <c r="C50">
+        <v>244</v>
+      </c>
+      <c r="D50">
+        <v>255</v>
+      </c>
+      <c r="E50">
+        <v>681.0176767676768</v>
+      </c>
+      <c r="F50">
+        <v>26.09631538680656</v>
+      </c>
+      <c r="G50">
+        <v>87</v>
+      </c>
+      <c r="H50">
+        <v>168</v>
+      </c>
+      <c r="I50">
+        <v>255</v>
+      </c>
+      <c r="J50">
+        <v>221</v>
+      </c>
+      <c r="K50">
+        <v>244</v>
+      </c>
+      <c r="L50">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51">
+        <v>23038</v>
+      </c>
+      <c r="B51">
+        <v>230.38</v>
+      </c>
+      <c r="C51">
+        <v>242</v>
+      </c>
+      <c r="D51">
+        <v>255</v>
+      </c>
+      <c r="E51">
+        <v>746.015757575758</v>
+      </c>
+      <c r="F51">
+        <v>27.31328902889138</v>
+      </c>
+      <c r="G51">
+        <v>84</v>
+      </c>
+      <c r="H51">
+        <v>171</v>
+      </c>
+      <c r="I51">
+        <v>255</v>
+      </c>
+      <c r="J51">
+        <v>213.5</v>
+      </c>
+      <c r="K51">
+        <v>242</v>
+      </c>
+      <c r="L51">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52">
+        <v>22961</v>
+      </c>
+      <c r="B52">
+        <v>229.61</v>
+      </c>
+      <c r="C52">
+        <v>236</v>
+      </c>
+      <c r="D52">
+        <v>255</v>
+      </c>
+      <c r="E52">
+        <v>677.1897979797977</v>
+      </c>
+      <c r="F52">
+        <v>26.02287067138823</v>
+      </c>
+      <c r="G52">
+        <v>81</v>
+      </c>
+      <c r="H52">
+        <v>174</v>
+      </c>
+      <c r="I52">
+        <v>255</v>
+      </c>
+      <c r="J52">
+        <v>208.5</v>
+      </c>
+      <c r="K52">
+        <v>236</v>
+      </c>
+      <c r="L52">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53">
+        <v>22673</v>
+      </c>
+      <c r="B53">
+        <v>226.73</v>
+      </c>
+      <c r="C53">
+        <v>234</v>
+      </c>
+      <c r="D53">
+        <v>255</v>
+      </c>
+      <c r="E53">
+        <v>799.9768686868682</v>
+      </c>
+      <c r="F53">
+        <v>28.28386233679672</v>
+      </c>
+      <c r="G53">
+        <v>85</v>
+      </c>
+      <c r="H53">
+        <v>170</v>
+      </c>
+      <c r="I53">
+        <v>255</v>
+      </c>
+      <c r="J53">
+        <v>201.75</v>
+      </c>
+      <c r="K53">
+        <v>234</v>
+      </c>
+      <c r="L53">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54">
+        <v>22536</v>
+      </c>
+      <c r="B54">
+        <v>225.36</v>
+      </c>
+      <c r="C54">
+        <v>229.5</v>
+      </c>
+      <c r="D54">
+        <v>255</v>
+      </c>
+      <c r="E54">
+        <v>840.717575757575</v>
+      </c>
+      <c r="F54">
+        <v>28.99513020763271</v>
+      </c>
+      <c r="G54">
+        <v>93</v>
+      </c>
+      <c r="H54">
+        <v>162</v>
+      </c>
+      <c r="I54">
+        <v>255</v>
+      </c>
+      <c r="J54">
+        <v>199.75</v>
+      </c>
+      <c r="K54">
+        <v>229.5</v>
+      </c>
+      <c r="L54">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
+        <v>22566</v>
+      </c>
+      <c r="B55">
+        <v>225.66</v>
+      </c>
+      <c r="C55">
+        <v>230</v>
+      </c>
+      <c r="D55">
+        <v>255</v>
+      </c>
+      <c r="E55">
+        <v>812.590303030304</v>
+      </c>
+      <c r="F55">
+        <v>28.50596960340595</v>
+      </c>
+      <c r="G55">
+        <v>101</v>
+      </c>
+      <c r="H55">
+        <v>154</v>
+      </c>
+      <c r="I55">
+        <v>255</v>
+      </c>
+      <c r="J55">
+        <v>202.75</v>
+      </c>
+      <c r="K55">
+        <v>230</v>
+      </c>
+      <c r="L55">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <v>22409</v>
+      </c>
+      <c r="B56">
+        <v>224.09</v>
+      </c>
+      <c r="C56">
+        <v>227</v>
+      </c>
+      <c r="D56">
+        <v>255</v>
+      </c>
+      <c r="E56">
+        <v>914.8302020202025</v>
+      </c>
+      <c r="F56">
+        <v>30.24616012025663</v>
+      </c>
+      <c r="G56">
+        <v>91</v>
+      </c>
+      <c r="H56">
+        <v>164</v>
+      </c>
+      <c r="I56">
+        <v>255</v>
+      </c>
+      <c r="J56">
+        <v>196.75</v>
+      </c>
+      <c r="K56">
+        <v>227</v>
+      </c>
+      <c r="L56">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>22397</v>
+      </c>
+      <c r="B57">
+        <v>223.97</v>
+      </c>
+      <c r="C57">
+        <v>233</v>
+      </c>
+      <c r="D57">
+        <v>255</v>
+      </c>
+      <c r="E57">
+        <v>976.049595959596</v>
+      </c>
+      <c r="F57">
+        <v>31.24179245753348</v>
+      </c>
+      <c r="G57">
+        <v>93</v>
+      </c>
+      <c r="H57">
+        <v>162</v>
+      </c>
+      <c r="I57">
+        <v>255</v>
+      </c>
+      <c r="J57">
+        <v>194.5</v>
+      </c>
+      <c r="K57">
+        <v>233</v>
+      </c>
+      <c r="L57">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58">
+        <v>22351</v>
+      </c>
+      <c r="B58">
+        <v>223.51</v>
+      </c>
+      <c r="C58">
+        <v>232.5</v>
+      </c>
+      <c r="D58">
+        <v>255</v>
+      </c>
+      <c r="E58">
+        <v>1019.767575757575</v>
+      </c>
+      <c r="F58">
+        <v>31.93379989537066</v>
+      </c>
+      <c r="G58">
+        <v>93</v>
+      </c>
+      <c r="H58">
+        <v>162</v>
+      </c>
+      <c r="I58">
+        <v>255</v>
+      </c>
+      <c r="J58">
+        <v>192.75</v>
+      </c>
+      <c r="K58">
+        <v>232.5</v>
+      </c>
+      <c r="L58">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59">
+        <v>22321</v>
+      </c>
+      <c r="B59">
+        <v>223.21</v>
+      </c>
+      <c r="C59">
+        <v>232.5</v>
+      </c>
+      <c r="D59">
+        <v>255</v>
+      </c>
+      <c r="E59">
+        <v>1082.531212121212</v>
+      </c>
+      <c r="F59">
+        <v>32.90184207793253</v>
+      </c>
+      <c r="G59">
+        <v>95</v>
+      </c>
+      <c r="H59">
+        <v>160</v>
+      </c>
+      <c r="I59">
+        <v>255</v>
+      </c>
+      <c r="J59">
+        <v>191.75</v>
+      </c>
+      <c r="K59">
+        <v>232.5</v>
+      </c>
+      <c r="L59">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60">
+        <v>22482</v>
+      </c>
+      <c r="B60">
+        <v>224.82</v>
+      </c>
+      <c r="C60">
+        <v>237.5</v>
+      </c>
+      <c r="D60">
+        <v>255</v>
+      </c>
+      <c r="E60">
+        <v>1083.987474747475</v>
+      </c>
+      <c r="F60">
+        <v>32.92396505203276</v>
+      </c>
+      <c r="G60">
+        <v>97</v>
+      </c>
+      <c r="H60">
+        <v>158</v>
+      </c>
+      <c r="I60">
+        <v>255</v>
+      </c>
+      <c r="J60">
+        <v>192</v>
+      </c>
+      <c r="K60">
+        <v>237.5</v>
+      </c>
+      <c r="L60">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61">
+        <v>22493</v>
+      </c>
+      <c r="B61">
+        <v>224.93</v>
+      </c>
+      <c r="C61">
+        <v>239.5</v>
+      </c>
+      <c r="D61">
+        <v>255</v>
+      </c>
+      <c r="E61">
+        <v>1129.5001010101</v>
+      </c>
+      <c r="F61">
+        <v>33.60803625637922</v>
+      </c>
+      <c r="G61">
+        <v>97</v>
+      </c>
+      <c r="H61">
+        <v>158</v>
+      </c>
+      <c r="I61">
+        <v>255</v>
+      </c>
+      <c r="J61">
+        <v>195</v>
+      </c>
+      <c r="K61">
+        <v>239.5</v>
+      </c>
+      <c r="L61">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62">
+        <v>22378</v>
+      </c>
+      <c r="B62">
+        <v>223.78</v>
+      </c>
+      <c r="C62">
+        <v>234.5</v>
+      </c>
+      <c r="D62">
+        <v>255</v>
+      </c>
+      <c r="E62">
+        <v>1142.435959595959</v>
+      </c>
+      <c r="F62">
+        <v>33.79994023065661</v>
+      </c>
+      <c r="G62">
+        <v>101</v>
+      </c>
+      <c r="H62">
+        <v>154</v>
+      </c>
+      <c r="I62">
+        <v>255</v>
+      </c>
+      <c r="J62">
+        <v>198.75</v>
+      </c>
+      <c r="K62">
+        <v>234.5</v>
+      </c>
+      <c r="L62">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63">
+        <v>22350</v>
+      </c>
+      <c r="B63">
+        <v>223.5</v>
+      </c>
+      <c r="C63">
+        <v>239.5</v>
+      </c>
+      <c r="D63">
+        <v>255</v>
+      </c>
+      <c r="E63">
+        <v>1184.616161616162</v>
+      </c>
+      <c r="F63">
+        <v>34.41825332023927</v>
+      </c>
+      <c r="G63">
+        <v>101</v>
+      </c>
+      <c r="H63">
+        <v>154</v>
+      </c>
+      <c r="I63">
+        <v>255</v>
+      </c>
+      <c r="J63">
+        <v>196</v>
+      </c>
+      <c r="K63">
+        <v>239.5</v>
+      </c>
+      <c r="L63">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64">
+        <v>22477</v>
+      </c>
+      <c r="B64">
+        <v>224.77</v>
+      </c>
+      <c r="C64">
+        <v>242</v>
+      </c>
+      <c r="D64">
+        <v>255</v>
+      </c>
+      <c r="E64">
+        <v>1139.69404040404</v>
+      </c>
+      <c r="F64">
+        <v>33.75935485763969</v>
+      </c>
+      <c r="G64">
+        <v>95</v>
+      </c>
+      <c r="H64">
+        <v>160</v>
+      </c>
+      <c r="I64">
+        <v>255</v>
+      </c>
+      <c r="J64">
+        <v>195.75</v>
+      </c>
+      <c r="K64">
+        <v>242</v>
+      </c>
+      <c r="L64">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65">
+        <v>22547</v>
+      </c>
+      <c r="B65">
+        <v>225.47</v>
+      </c>
+      <c r="C65">
+        <v>238.5</v>
+      </c>
+      <c r="D65">
+        <v>255</v>
+      </c>
+      <c r="E65">
+        <v>1033.504141414142</v>
+      </c>
+      <c r="F65">
+        <v>32.14815922279443</v>
+      </c>
+      <c r="G65">
+        <v>93</v>
+      </c>
+      <c r="H65">
+        <v>162</v>
+      </c>
+      <c r="I65">
+        <v>255</v>
+      </c>
+      <c r="J65">
+        <v>197.25</v>
+      </c>
+      <c r="K65">
+        <v>238.5</v>
+      </c>
+      <c r="L65">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66">
+        <v>22604</v>
+      </c>
+      <c r="B66">
+        <v>226.04</v>
+      </c>
+      <c r="C66">
+        <v>237</v>
+      </c>
+      <c r="D66">
+        <v>255</v>
+      </c>
+      <c r="E66">
+        <v>993.9983838383829</v>
+      </c>
+      <c r="F66">
+        <v>31.5277399100916</v>
+      </c>
+      <c r="G66">
+        <v>94</v>
+      </c>
+      <c r="H66">
+        <v>161</v>
+      </c>
+      <c r="I66">
+        <v>255</v>
+      </c>
+      <c r="J66">
+        <v>201.5</v>
+      </c>
+      <c r="K66">
+        <v>237</v>
+      </c>
+      <c r="L66">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67">
+        <v>22762</v>
+      </c>
+      <c r="B67">
+        <v>227.62</v>
+      </c>
+      <c r="C67">
+        <v>242</v>
+      </c>
+      <c r="D67">
+        <v>255</v>
+      </c>
+      <c r="E67">
+        <v>899.5915151515138</v>
+      </c>
+      <c r="F67">
+        <v>29.99319114651713</v>
+      </c>
+      <c r="G67">
+        <v>87</v>
+      </c>
+      <c r="H67">
+        <v>168</v>
+      </c>
+      <c r="I67">
+        <v>255</v>
+      </c>
+      <c r="J67">
+        <v>202</v>
+      </c>
+      <c r="K67">
+        <v>242</v>
+      </c>
+      <c r="L67">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68">
+        <v>22771</v>
+      </c>
+      <c r="B68">
+        <v>227.71</v>
+      </c>
+      <c r="C68">
+        <v>237</v>
+      </c>
+      <c r="D68">
+        <v>255</v>
+      </c>
+      <c r="E68">
+        <v>872.1473737373731</v>
+      </c>
+      <c r="F68">
+        <v>29.53214136728614</v>
+      </c>
+      <c r="G68">
+        <v>83</v>
+      </c>
+      <c r="H68">
+        <v>172</v>
+      </c>
+      <c r="I68">
+        <v>255</v>
+      </c>
+      <c r="J68">
+        <v>200.5</v>
+      </c>
+      <c r="K68">
+        <v>237</v>
+      </c>
+      <c r="L68">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69">
+        <v>22782</v>
+      </c>
+      <c r="B69">
+        <v>227.82</v>
+      </c>
+      <c r="C69">
+        <v>240</v>
+      </c>
+      <c r="D69">
+        <v>255</v>
+      </c>
+      <c r="E69">
+        <v>867.6440404040401</v>
+      </c>
+      <c r="F69">
+        <v>29.45579807786644</v>
+      </c>
+      <c r="G69">
+        <v>82</v>
+      </c>
+      <c r="H69">
+        <v>173</v>
+      </c>
+      <c r="I69">
+        <v>255</v>
+      </c>
+      <c r="J69">
+        <v>197.5</v>
+      </c>
+      <c r="K69">
+        <v>240</v>
+      </c>
+      <c r="L69">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70">
+        <v>22767</v>
+      </c>
+      <c r="B70">
+        <v>227.67</v>
+      </c>
+      <c r="C70">
+        <v>239.5</v>
+      </c>
+      <c r="D70">
+        <v>255</v>
+      </c>
+      <c r="E70">
+        <v>894.0617171717172</v>
+      </c>
+      <c r="F70">
+        <v>29.90086482314044</v>
+      </c>
+      <c r="G70">
+        <v>82</v>
+      </c>
+      <c r="H70">
+        <v>173</v>
+      </c>
+      <c r="I70">
+        <v>255</v>
+      </c>
+      <c r="J70">
+        <v>194.75</v>
+      </c>
+      <c r="K70">
+        <v>239.5</v>
+      </c>
+      <c r="L70">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71">
+        <v>22797</v>
+      </c>
+      <c r="B71">
+        <v>227.97</v>
+      </c>
+      <c r="C71">
+        <v>242.5</v>
+      </c>
+      <c r="D71">
+        <v>255</v>
+      </c>
+      <c r="E71">
+        <v>871.0798989898979</v>
+      </c>
+      <c r="F71">
+        <v>29.51406273270249</v>
+      </c>
+      <c r="G71">
+        <v>81</v>
+      </c>
+      <c r="H71">
+        <v>174</v>
+      </c>
+      <c r="I71">
+        <v>255</v>
+      </c>
+      <c r="J71">
+        <v>194.75</v>
+      </c>
+      <c r="K71">
+        <v>242.5</v>
+      </c>
+      <c r="L71">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72">
+        <v>22915</v>
+      </c>
+      <c r="B72">
+        <v>229.15</v>
+      </c>
+      <c r="C72">
+        <v>240</v>
+      </c>
+      <c r="D72">
+        <v>255</v>
+      </c>
+      <c r="E72">
+        <v>808.9570707070717</v>
+      </c>
+      <c r="F72">
+        <v>28.44217063986277</v>
+      </c>
+      <c r="G72">
+        <v>80</v>
+      </c>
+      <c r="H72">
+        <v>175</v>
+      </c>
+      <c r="I72">
+        <v>255</v>
+      </c>
+      <c r="J72">
+        <v>199.75</v>
+      </c>
+      <c r="K72">
+        <v>240</v>
+      </c>
+      <c r="L72">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73">
+        <v>22991</v>
+      </c>
+      <c r="B73">
+        <v>229.91</v>
+      </c>
+      <c r="C73">
+        <v>248.5</v>
+      </c>
+      <c r="D73">
+        <v>255</v>
+      </c>
+      <c r="E73">
+        <v>776.7291919191931</v>
+      </c>
+      <c r="F73">
+        <v>27.86986171331306</v>
+      </c>
+      <c r="G73">
+        <v>75</v>
+      </c>
+      <c r="H73">
+        <v>180</v>
+      </c>
+      <c r="I73">
+        <v>255</v>
+      </c>
+      <c r="J73">
+        <v>204.5</v>
+      </c>
+      <c r="K73">
+        <v>248.5</v>
+      </c>
+      <c r="L73">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74">
+        <v>23041</v>
+      </c>
+      <c r="B74">
+        <v>230.41</v>
+      </c>
+      <c r="C74">
+        <v>247</v>
+      </c>
+      <c r="D74">
+        <v>255</v>
+      </c>
+      <c r="E74">
+        <v>788.4665656565649</v>
+      </c>
+      <c r="F74">
+        <v>28.07964682214797</v>
+      </c>
+      <c r="G74">
+        <v>76</v>
+      </c>
+      <c r="H74">
+        <v>179</v>
+      </c>
+      <c r="I74">
+        <v>255</v>
+      </c>
+      <c r="J74">
+        <v>201</v>
+      </c>
+      <c r="K74">
+        <v>247</v>
+      </c>
+      <c r="L74">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75">
+        <v>23131</v>
+      </c>
+      <c r="B75">
+        <v>231.31</v>
+      </c>
+      <c r="C75">
+        <v>251</v>
+      </c>
+      <c r="D75">
+        <v>255</v>
+      </c>
+      <c r="E75">
+        <v>749.1453535353543</v>
+      </c>
+      <c r="F75">
+        <v>27.37051978927975</v>
+      </c>
+      <c r="G75">
+        <v>74</v>
+      </c>
+      <c r="H75">
+        <v>181</v>
+      </c>
+      <c r="I75">
+        <v>255</v>
+      </c>
+      <c r="J75">
+        <v>200.5</v>
+      </c>
+      <c r="K75">
+        <v>251</v>
+      </c>
+      <c r="L75">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76">
+        <v>23264</v>
+      </c>
+      <c r="B76">
+        <v>232.64</v>
+      </c>
+      <c r="C76">
         <v>246.5</v>
       </c>
-      <c r="D5">
-        <v>255</v>
-      </c>
-      <c r="E5">
-        <v>309.6666666666667</v>
-      </c>
-      <c r="F5">
-        <v>17.59734828508735</v>
-      </c>
-      <c r="G5">
-        <v>37</v>
-      </c>
-      <c r="H5">
-        <v>218</v>
-      </c>
-      <c r="I5">
-        <v>255</v>
-      </c>
-      <c r="J5">
-        <v>233</v>
-      </c>
-      <c r="K5">
+      <c r="D76">
+        <v>255</v>
+      </c>
+      <c r="E76">
+        <v>647.7276767676775</v>
+      </c>
+      <c r="F76">
+        <v>25.45049462717135</v>
+      </c>
+      <c r="G76">
+        <v>71</v>
+      </c>
+      <c r="H76">
+        <v>184</v>
+      </c>
+      <c r="I76">
+        <v>255</v>
+      </c>
+      <c r="J76">
+        <v>209</v>
+      </c>
+      <c r="K76">
         <v>246.5</v>
       </c>
-      <c r="L5">
+      <c r="L76">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77">
+        <v>23336</v>
+      </c>
+      <c r="B77">
+        <v>233.36</v>
+      </c>
+      <c r="C77">
+        <v>247.5</v>
+      </c>
+      <c r="D77">
+        <v>255</v>
+      </c>
+      <c r="E77">
+        <v>594.2327272727267</v>
+      </c>
+      <c r="F77">
+        <v>24.37688920417711</v>
+      </c>
+      <c r="G77">
+        <v>69</v>
+      </c>
+      <c r="H77">
+        <v>186</v>
+      </c>
+      <c r="I77">
+        <v>255</v>
+      </c>
+      <c r="J77">
+        <v>208.5</v>
+      </c>
+      <c r="K77">
+        <v>247.5</v>
+      </c>
+      <c r="L77">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78">
+        <v>23395</v>
+      </c>
+      <c r="B78">
+        <v>233.95</v>
+      </c>
+      <c r="C78">
+        <v>249.5</v>
+      </c>
+      <c r="D78">
+        <v>255</v>
+      </c>
+      <c r="E78">
+        <v>562.6338383838386</v>
+      </c>
+      <c r="F78">
+        <v>23.71990384432109</v>
+      </c>
+      <c r="G78">
+        <v>71</v>
+      </c>
+      <c r="H78">
+        <v>184</v>
+      </c>
+      <c r="I78">
+        <v>255</v>
+      </c>
+      <c r="J78">
+        <v>210.25</v>
+      </c>
+      <c r="K78">
+        <v>249.5</v>
+      </c>
+      <c r="L78">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79">
+        <v>23543</v>
+      </c>
+      <c r="B79">
+        <v>235.43</v>
+      </c>
+      <c r="C79">
+        <v>251</v>
+      </c>
+      <c r="D79">
+        <v>255</v>
+      </c>
+      <c r="E79">
+        <v>513.015252525253</v>
+      </c>
+      <c r="F79">
+        <v>22.64984001102994</v>
+      </c>
+      <c r="G79">
+        <v>64</v>
+      </c>
+      <c r="H79">
+        <v>191</v>
+      </c>
+      <c r="I79">
+        <v>255</v>
+      </c>
+      <c r="J79">
+        <v>212.5</v>
+      </c>
+      <c r="K79">
+        <v>251</v>
+      </c>
+      <c r="L79">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80">
+        <v>23586</v>
+      </c>
+      <c r="B80">
+        <v>235.86</v>
+      </c>
+      <c r="C80">
+        <v>251.5</v>
+      </c>
+      <c r="D80">
+        <v>255</v>
+      </c>
+      <c r="E80">
+        <v>537.3539393939394</v>
+      </c>
+      <c r="F80">
+        <v>23.18089600067131</v>
+      </c>
+      <c r="G80">
+        <v>67</v>
+      </c>
+      <c r="H80">
+        <v>188</v>
+      </c>
+      <c r="I80">
+        <v>255</v>
+      </c>
+      <c r="J80">
+        <v>216.25</v>
+      </c>
+      <c r="K80">
+        <v>251.5</v>
+      </c>
+      <c r="L80">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81">
+        <v>23621</v>
+      </c>
+      <c r="B81">
+        <v>236.21</v>
+      </c>
+      <c r="C81">
+        <v>252</v>
+      </c>
+      <c r="D81">
+        <v>255</v>
+      </c>
+      <c r="E81">
+        <v>543.8847474747482</v>
+      </c>
+      <c r="F81">
+        <v>23.32133674287879</v>
+      </c>
+      <c r="G81">
+        <v>69</v>
+      </c>
+      <c r="H81">
+        <v>186</v>
+      </c>
+      <c r="I81">
+        <v>255</v>
+      </c>
+      <c r="J81">
+        <v>215.75</v>
+      </c>
+      <c r="K81">
+        <v>252</v>
+      </c>
+      <c r="L81">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82">
+        <v>23694</v>
+      </c>
+      <c r="B82">
+        <v>236.94</v>
+      </c>
+      <c r="C82">
+        <v>253</v>
+      </c>
+      <c r="D82">
+        <v>255</v>
+      </c>
+      <c r="E82">
+        <v>507.1478787878787</v>
+      </c>
+      <c r="F82">
+        <v>22.51994402275189</v>
+      </c>
+      <c r="G82">
+        <v>67</v>
+      </c>
+      <c r="H82">
+        <v>188</v>
+      </c>
+      <c r="I82">
+        <v>255</v>
+      </c>
+      <c r="J82">
+        <v>214.5</v>
+      </c>
+      <c r="K82">
+        <v>253</v>
+      </c>
+      <c r="L82">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83">
+        <v>23728</v>
+      </c>
+      <c r="B83">
+        <v>237.28</v>
+      </c>
+      <c r="C83">
+        <v>253</v>
+      </c>
+      <c r="D83">
+        <v>255</v>
+      </c>
+      <c r="E83">
+        <v>483.7389898989894</v>
+      </c>
+      <c r="F83">
+        <v>21.99406715227971</v>
+      </c>
+      <c r="G83">
+        <v>63</v>
+      </c>
+      <c r="H83">
+        <v>192</v>
+      </c>
+      <c r="I83">
+        <v>255</v>
+      </c>
+      <c r="J83">
+        <v>213</v>
+      </c>
+      <c r="K83">
+        <v>253</v>
+      </c>
+      <c r="L83">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84">
+        <v>23590</v>
+      </c>
+      <c r="B84">
+        <v>235.9</v>
+      </c>
+      <c r="C84">
+        <v>253</v>
+      </c>
+      <c r="D84">
+        <v>255</v>
+      </c>
+      <c r="E84">
+        <v>568.1313131313129</v>
+      </c>
+      <c r="F84">
+        <v>23.83550530471953</v>
+      </c>
+      <c r="G84">
+        <v>67</v>
+      </c>
+      <c r="H84">
+        <v>188</v>
+      </c>
+      <c r="I84">
+        <v>255</v>
+      </c>
+      <c r="J84">
+        <v>210.25</v>
+      </c>
+      <c r="K84">
+        <v>253</v>
+      </c>
+      <c r="L84">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85">
+        <v>23412</v>
+      </c>
+      <c r="B85">
+        <v>234.12</v>
+      </c>
+      <c r="C85">
+        <v>254</v>
+      </c>
+      <c r="D85">
+        <v>255</v>
+      </c>
+      <c r="E85">
+        <v>732.8339393939405</v>
+      </c>
+      <c r="F85">
+        <v>27.07090577343027</v>
+      </c>
+      <c r="G85">
+        <v>71</v>
+      </c>
+      <c r="H85">
+        <v>184</v>
+      </c>
+      <c r="I85">
+        <v>255</v>
+      </c>
+      <c r="J85">
+        <v>203.75</v>
+      </c>
+      <c r="K85">
+        <v>254</v>
+      </c>
+      <c r="L85">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86">
+        <v>23211</v>
+      </c>
+      <c r="B86">
+        <v>232.11</v>
+      </c>
+      <c r="C86">
+        <v>253</v>
+      </c>
+      <c r="D86">
+        <v>255</v>
+      </c>
+      <c r="E86">
+        <v>958.0584848484834</v>
+      </c>
+      <c r="F86">
+        <v>30.95251984650819</v>
+      </c>
+      <c r="G86">
+        <v>87</v>
+      </c>
+      <c r="H86">
+        <v>168</v>
+      </c>
+      <c r="I86">
+        <v>255</v>
+      </c>
+      <c r="J86">
+        <v>198.5</v>
+      </c>
+      <c r="K86">
+        <v>253</v>
+      </c>
+      <c r="L86">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87">
+        <v>23097</v>
+      </c>
+      <c r="B87">
+        <v>230.97</v>
+      </c>
+      <c r="C87">
+        <v>253.5</v>
+      </c>
+      <c r="D87">
+        <v>255</v>
+      </c>
+      <c r="E87">
+        <v>1156.049595959596</v>
+      </c>
+      <c r="F87">
+        <v>34.0007293445243</v>
+      </c>
+      <c r="G87">
+        <v>91</v>
+      </c>
+      <c r="H87">
+        <v>164</v>
+      </c>
+      <c r="I87">
+        <v>255</v>
+      </c>
+      <c r="J87">
+        <v>203.75</v>
+      </c>
+      <c r="K87">
+        <v>253.5</v>
+      </c>
+      <c r="L87">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88">
+        <v>22922</v>
+      </c>
+      <c r="B88">
+        <v>229.22</v>
+      </c>
+      <c r="C88">
+        <v>254</v>
+      </c>
+      <c r="D88">
+        <v>255</v>
+      </c>
+      <c r="E88">
+        <v>1610.456161616161</v>
+      </c>
+      <c r="F88">
+        <v>40.13048917738433</v>
+      </c>
+      <c r="G88">
+        <v>118</v>
+      </c>
+      <c r="H88">
+        <v>137</v>
+      </c>
+      <c r="I88">
+        <v>255</v>
+      </c>
+      <c r="J88">
+        <v>210.5</v>
+      </c>
+      <c r="K88">
+        <v>254</v>
+      </c>
+      <c r="L88">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89">
+        <v>23409</v>
+      </c>
+      <c r="B89">
+        <v>234.09</v>
+      </c>
+      <c r="C89">
+        <v>255</v>
+      </c>
+      <c r="D89">
+        <v>255</v>
+      </c>
+      <c r="E89">
+        <v>1174.304949494948</v>
+      </c>
+      <c r="F89">
+        <v>34.26813314866959</v>
+      </c>
+      <c r="G89">
+        <v>109</v>
+      </c>
+      <c r="H89">
+        <v>146</v>
+      </c>
+      <c r="I89">
+        <v>255</v>
+      </c>
+      <c r="J89">
+        <v>227</v>
+      </c>
+      <c r="K89">
+        <v>255</v>
+      </c>
+      <c r="L89">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90">
+        <v>24498</v>
+      </c>
+      <c r="B90">
+        <v>244.98</v>
+      </c>
+      <c r="C90">
+        <v>255</v>
+      </c>
+      <c r="D90">
+        <v>255</v>
+      </c>
+      <c r="E90">
+        <v>288.2824242424239</v>
+      </c>
+      <c r="F90">
+        <v>16.97888171354121</v>
+      </c>
+      <c r="G90">
+        <v>52</v>
+      </c>
+      <c r="H90">
+        <v>203</v>
+      </c>
+      <c r="I90">
+        <v>255</v>
+      </c>
+      <c r="J90">
+        <v>242.5</v>
+      </c>
+      <c r="K90">
+        <v>255</v>
+      </c>
+      <c r="L90">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91">
+        <v>25077</v>
+      </c>
+      <c r="B91">
+        <v>250.77</v>
+      </c>
+      <c r="C91">
+        <v>255</v>
+      </c>
+      <c r="D91">
+        <v>255</v>
+      </c>
+      <c r="E91">
+        <v>53.18898989898988</v>
+      </c>
+      <c r="F91">
+        <v>7.29307821835128</v>
+      </c>
+      <c r="G91">
+        <v>23</v>
+      </c>
+      <c r="H91">
+        <v>232</v>
+      </c>
+      <c r="I91">
+        <v>255</v>
+      </c>
+      <c r="J91">
+        <v>250.5</v>
+      </c>
+      <c r="K91">
+        <v>255</v>
+      </c>
+      <c r="L91">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92">
+        <v>25330</v>
+      </c>
+      <c r="B92">
+        <v>253.3</v>
+      </c>
+      <c r="C92">
+        <v>255</v>
+      </c>
+      <c r="D92">
+        <v>255</v>
+      </c>
+      <c r="E92">
+        <v>10.51515151515152</v>
+      </c>
+      <c r="F92">
+        <v>3.242707435947856</v>
+      </c>
+      <c r="G92">
+        <v>14</v>
+      </c>
+      <c r="H92">
+        <v>241</v>
+      </c>
+      <c r="I92">
+        <v>255</v>
+      </c>
+      <c r="J92">
+        <v>253.75</v>
+      </c>
+      <c r="K92">
+        <v>255</v>
+      </c>
+      <c r="L92">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93">
+        <v>25397</v>
+      </c>
+      <c r="B93">
+        <v>253.97</v>
+      </c>
+      <c r="C93">
+        <v>255</v>
+      </c>
+      <c r="D93">
+        <v>255</v>
+      </c>
+      <c r="E93">
+        <v>3.463737373737374</v>
+      </c>
+      <c r="F93">
+        <v>1.861111864917683</v>
+      </c>
+      <c r="G93">
+        <v>9</v>
+      </c>
+      <c r="H93">
+        <v>246</v>
+      </c>
+      <c r="I93">
+        <v>255</v>
+      </c>
+      <c r="J93">
+        <v>253.75</v>
+      </c>
+      <c r="K93">
+        <v>255</v>
+      </c>
+      <c r="L93">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94">
+        <v>25441</v>
+      </c>
+      <c r="B94">
+        <v>254.41</v>
+      </c>
+      <c r="C94">
+        <v>255</v>
+      </c>
+      <c r="D94">
+        <v>255</v>
+      </c>
+      <c r="E94">
+        <v>1.597878787878793</v>
+      </c>
+      <c r="F94">
+        <v>1.264072303263857</v>
+      </c>
+      <c r="G94">
+        <v>5</v>
+      </c>
+      <c r="H94">
+        <v>250</v>
+      </c>
+      <c r="I94">
+        <v>255</v>
+      </c>
+      <c r="J94">
+        <v>255</v>
+      </c>
+      <c r="K94">
+        <v>255</v>
+      </c>
+      <c r="L94">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95">
+        <v>25430</v>
+      </c>
+      <c r="B95">
+        <v>254.3</v>
+      </c>
+      <c r="C95">
+        <v>255</v>
+      </c>
+      <c r="D95">
+        <v>255</v>
+      </c>
+      <c r="E95">
+        <v>1.424242424242423</v>
+      </c>
+      <c r="F95">
+        <v>1.193416282879709</v>
+      </c>
+      <c r="G95">
+        <v>5</v>
+      </c>
+      <c r="H95">
+        <v>250</v>
+      </c>
+      <c r="I95">
+        <v>255</v>
+      </c>
+      <c r="J95">
+        <v>254</v>
+      </c>
+      <c r="K95">
+        <v>255</v>
+      </c>
+      <c r="L95">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96">
+        <v>25476</v>
+      </c>
+      <c r="B96">
+        <v>254.76</v>
+      </c>
+      <c r="C96">
+        <v>255</v>
+      </c>
+      <c r="D96">
+        <v>255</v>
+      </c>
+      <c r="E96">
+        <v>0.2246464646464646</v>
+      </c>
+      <c r="F96">
+        <v>0.4739688435398097</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
+      <c r="H96">
+        <v>253</v>
+      </c>
+      <c r="I96">
+        <v>255</v>
+      </c>
+      <c r="J96">
+        <v>255</v>
+      </c>
+      <c r="K96">
+        <v>255</v>
+      </c>
+      <c r="L96">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97">
+        <v>25496</v>
+      </c>
+      <c r="B97">
+        <v>254.96</v>
+      </c>
+      <c r="C97">
+        <v>255</v>
+      </c>
+      <c r="D97">
+        <v>255</v>
+      </c>
+      <c r="E97">
+        <v>0.03878787878787879</v>
+      </c>
+      <c r="F97">
+        <v>0.1969463855669324</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>254</v>
+      </c>
+      <c r="I97">
+        <v>255</v>
+      </c>
+      <c r="J97">
+        <v>255</v>
+      </c>
+      <c r="K97">
+        <v>255</v>
+      </c>
+      <c r="L97">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98">
+        <v>25491</v>
+      </c>
+      <c r="B98">
+        <v>254.91</v>
+      </c>
+      <c r="C98">
+        <v>255</v>
+      </c>
+      <c r="D98">
+        <v>255</v>
+      </c>
+      <c r="E98">
+        <v>0.102929292929293</v>
+      </c>
+      <c r="F98">
+        <v>0.3208259542638235</v>
+      </c>
+      <c r="G98">
+        <v>2</v>
+      </c>
+      <c r="H98">
+        <v>253</v>
+      </c>
+      <c r="I98">
+        <v>255</v>
+      </c>
+      <c r="J98">
+        <v>255</v>
+      </c>
+      <c r="K98">
+        <v>255</v>
+      </c>
+      <c r="L98">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99">
+        <v>25500</v>
+      </c>
+      <c r="B99">
+        <v>255</v>
+      </c>
+      <c r="C99">
+        <v>255</v>
+      </c>
+      <c r="D99">
+        <v>255</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>255</v>
+      </c>
+      <c r="I99">
+        <v>255</v>
+      </c>
+      <c r="J99">
+        <v>255</v>
+      </c>
+      <c r="K99">
+        <v>255</v>
+      </c>
+      <c r="L99">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100">
+        <v>25500</v>
+      </c>
+      <c r="B100">
+        <v>255</v>
+      </c>
+      <c r="C100">
+        <v>255</v>
+      </c>
+      <c r="D100">
+        <v>255</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>255</v>
+      </c>
+      <c r="I100">
+        <v>255</v>
+      </c>
+      <c r="J100">
+        <v>255</v>
+      </c>
+      <c r="K100">
+        <v>255</v>
+      </c>
+      <c r="L100">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101">
+        <v>25500</v>
+      </c>
+      <c r="B101">
+        <v>255</v>
+      </c>
+      <c r="C101">
+        <v>255</v>
+      </c>
+      <c r="D101">
+        <v>255</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>255</v>
+      </c>
+      <c r="I101">
+        <v>255</v>
+      </c>
+      <c r="J101">
+        <v>255</v>
+      </c>
+      <c r="K101">
+        <v>255</v>
+      </c>
+      <c r="L101">
         <v>255</v>
       </c>
     </row>

--- a/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga1_RGB_Vector.xlsx
+++ b/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga1_RGB_Vector.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,10 +453,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>25471</v>
+        <v>50943</v>
       </c>
       <c r="B2">
-        <v>254.71</v>
+        <v>254.715</v>
       </c>
       <c r="C2">
         <v>255</v>
@@ -465,10 +465,10 @@
         <v>255</v>
       </c>
       <c r="E2">
-        <v>0.7534343434343423</v>
+        <v>0.7374623115577862</v>
       </c>
       <c r="F2">
-        <v>0.8680059581790567</v>
+        <v>0.8587562585261235</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -491,10 +491,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>25481</v>
+        <v>50945</v>
       </c>
       <c r="B3">
-        <v>254.81</v>
+        <v>254.725</v>
       </c>
       <c r="C3">
         <v>255</v>
@@ -503,16 +503,16 @@
         <v>255</v>
       </c>
       <c r="E3">
-        <v>0.3372727272727267</v>
+        <v>0.7028894472361806</v>
       </c>
       <c r="F3">
-        <v>0.5807518637703427</v>
+        <v>0.8383850232656715</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I3">
         <v>255</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>25496</v>
+        <v>50962</v>
       </c>
       <c r="B4">
-        <v>254.96</v>
+        <v>254.81</v>
       </c>
       <c r="C4">
         <v>255</v>
@@ -541,16 +541,16 @@
         <v>255</v>
       </c>
       <c r="E4">
-        <v>0.03878787878787879</v>
+        <v>0.3355778894472379</v>
       </c>
       <c r="F4">
-        <v>0.1969463855669324</v>
+        <v>0.5792908504777525</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I4">
         <v>255</v>
@@ -567,10 +567,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>25500</v>
+        <v>50980</v>
       </c>
       <c r="B5">
-        <v>255</v>
+        <v>254.9</v>
       </c>
       <c r="C5">
         <v>255</v>
@@ -579,16 +579,16 @@
         <v>255</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.09045226130653236</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.3007528242702508</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I5">
         <v>255</v>
@@ -605,10 +605,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>25500</v>
+        <v>50986</v>
       </c>
       <c r="B6">
-        <v>255</v>
+        <v>254.93</v>
       </c>
       <c r="C6">
         <v>255</v>
@@ -617,16 +617,16 @@
         <v>255</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.06542713567839203</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.2557872859983311</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I6">
         <v>255</v>
@@ -643,10 +643,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>25479</v>
+        <v>51000</v>
       </c>
       <c r="B7">
-        <v>254.79</v>
+        <v>255</v>
       </c>
       <c r="C7">
         <v>255</v>
@@ -655,16 +655,16 @@
         <v>255</v>
       </c>
       <c r="E7">
-        <v>0.2483838383838386</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4983812179284434</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="I7">
         <v>255</v>
@@ -681,10 +681,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>25473</v>
+        <v>51000</v>
       </c>
       <c r="B8">
-        <v>254.73</v>
+        <v>255</v>
       </c>
       <c r="C8">
         <v>255</v>
@@ -693,16 +693,16 @@
         <v>255</v>
       </c>
       <c r="E8">
-        <v>0.4617171717171711</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6794977348874469</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="I8">
         <v>255</v>
@@ -719,10 +719,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>25356</v>
+        <v>51000</v>
       </c>
       <c r="B9">
-        <v>253.56</v>
+        <v>255</v>
       </c>
       <c r="C9">
         <v>255</v>
@@ -731,22 +731,22 @@
         <v>255</v>
       </c>
       <c r="E9">
-        <v>20.91555555555557</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>4.573352769638001</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="I9">
         <v>255</v>
       </c>
       <c r="J9">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K9">
         <v>255</v>
@@ -757,10 +757,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>24838</v>
+        <v>51000</v>
       </c>
       <c r="B10">
-        <v>248.38</v>
+        <v>255</v>
       </c>
       <c r="C10">
         <v>255</v>
@@ -769,22 +769,22 @@
         <v>255</v>
       </c>
       <c r="E10">
-        <v>416.8440404040397</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>20.416758812408</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>156</v>
+        <v>255</v>
       </c>
       <c r="I10">
         <v>255</v>
       </c>
       <c r="J10">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K10">
         <v>255</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>24336</v>
+        <v>51000</v>
       </c>
       <c r="B11">
-        <v>243.36</v>
+        <v>255</v>
       </c>
       <c r="C11">
         <v>255</v>
@@ -807,22 +807,22 @@
         <v>255</v>
       </c>
       <c r="E11">
-        <v>973.323636363637</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>31.19813514240294</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>137</v>
+        <v>255</v>
       </c>
       <c r="I11">
         <v>255</v>
       </c>
       <c r="J11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K11">
         <v>255</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
-        <v>23858</v>
+        <v>50985</v>
       </c>
       <c r="B12">
-        <v>238.58</v>
+        <v>254.925</v>
       </c>
       <c r="C12">
         <v>255</v>
@@ -845,22 +845,22 @@
         <v>255</v>
       </c>
       <c r="E12">
-        <v>1471.43797979798</v>
+        <v>0.07977386934673374</v>
       </c>
       <c r="F12">
-        <v>38.35932715517804</v>
+        <v>0.2824426832947416</v>
       </c>
       <c r="G12">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>134</v>
+        <v>253</v>
       </c>
       <c r="I12">
         <v>255</v>
       </c>
       <c r="J12">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K12">
         <v>255</v>
@@ -871,10 +871,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
-        <v>23332</v>
+        <v>50932</v>
       </c>
       <c r="B13">
-        <v>233.32</v>
+        <v>254.66</v>
       </c>
       <c r="C13">
         <v>255</v>
@@ -883,22 +883,22 @@
         <v>255</v>
       </c>
       <c r="E13">
-        <v>1930.785454545452</v>
+        <v>0.8787939698492454</v>
       </c>
       <c r="F13">
-        <v>43.94070384672339</v>
+        <v>0.9374401153403056</v>
       </c>
       <c r="G13">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="H13">
-        <v>131</v>
+        <v>249</v>
       </c>
       <c r="I13">
         <v>255</v>
       </c>
       <c r="J13">
-        <v>252.5</v>
+        <v>255</v>
       </c>
       <c r="K13">
         <v>255</v>
@@ -909,10 +909,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
-        <v>23009</v>
+        <v>50950</v>
       </c>
       <c r="B14">
-        <v>230.09</v>
+        <v>254.75</v>
       </c>
       <c r="C14">
         <v>255</v>
@@ -921,22 +921,22 @@
         <v>255</v>
       </c>
       <c r="E14">
-        <v>2235.193838383839</v>
+        <v>0.3894472361809045</v>
       </c>
       <c r="F14">
-        <v>47.27783665084348</v>
+        <v>0.6240570776626962</v>
       </c>
       <c r="G14">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>127</v>
+        <v>252</v>
       </c>
       <c r="I14">
         <v>255</v>
       </c>
       <c r="J14">
-        <v>250.75</v>
+        <v>255</v>
       </c>
       <c r="K14">
         <v>255</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
-        <v>22629</v>
+        <v>50937</v>
       </c>
       <c r="B15">
-        <v>226.29</v>
+        <v>254.685</v>
       </c>
       <c r="C15">
         <v>255</v>
@@ -959,22 +959,22 @@
         <v>255</v>
       </c>
       <c r="E15">
-        <v>2609.278686868687</v>
+        <v>0.5887185929648263</v>
       </c>
       <c r="F15">
-        <v>51.08109911570704</v>
+        <v>0.7672799964581549</v>
       </c>
       <c r="G15">
-        <v>136</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>119</v>
+        <v>251</v>
       </c>
       <c r="I15">
         <v>255</v>
       </c>
       <c r="J15">
-        <v>243.25</v>
+        <v>255</v>
       </c>
       <c r="K15">
         <v>255</v>
@@ -985,10 +985,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
-        <v>22299</v>
+        <v>50839</v>
       </c>
       <c r="B16">
-        <v>222.99</v>
+        <v>254.195</v>
       </c>
       <c r="C16">
         <v>255</v>
@@ -997,22 +997,22 @@
         <v>255</v>
       </c>
       <c r="E16">
-        <v>2881.848383838387</v>
+        <v>5.162788944723599</v>
       </c>
       <c r="F16">
-        <v>53.68284999735378</v>
+        <v>2.272177137620128</v>
       </c>
       <c r="G16">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="H16">
-        <v>117</v>
+        <v>239</v>
       </c>
       <c r="I16">
         <v>255</v>
       </c>
       <c r="J16">
-        <v>202.25</v>
+        <v>255</v>
       </c>
       <c r="K16">
         <v>255</v>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
-        <v>21910</v>
+        <v>50579</v>
       </c>
       <c r="B17">
-        <v>219.1</v>
+        <v>252.895</v>
       </c>
       <c r="C17">
         <v>255</v>
@@ -1035,22 +1035,22 @@
         <v>255</v>
       </c>
       <c r="E17">
-        <v>3277.60606060606</v>
+        <v>54.47635678391966</v>
       </c>
       <c r="F17">
-        <v>57.25038044071026</v>
+        <v>7.380810035756214</v>
       </c>
       <c r="G17">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="H17">
-        <v>111</v>
+        <v>200</v>
       </c>
       <c r="I17">
         <v>255</v>
       </c>
       <c r="J17">
-        <v>145.5</v>
+        <v>254.75</v>
       </c>
       <c r="K17">
         <v>255</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18">
-        <v>21559</v>
+        <v>49971</v>
       </c>
       <c r="B18">
-        <v>215.59</v>
+        <v>249.855</v>
       </c>
       <c r="C18">
         <v>255</v>
@@ -1073,22 +1073,22 @@
         <v>255</v>
       </c>
       <c r="E18">
-        <v>3563.597878787877</v>
+        <v>259.9939447236177</v>
       </c>
       <c r="F18">
-        <v>59.69587823952234</v>
+        <v>16.12432772935411</v>
       </c>
       <c r="G18">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="H18">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="I18">
         <v>255</v>
       </c>
       <c r="J18">
-        <v>135.75</v>
+        <v>254</v>
       </c>
       <c r="K18">
         <v>255</v>
@@ -1099,37 +1099,37 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19">
-        <v>21112</v>
+        <v>49379</v>
       </c>
       <c r="B19">
-        <v>211.12</v>
+        <v>246.895</v>
       </c>
       <c r="C19">
-        <v>254.5</v>
+        <v>255</v>
       </c>
       <c r="D19">
         <v>255</v>
       </c>
       <c r="E19">
-        <v>3796.773333333332</v>
+        <v>567.8632914572848</v>
       </c>
       <c r="F19">
-        <v>61.61796274896901</v>
+        <v>23.82988232151567</v>
       </c>
       <c r="G19">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="H19">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="I19">
         <v>255</v>
       </c>
       <c r="J19">
-        <v>127.5</v>
+        <v>254</v>
       </c>
       <c r="K19">
-        <v>254.5</v>
+        <v>255</v>
       </c>
       <c r="L19">
         <v>255</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20">
-        <v>20599</v>
+        <v>48861</v>
       </c>
       <c r="B20">
-        <v>205.99</v>
+        <v>244.305</v>
       </c>
       <c r="C20">
         <v>255</v>
@@ -1149,22 +1149,22 @@
         <v>255</v>
       </c>
       <c r="E20">
-        <v>4279.585757575756</v>
+        <v>898.1929396984898</v>
       </c>
       <c r="F20">
-        <v>65.41854291847042</v>
+        <v>29.96986719520942</v>
       </c>
       <c r="G20">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="H20">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="I20">
         <v>255</v>
       </c>
       <c r="J20">
-        <v>127.5</v>
+        <v>254</v>
       </c>
       <c r="K20">
         <v>255</v>
@@ -1175,10 +1175,10 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21">
-        <v>20209</v>
+        <v>48492</v>
       </c>
       <c r="B21">
-        <v>202.09</v>
+        <v>242.46</v>
       </c>
       <c r="C21">
         <v>255</v>
@@ -1187,22 +1187,22 @@
         <v>255</v>
       </c>
       <c r="E21">
-        <v>4339.395858585859</v>
+        <v>1056.802412060299</v>
       </c>
       <c r="F21">
-        <v>65.87409095073616</v>
+        <v>32.50849753618735</v>
       </c>
       <c r="G21">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="H21">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="I21">
         <v>255</v>
       </c>
       <c r="J21">
-        <v>124.75</v>
+        <v>254</v>
       </c>
       <c r="K21">
         <v>255</v>
@@ -1213,10 +1213,10 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22">
-        <v>20413</v>
+        <v>47968</v>
       </c>
       <c r="B22">
-        <v>204.13</v>
+        <v>239.84</v>
       </c>
       <c r="C22">
         <v>255</v>
@@ -1225,22 +1225,22 @@
         <v>255</v>
       </c>
       <c r="E22">
-        <v>3837.81121212121</v>
+        <v>1292.537085427139</v>
       </c>
       <c r="F22">
-        <v>61.95007031570836</v>
+        <v>35.95187179309498</v>
       </c>
       <c r="G22">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="H22">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="I22">
         <v>255</v>
       </c>
       <c r="J22">
-        <v>129.75</v>
+        <v>254</v>
       </c>
       <c r="K22">
         <v>255</v>
@@ -1251,37 +1251,37 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23">
-        <v>20668</v>
+        <v>47423</v>
       </c>
       <c r="B23">
-        <v>206.68</v>
+        <v>237.115</v>
       </c>
       <c r="C23">
-        <v>253.5</v>
+        <v>255</v>
       </c>
       <c r="D23">
         <v>255</v>
       </c>
       <c r="E23">
-        <v>3924.03797979798</v>
+        <v>1570.946507537685</v>
       </c>
       <c r="F23">
-        <v>62.64214220313654</v>
+        <v>39.63516756035838</v>
       </c>
       <c r="G23">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="H23">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="I23">
         <v>255</v>
       </c>
       <c r="J23">
-        <v>130.75</v>
+        <v>254</v>
       </c>
       <c r="K23">
-        <v>253.5</v>
+        <v>255</v>
       </c>
       <c r="L23">
         <v>255</v>
@@ -1289,37 +1289,37 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24">
-        <v>20628</v>
+        <v>46902</v>
       </c>
       <c r="B24">
-        <v>206.28</v>
+        <v>234.51</v>
       </c>
       <c r="C24">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D24">
         <v>255</v>
       </c>
       <c r="E24">
-        <v>4006.365252525251</v>
+        <v>1839.316482412054</v>
       </c>
       <c r="F24">
-        <v>63.29585493952388</v>
+        <v>42.88725314603459</v>
       </c>
       <c r="G24">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="I24">
         <v>255</v>
       </c>
       <c r="J24">
-        <v>126.75</v>
+        <v>254</v>
       </c>
       <c r="K24">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L24">
         <v>255</v>
@@ -1327,37 +1327,37 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25">
-        <v>20622</v>
+        <v>46423</v>
       </c>
       <c r="B25">
-        <v>206.22</v>
+        <v>232.115</v>
       </c>
       <c r="C25">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D25">
         <v>255</v>
       </c>
       <c r="E25">
-        <v>3960.698585858583</v>
+        <v>2061.318366834177</v>
       </c>
       <c r="F25">
-        <v>62.93408127444606</v>
+        <v>45.40174409462897</v>
       </c>
       <c r="G25">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="H25">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="I25">
         <v>255</v>
       </c>
       <c r="J25">
-        <v>127</v>
+        <v>250.75</v>
       </c>
       <c r="K25">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L25">
         <v>255</v>
@@ -1365,37 +1365,37 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26">
-        <v>20542</v>
+        <v>46122</v>
       </c>
       <c r="B26">
-        <v>205.42</v>
+        <v>230.61</v>
       </c>
       <c r="C26">
+        <v>255</v>
+      </c>
+      <c r="D26">
+        <v>255</v>
+      </c>
+      <c r="E26">
+        <v>2179.254170854267</v>
+      </c>
+      <c r="F26">
+        <v>46.68248248384256</v>
+      </c>
+      <c r="G26">
+        <v>130</v>
+      </c>
+      <c r="H26">
+        <v>125</v>
+      </c>
+      <c r="I26">
+        <v>255</v>
+      </c>
+      <c r="J26">
         <v>252</v>
       </c>
-      <c r="D26">
-        <v>255</v>
-      </c>
-      <c r="E26">
-        <v>4102.690505050505</v>
-      </c>
-      <c r="F26">
-        <v>64.05224824352776</v>
-      </c>
-      <c r="G26">
-        <v>152</v>
-      </c>
-      <c r="H26">
-        <v>103</v>
-      </c>
-      <c r="I26">
-        <v>255</v>
-      </c>
-      <c r="J26">
-        <v>127.5</v>
-      </c>
       <c r="K26">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L26">
         <v>255</v>
@@ -1403,37 +1403,37 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27">
-        <v>20516</v>
+        <v>45802</v>
       </c>
       <c r="B27">
-        <v>205.16</v>
+        <v>229.01</v>
       </c>
       <c r="C27">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D27">
         <v>255</v>
       </c>
       <c r="E27">
-        <v>4153.953939393939</v>
+        <v>2313.808944723615</v>
       </c>
       <c r="F27">
-        <v>64.45117484882599</v>
+        <v>48.10206798801497</v>
       </c>
       <c r="G27">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="H27">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="I27">
         <v>255</v>
       </c>
       <c r="J27">
-        <v>127.75</v>
+        <v>250.75</v>
       </c>
       <c r="K27">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L27">
         <v>255</v>
@@ -1441,37 +1441,37 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28">
-        <v>20783</v>
+        <v>45414</v>
       </c>
       <c r="B28">
-        <v>207.83</v>
+        <v>227.07</v>
       </c>
       <c r="C28">
-        <v>250.5</v>
+        <v>255</v>
       </c>
       <c r="D28">
         <v>255</v>
       </c>
       <c r="E28">
-        <v>4091.657676767678</v>
+        <v>2539.532763819098</v>
       </c>
       <c r="F28">
-        <v>63.96606660384612</v>
+        <v>50.39377703466072</v>
       </c>
       <c r="G28">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="H28">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="I28">
         <v>255</v>
       </c>
       <c r="J28">
-        <v>120</v>
+        <v>248</v>
       </c>
       <c r="K28">
-        <v>250.5</v>
+        <v>255</v>
       </c>
       <c r="L28">
         <v>255</v>
@@ -1479,37 +1479,37 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29">
-        <v>21206</v>
+        <v>45046</v>
       </c>
       <c r="B29">
-        <v>212.06</v>
+        <v>225.23</v>
       </c>
       <c r="C29">
-        <v>249.5</v>
+        <v>255</v>
       </c>
       <c r="D29">
         <v>255</v>
       </c>
       <c r="E29">
-        <v>3832.117575757578</v>
+        <v>2701.183015075378</v>
       </c>
       <c r="F29">
-        <v>61.90409982995939</v>
+        <v>51.97290654827165</v>
       </c>
       <c r="G29">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="H29">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="I29">
         <v>255</v>
       </c>
       <c r="J29">
-        <v>151.5</v>
+        <v>239.75</v>
       </c>
       <c r="K29">
-        <v>249.5</v>
+        <v>255</v>
       </c>
       <c r="L29">
         <v>255</v>
@@ -1517,37 +1517,37 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30">
-        <v>21526</v>
+        <v>44744</v>
       </c>
       <c r="B30">
-        <v>215.26</v>
+        <v>223.72</v>
       </c>
       <c r="C30">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D30">
         <v>255</v>
       </c>
       <c r="E30">
-        <v>3783.345858585863</v>
+        <v>2802.031758793965</v>
       </c>
       <c r="F30">
-        <v>61.50890877414314</v>
+        <v>52.93422105589129</v>
       </c>
       <c r="G30">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="H30">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="I30">
         <v>255</v>
       </c>
       <c r="J30">
-        <v>189.25</v>
+        <v>205.5</v>
       </c>
       <c r="K30">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L30">
         <v>255</v>
@@ -1555,37 +1555,37 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31">
-        <v>21886</v>
+        <v>44365</v>
       </c>
       <c r="B31">
-        <v>218.86</v>
+        <v>221.825</v>
       </c>
       <c r="C31">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D31">
         <v>255</v>
       </c>
       <c r="E31">
-        <v>3493.798383838388</v>
+        <v>2982.818467336672</v>
       </c>
       <c r="F31">
-        <v>59.10836136993131</v>
+        <v>54.61518531815737</v>
       </c>
       <c r="G31">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="H31">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="I31">
         <v>255</v>
       </c>
       <c r="J31">
-        <v>223</v>
+        <v>171.25</v>
       </c>
       <c r="K31">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L31">
         <v>255</v>
@@ -1593,37 +1593,37 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32">
-        <v>22786</v>
+        <v>43914</v>
       </c>
       <c r="B32">
-        <v>227.86</v>
+        <v>219.57</v>
       </c>
       <c r="C32">
-        <v>252.5</v>
+        <v>255</v>
       </c>
       <c r="D32">
         <v>255</v>
       </c>
       <c r="E32">
-        <v>2147.96</v>
+        <v>3238.688542713562</v>
       </c>
       <c r="F32">
-        <v>46.34608937116485</v>
+        <v>56.90947673905957</v>
       </c>
       <c r="G32">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H32">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="I32">
         <v>255</v>
       </c>
       <c r="J32">
-        <v>231.5</v>
+        <v>140.75</v>
       </c>
       <c r="K32">
-        <v>252.5</v>
+        <v>255</v>
       </c>
       <c r="L32">
         <v>255</v>
@@ -1631,37 +1631,37 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33">
-        <v>23593</v>
+        <v>43696</v>
       </c>
       <c r="B33">
-        <v>235.93</v>
+        <v>218.48</v>
       </c>
       <c r="C33">
-        <v>253.5</v>
+        <v>255</v>
       </c>
       <c r="D33">
         <v>255</v>
       </c>
       <c r="E33">
-        <v>1337.823333333334</v>
+        <v>3290.301105527634</v>
       </c>
       <c r="F33">
-        <v>36.57626735102058</v>
+        <v>57.3611463059067</v>
       </c>
       <c r="G33">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H33">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I33">
         <v>255</v>
       </c>
       <c r="J33">
-        <v>241.5</v>
+        <v>142.25</v>
       </c>
       <c r="K33">
-        <v>253.5</v>
+        <v>255</v>
       </c>
       <c r="L33">
         <v>255</v>
@@ -1669,37 +1669,37 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34">
-        <v>24065</v>
+        <v>43340</v>
       </c>
       <c r="B34">
-        <v>240.65</v>
+        <v>216.7</v>
       </c>
       <c r="C34">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D34">
         <v>255</v>
       </c>
       <c r="E34">
-        <v>699.9267676767681</v>
+        <v>3442.040201005026</v>
       </c>
       <c r="F34">
-        <v>26.45612911362447</v>
+        <v>58.66890318563171</v>
       </c>
       <c r="G34">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="H34">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="I34">
         <v>255</v>
       </c>
       <c r="J34">
-        <v>240</v>
+        <v>137.5</v>
       </c>
       <c r="K34">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L34">
         <v>255</v>
@@ -1707,10 +1707,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35">
-        <v>24472</v>
+        <v>42897</v>
       </c>
       <c r="B35">
-        <v>244.72</v>
+        <v>214.485</v>
       </c>
       <c r="C35">
         <v>254</v>
@@ -1719,22 +1719,22 @@
         <v>255</v>
       </c>
       <c r="E35">
-        <v>385.7389898989892</v>
+        <v>3552.441984924631</v>
       </c>
       <c r="F35">
-        <v>19.64023904892681</v>
+        <v>59.60236559839409</v>
       </c>
       <c r="G35">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="H35">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="I35">
         <v>255</v>
       </c>
       <c r="J35">
-        <v>244</v>
+        <v>135</v>
       </c>
       <c r="K35">
         <v>254</v>
@@ -1745,37 +1745,37 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36">
-        <v>24736</v>
+        <v>42426</v>
       </c>
       <c r="B36">
-        <v>247.36</v>
+        <v>212.13</v>
       </c>
       <c r="C36">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D36">
         <v>255</v>
       </c>
       <c r="E36">
-        <v>175.9498989898987</v>
+        <v>3696.13376884422</v>
       </c>
       <c r="F36">
-        <v>13.26461077415763</v>
+        <v>60.79583677230062</v>
       </c>
       <c r="G36">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="H36">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="I36">
         <v>255</v>
       </c>
       <c r="J36">
-        <v>244.75</v>
+        <v>129</v>
       </c>
       <c r="K36">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L36">
         <v>255</v>
@@ -1783,37 +1783,37 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37">
-        <v>24752</v>
+        <v>42127</v>
       </c>
       <c r="B37">
-        <v>247.52</v>
+        <v>210.635</v>
       </c>
       <c r="C37">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D37">
         <v>255</v>
       </c>
       <c r="E37">
-        <v>207.3228282828286</v>
+        <v>3802.172638190954</v>
       </c>
       <c r="F37">
-        <v>14.39870925752821</v>
+        <v>61.66175993426521</v>
       </c>
       <c r="G37">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="H37">
-        <v>180</v>
+        <v>97</v>
       </c>
       <c r="I37">
         <v>255</v>
       </c>
       <c r="J37">
-        <v>247</v>
+        <v>129.75</v>
       </c>
       <c r="K37">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L37">
         <v>255</v>
@@ -1821,37 +1821,37 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
-        <v>24780</v>
+        <v>41557</v>
       </c>
       <c r="B38">
-        <v>247.8</v>
+        <v>207.785</v>
       </c>
       <c r="C38">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D38">
         <v>255</v>
       </c>
       <c r="E38">
-        <v>180.0606060606061</v>
+        <v>4031.697261306533</v>
       </c>
       <c r="F38">
-        <v>13.41866632943103</v>
+        <v>63.49564757766105</v>
       </c>
       <c r="G38">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="H38">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="I38">
         <v>255</v>
       </c>
       <c r="J38">
-        <v>248</v>
+        <v>127</v>
       </c>
       <c r="K38">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L38">
         <v>255</v>
@@ -1859,37 +1859,37 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39">
-        <v>24731</v>
+        <v>40963</v>
       </c>
       <c r="B39">
-        <v>247.31</v>
+        <v>204.815</v>
       </c>
       <c r="C39">
-        <v>254.5</v>
+        <v>255</v>
       </c>
       <c r="D39">
         <v>255</v>
       </c>
       <c r="E39">
-        <v>226.7615151515151</v>
+        <v>4339.035954773862</v>
       </c>
       <c r="F39">
-        <v>15.0586026958518</v>
+        <v>65.87135913865647</v>
       </c>
       <c r="G39">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="H39">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="I39">
         <v>255</v>
       </c>
       <c r="J39">
-        <v>247.5</v>
+        <v>125.75</v>
       </c>
       <c r="K39">
-        <v>254.5</v>
+        <v>255</v>
       </c>
       <c r="L39">
         <v>255</v>
@@ -1897,37 +1897,37 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40">
-        <v>24768</v>
+        <v>40535</v>
       </c>
       <c r="B40">
-        <v>247.68</v>
+        <v>202.675</v>
       </c>
       <c r="C40">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D40">
         <v>255</v>
       </c>
       <c r="E40">
-        <v>205.5127272727273</v>
+        <v>4545.084798994977</v>
       </c>
       <c r="F40">
-        <v>14.33571509457157</v>
+        <v>67.41724407742412</v>
       </c>
       <c r="G40">
-        <v>67</v>
+        <v>203</v>
       </c>
       <c r="H40">
-        <v>188</v>
+        <v>52</v>
       </c>
       <c r="I40">
         <v>255</v>
       </c>
       <c r="J40">
-        <v>247.75</v>
+        <v>124.75</v>
       </c>
       <c r="K40">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L40">
         <v>255</v>
@@ -1935,37 +1935,37 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
-        <v>24705</v>
+        <v>40211</v>
       </c>
       <c r="B41">
-        <v>247.05</v>
+        <v>201.055</v>
       </c>
       <c r="C41">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D41">
         <v>255</v>
       </c>
       <c r="E41">
-        <v>215.0176767676766</v>
+        <v>4205.800979899505</v>
       </c>
       <c r="F41">
-        <v>14.66348105900085</v>
+        <v>64.85214707239464</v>
       </c>
       <c r="G41">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="H41">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="I41">
         <v>255</v>
       </c>
       <c r="J41">
-        <v>247.75</v>
+        <v>123</v>
       </c>
       <c r="K41">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L41">
         <v>255</v>
@@ -1973,37 +1973,37 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42">
-        <v>24666</v>
+        <v>40489</v>
       </c>
       <c r="B42">
-        <v>246.66</v>
+        <v>202.445</v>
       </c>
       <c r="C42">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D42">
         <v>255</v>
       </c>
       <c r="E42">
-        <v>232.772121212121</v>
+        <v>3928.961783919604</v>
       </c>
       <c r="F42">
-        <v>15.25687127861152</v>
+        <v>62.68143093388667</v>
       </c>
       <c r="G42">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="H42">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="I42">
         <v>255</v>
       </c>
       <c r="J42">
-        <v>245.75</v>
+        <v>125.75</v>
       </c>
       <c r="K42">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L42">
         <v>255</v>
@@ -2011,37 +2011,37 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43">
-        <v>24606</v>
+        <v>41052</v>
       </c>
       <c r="B43">
-        <v>246.06</v>
+        <v>205.26</v>
       </c>
       <c r="C43">
-        <v>253</v>
+        <v>253.5</v>
       </c>
       <c r="D43">
         <v>255</v>
       </c>
       <c r="E43">
-        <v>230.784242424242</v>
+        <v>3817.811457286424</v>
       </c>
       <c r="F43">
-        <v>15.19158459227483</v>
+        <v>61.78844113008859</v>
       </c>
       <c r="G43">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="H43">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="I43">
         <v>255</v>
       </c>
       <c r="J43">
-        <v>245</v>
+        <v>128.5</v>
       </c>
       <c r="K43">
-        <v>253</v>
+        <v>253.5</v>
       </c>
       <c r="L43">
         <v>255</v>
@@ -2049,37 +2049,37 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44">
-        <v>24385</v>
+        <v>41398</v>
       </c>
       <c r="B44">
-        <v>243.85</v>
+        <v>206.99</v>
       </c>
       <c r="C44">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D44">
         <v>255</v>
       </c>
       <c r="E44">
-        <v>258.4924242424239</v>
+        <v>3907.447135678395</v>
       </c>
       <c r="F44">
-        <v>16.07769959423374</v>
+        <v>62.50957635177505</v>
       </c>
       <c r="G44">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="H44">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="I44">
         <v>255</v>
       </c>
       <c r="J44">
-        <v>241</v>
+        <v>132</v>
       </c>
       <c r="K44">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L44">
         <v>255</v>
@@ -2087,37 +2087,37 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45">
-        <v>24291</v>
+        <v>41247</v>
       </c>
       <c r="B45">
-        <v>242.91</v>
+        <v>206.235</v>
       </c>
       <c r="C45">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D45">
         <v>255</v>
       </c>
       <c r="E45">
-        <v>266.2847474747473</v>
+        <v>3951.426909547738</v>
       </c>
       <c r="F45">
-        <v>16.31823358929352</v>
+        <v>62.8603763077166</v>
       </c>
       <c r="G45">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="H45">
-        <v>194</v>
+        <v>101</v>
       </c>
       <c r="I45">
         <v>255</v>
       </c>
       <c r="J45">
-        <v>235</v>
+        <v>129.75</v>
       </c>
       <c r="K45">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L45">
         <v>255</v>
@@ -2125,37 +2125,37 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46">
-        <v>24110</v>
+        <v>41196</v>
       </c>
       <c r="B46">
-        <v>241.1</v>
+        <v>205.98</v>
       </c>
       <c r="C46">
-        <v>250.5</v>
+        <v>252.5</v>
       </c>
       <c r="D46">
         <v>255</v>
       </c>
       <c r="E46">
-        <v>357.3434343434342</v>
+        <v>3973.728241206029</v>
       </c>
       <c r="F46">
-        <v>18.90352967949198</v>
+        <v>63.03751455447803</v>
       </c>
       <c r="G46">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="H46">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="I46">
         <v>255</v>
       </c>
       <c r="J46">
-        <v>234.75</v>
+        <v>127.75</v>
       </c>
       <c r="K46">
-        <v>250.5</v>
+        <v>252.5</v>
       </c>
       <c r="L46">
         <v>255</v>
@@ -2163,37 +2163,37 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47">
-        <v>23836</v>
+        <v>41229</v>
       </c>
       <c r="B47">
-        <v>238.36</v>
+        <v>206.145</v>
       </c>
       <c r="C47">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D47">
         <v>255</v>
       </c>
       <c r="E47">
-        <v>436.9802020202026</v>
+        <v>3948.134648241199</v>
       </c>
       <c r="F47">
-        <v>20.90407142209868</v>
+        <v>62.83418375566917</v>
       </c>
       <c r="G47">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="H47">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="I47">
         <v>255</v>
       </c>
       <c r="J47">
-        <v>229.75</v>
+        <v>127</v>
       </c>
       <c r="K47">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L47">
         <v>255</v>
@@ -2201,37 +2201,37 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48">
-        <v>23572</v>
+        <v>41176</v>
       </c>
       <c r="B48">
-        <v>235.72</v>
+        <v>205.88</v>
       </c>
       <c r="C48">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="D48">
         <v>255</v>
       </c>
       <c r="E48">
-        <v>491.8804040404037</v>
+        <v>3944.709145728641</v>
       </c>
       <c r="F48">
-        <v>22.17837694783826</v>
+        <v>62.80691956885516</v>
       </c>
       <c r="G48">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="H48">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I48">
         <v>255</v>
       </c>
       <c r="J48">
-        <v>226.5</v>
+        <v>127</v>
       </c>
       <c r="K48">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="L48">
         <v>255</v>
@@ -2239,37 +2239,37 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49">
-        <v>23451</v>
+        <v>41231</v>
       </c>
       <c r="B49">
-        <v>234.51</v>
+        <v>206.155</v>
       </c>
       <c r="C49">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="D49">
         <v>255</v>
       </c>
       <c r="E49">
-        <v>560.777676767677</v>
+        <v>3919.458266331657</v>
       </c>
       <c r="F49">
-        <v>23.68074485246773</v>
+        <v>62.60557695869959</v>
       </c>
       <c r="G49">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="H49">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="I49">
         <v>255</v>
       </c>
       <c r="J49">
-        <v>223.5</v>
+        <v>126.75</v>
       </c>
       <c r="K49">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="L49">
         <v>255</v>
@@ -2277,37 +2277,37 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50">
-        <v>23225</v>
+        <v>41180</v>
       </c>
       <c r="B50">
-        <v>232.25</v>
+        <v>205.9</v>
       </c>
       <c r="C50">
-        <v>244</v>
+        <v>252.5</v>
       </c>
       <c r="D50">
         <v>255</v>
       </c>
       <c r="E50">
-        <v>681.0176767676768</v>
+        <v>3998.361809045234</v>
       </c>
       <c r="F50">
-        <v>26.09631538680656</v>
+        <v>63.23260084043067</v>
       </c>
       <c r="G50">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="H50">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="I50">
         <v>255</v>
       </c>
       <c r="J50">
-        <v>221</v>
+        <v>125.75</v>
       </c>
       <c r="K50">
-        <v>244</v>
+        <v>252.5</v>
       </c>
       <c r="L50">
         <v>255</v>
@@ -2315,37 +2315,37 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51">
-        <v>23038</v>
+        <v>41028</v>
       </c>
       <c r="B51">
-        <v>230.38</v>
+        <v>205.14</v>
       </c>
       <c r="C51">
-        <v>242</v>
+        <v>252.5</v>
       </c>
       <c r="D51">
         <v>255</v>
       </c>
       <c r="E51">
-        <v>746.015757575758</v>
+        <v>4133.437587939698</v>
       </c>
       <c r="F51">
-        <v>27.31328902889138</v>
+        <v>64.29181587060438</v>
       </c>
       <c r="G51">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="H51">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="I51">
         <v>255</v>
       </c>
       <c r="J51">
-        <v>213.5</v>
+        <v>125.25</v>
       </c>
       <c r="K51">
-        <v>242</v>
+        <v>252.5</v>
       </c>
       <c r="L51">
         <v>255</v>
@@ -2353,37 +2353,37 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52">
-        <v>22961</v>
+        <v>40907</v>
       </c>
       <c r="B52">
-        <v>229.61</v>
+        <v>204.535</v>
       </c>
       <c r="C52">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="D52">
         <v>255</v>
       </c>
       <c r="E52">
-        <v>677.1897979797977</v>
+        <v>4176.01886934673</v>
       </c>
       <c r="F52">
-        <v>26.02287067138823</v>
+        <v>64.62212368335422</v>
       </c>
       <c r="G52">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="H52">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="I52">
         <v>255</v>
       </c>
       <c r="J52">
-        <v>208.5</v>
+        <v>128</v>
       </c>
       <c r="K52">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="L52">
         <v>255</v>
@@ -2391,37 +2391,37 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53">
-        <v>22673</v>
+        <v>41236</v>
       </c>
       <c r="B53">
-        <v>226.73</v>
+        <v>206.18</v>
       </c>
       <c r="C53">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="D53">
         <v>255</v>
       </c>
       <c r="E53">
-        <v>799.9768686868682</v>
+        <v>4082.660904522616</v>
       </c>
       <c r="F53">
-        <v>28.28386233679672</v>
+        <v>63.8957033338128</v>
       </c>
       <c r="G53">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="H53">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="I53">
         <v>255</v>
       </c>
       <c r="J53">
-        <v>201.75</v>
+        <v>125</v>
       </c>
       <c r="K53">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="L53">
         <v>255</v>
@@ -2429,37 +2429,37 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54">
-        <v>22536</v>
+        <v>41522</v>
       </c>
       <c r="B54">
-        <v>225.36</v>
+        <v>207.61</v>
       </c>
       <c r="C54">
-        <v>229.5</v>
+        <v>251</v>
       </c>
       <c r="D54">
         <v>255</v>
       </c>
       <c r="E54">
-        <v>840.717575757575</v>
+        <v>4054.178793969846</v>
       </c>
       <c r="F54">
-        <v>28.99513020763271</v>
+        <v>63.67243354835627</v>
       </c>
       <c r="G54">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="H54">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="I54">
         <v>255</v>
       </c>
       <c r="J54">
-        <v>199.75</v>
+        <v>122.5</v>
       </c>
       <c r="K54">
-        <v>229.5</v>
+        <v>251</v>
       </c>
       <c r="L54">
         <v>255</v>
@@ -2467,37 +2467,37 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55">
-        <v>22566</v>
+        <v>41705</v>
       </c>
       <c r="B55">
-        <v>225.66</v>
+        <v>208.525</v>
       </c>
       <c r="C55">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="D55">
         <v>255</v>
       </c>
       <c r="E55">
-        <v>812.590303030304</v>
+        <v>4075.094849246235</v>
       </c>
       <c r="F55">
-        <v>28.50596960340595</v>
+        <v>63.83646958632843</v>
       </c>
       <c r="G55">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="H55">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="I55">
         <v>255</v>
       </c>
       <c r="J55">
-        <v>202.75</v>
+        <v>120.25</v>
       </c>
       <c r="K55">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="L55">
         <v>255</v>
@@ -2505,37 +2505,37 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56">
-        <v>22409</v>
+        <v>42210</v>
       </c>
       <c r="B56">
-        <v>224.09</v>
+        <v>211.05</v>
       </c>
       <c r="C56">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="D56">
         <v>255</v>
       </c>
       <c r="E56">
-        <v>914.8302020202025</v>
+        <v>3872.610552763825</v>
       </c>
       <c r="F56">
-        <v>30.24616012025663</v>
+        <v>62.23030252830068</v>
       </c>
       <c r="G56">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="H56">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="I56">
         <v>255</v>
       </c>
       <c r="J56">
-        <v>196.75</v>
+        <v>125.25</v>
       </c>
       <c r="K56">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="L56">
         <v>255</v>
@@ -2543,37 +2543,37 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57">
-        <v>22397</v>
+        <v>42622</v>
       </c>
       <c r="B57">
-        <v>223.97</v>
+        <v>213.11</v>
       </c>
       <c r="C57">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="D57">
         <v>255</v>
       </c>
       <c r="E57">
-        <v>976.049595959596</v>
+        <v>3826.369748743711</v>
       </c>
       <c r="F57">
-        <v>31.24179245753348</v>
+        <v>61.85765715530868</v>
       </c>
       <c r="G57">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="H57">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="I57">
         <v>255</v>
       </c>
       <c r="J57">
-        <v>194.5</v>
+        <v>150.75</v>
       </c>
       <c r="K57">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="L57">
         <v>255</v>
@@ -2581,37 +2581,37 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58">
-        <v>22351</v>
+        <v>42935</v>
       </c>
       <c r="B58">
-        <v>223.51</v>
+        <v>214.675</v>
       </c>
       <c r="C58">
-        <v>232.5</v>
+        <v>252</v>
       </c>
       <c r="D58">
         <v>255</v>
       </c>
       <c r="E58">
-        <v>1019.767575757575</v>
+        <v>3796.803391959792</v>
       </c>
       <c r="F58">
-        <v>31.93379989537066</v>
+        <v>61.61820665971862</v>
       </c>
       <c r="G58">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="H58">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="I58">
         <v>255</v>
       </c>
       <c r="J58">
-        <v>192.75</v>
+        <v>173.5</v>
       </c>
       <c r="K58">
-        <v>232.5</v>
+        <v>252</v>
       </c>
       <c r="L58">
         <v>255</v>
@@ -2619,37 +2619,37 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59">
-        <v>22321</v>
+        <v>43180</v>
       </c>
       <c r="B59">
-        <v>223.21</v>
+        <v>215.9</v>
       </c>
       <c r="C59">
-        <v>232.5</v>
+        <v>252</v>
       </c>
       <c r="D59">
         <v>255</v>
       </c>
       <c r="E59">
-        <v>1082.531212121212</v>
+        <v>3799.859296482423</v>
       </c>
       <c r="F59">
-        <v>32.90184207793253</v>
+        <v>61.64299876289621</v>
       </c>
       <c r="G59">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="H59">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="I59">
         <v>255</v>
       </c>
       <c r="J59">
-        <v>191.75</v>
+        <v>197.5</v>
       </c>
       <c r="K59">
-        <v>232.5</v>
+        <v>252</v>
       </c>
       <c r="L59">
         <v>255</v>
@@ -2657,37 +2657,37 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60">
-        <v>22482</v>
+        <v>43487</v>
       </c>
       <c r="B60">
-        <v>224.82</v>
+        <v>217.435</v>
       </c>
       <c r="C60">
-        <v>237.5</v>
+        <v>253</v>
       </c>
       <c r="D60">
         <v>255</v>
       </c>
       <c r="E60">
-        <v>1083.987474747475</v>
+        <v>3702.598768844226</v>
       </c>
       <c r="F60">
-        <v>32.92396505203276</v>
+        <v>60.84898330164791</v>
       </c>
       <c r="G60">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="H60">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="I60">
         <v>255</v>
       </c>
       <c r="J60">
-        <v>192</v>
+        <v>220.75</v>
       </c>
       <c r="K60">
-        <v>237.5</v>
+        <v>253</v>
       </c>
       <c r="L60">
         <v>255</v>
@@ -2695,37 +2695,37 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61">
-        <v>22493</v>
+        <v>44169</v>
       </c>
       <c r="B61">
-        <v>224.93</v>
+        <v>220.845</v>
       </c>
       <c r="C61">
-        <v>239.5</v>
+        <v>252</v>
       </c>
       <c r="D61">
         <v>255</v>
       </c>
       <c r="E61">
-        <v>1129.5001010101</v>
+        <v>3064.533643216075</v>
       </c>
       <c r="F61">
-        <v>33.60803625637922</v>
+        <v>55.3582301308132</v>
       </c>
       <c r="G61">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="H61">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="I61">
         <v>255</v>
       </c>
       <c r="J61">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="K61">
-        <v>239.5</v>
+        <v>252</v>
       </c>
       <c r="L61">
         <v>255</v>
@@ -2733,37 +2733,37 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62">
-        <v>22378</v>
+        <v>45044</v>
       </c>
       <c r="B62">
-        <v>223.78</v>
+        <v>225.22</v>
       </c>
       <c r="C62">
-        <v>234.5</v>
+        <v>252</v>
       </c>
       <c r="D62">
         <v>255</v>
       </c>
       <c r="E62">
-        <v>1142.435959595959</v>
+        <v>2460.886030150758</v>
       </c>
       <c r="F62">
-        <v>33.79994023065661</v>
+        <v>49.60731831243005</v>
       </c>
       <c r="G62">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="H62">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="I62">
         <v>255</v>
       </c>
       <c r="J62">
-        <v>198.75</v>
+        <v>228</v>
       </c>
       <c r="K62">
-        <v>234.5</v>
+        <v>252</v>
       </c>
       <c r="L62">
         <v>255</v>
@@ -2771,37 +2771,37 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63">
-        <v>22350</v>
+        <v>46000</v>
       </c>
       <c r="B63">
-        <v>223.5</v>
+        <v>230</v>
       </c>
       <c r="C63">
-        <v>239.5</v>
+        <v>255</v>
       </c>
       <c r="D63">
         <v>255</v>
       </c>
       <c r="E63">
-        <v>1184.616161616162</v>
+        <v>1965.748743718593</v>
       </c>
       <c r="F63">
-        <v>34.41825332023927</v>
+        <v>44.33676514720704</v>
       </c>
       <c r="G63">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="H63">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="I63">
         <v>255</v>
       </c>
       <c r="J63">
-        <v>196</v>
+        <v>233.25</v>
       </c>
       <c r="K63">
-        <v>239.5</v>
+        <v>255</v>
       </c>
       <c r="L63">
         <v>255</v>
@@ -2809,37 +2809,37 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64">
-        <v>22477</v>
+        <v>46787</v>
       </c>
       <c r="B64">
-        <v>224.77</v>
+        <v>233.935</v>
       </c>
       <c r="C64">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="D64">
         <v>255</v>
       </c>
       <c r="E64">
-        <v>1139.69404040404</v>
+        <v>1532.231934673371</v>
       </c>
       <c r="F64">
-        <v>33.75935485763969</v>
+        <v>39.14373429647932</v>
       </c>
       <c r="G64">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="H64">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="I64">
         <v>255</v>
       </c>
       <c r="J64">
-        <v>195.75</v>
+        <v>238</v>
       </c>
       <c r="K64">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="L64">
         <v>255</v>
@@ -2847,37 +2847,37 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65">
-        <v>22547</v>
+        <v>47575</v>
       </c>
       <c r="B65">
-        <v>225.47</v>
+        <v>237.875</v>
       </c>
       <c r="C65">
-        <v>238.5</v>
+        <v>253</v>
       </c>
       <c r="D65">
         <v>255</v>
       </c>
       <c r="E65">
-        <v>1033.504141414142</v>
+        <v>1015.446608040201</v>
       </c>
       <c r="F65">
-        <v>32.14815922279443</v>
+        <v>31.86607299370603</v>
       </c>
       <c r="G65">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="H65">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="I65">
         <v>255</v>
       </c>
       <c r="J65">
-        <v>197.25</v>
+        <v>237.75</v>
       </c>
       <c r="K65">
-        <v>238.5</v>
+        <v>253</v>
       </c>
       <c r="L65">
         <v>255</v>
@@ -2885,37 +2885,37 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66">
-        <v>22604</v>
+        <v>48140</v>
       </c>
       <c r="B66">
-        <v>226.04</v>
+        <v>240.7</v>
       </c>
       <c r="C66">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="D66">
         <v>255</v>
       </c>
       <c r="E66">
-        <v>993.9983838383829</v>
+        <v>718.8844221105518</v>
       </c>
       <c r="F66">
-        <v>31.5277399100916</v>
+        <v>26.81202010499306</v>
       </c>
       <c r="G66">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="H66">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="I66">
         <v>255</v>
       </c>
       <c r="J66">
-        <v>201.5</v>
+        <v>240.75</v>
       </c>
       <c r="K66">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="L66">
         <v>255</v>
@@ -2923,37 +2923,37 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67">
-        <v>22762</v>
+        <v>48157</v>
       </c>
       <c r="B67">
-        <v>227.62</v>
+        <v>240.785</v>
       </c>
       <c r="C67">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="D67">
         <v>255</v>
       </c>
       <c r="E67">
-        <v>899.5915151515138</v>
+        <v>666.4912311557788</v>
       </c>
       <c r="F67">
-        <v>29.99319114651713</v>
+        <v>25.81649145712443</v>
       </c>
       <c r="G67">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="H67">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="I67">
         <v>255</v>
       </c>
       <c r="J67">
-        <v>202</v>
+        <v>238.75</v>
       </c>
       <c r="K67">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="L67">
         <v>255</v>
@@ -2961,37 +2961,37 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68">
-        <v>22771</v>
+        <v>48665</v>
       </c>
       <c r="B68">
-        <v>227.71</v>
+        <v>243.325</v>
       </c>
       <c r="C68">
-        <v>237</v>
+        <v>253.5</v>
       </c>
       <c r="D68">
         <v>255</v>
       </c>
       <c r="E68">
-        <v>872.1473737373731</v>
+        <v>458.6124371859281</v>
       </c>
       <c r="F68">
-        <v>29.53214136728614</v>
+        <v>21.41523843402002</v>
       </c>
       <c r="G68">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="H68">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="I68">
         <v>255</v>
       </c>
       <c r="J68">
-        <v>200.5</v>
+        <v>243</v>
       </c>
       <c r="K68">
-        <v>237</v>
+        <v>253.5</v>
       </c>
       <c r="L68">
         <v>255</v>
@@ -2999,37 +2999,37 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69">
-        <v>22782</v>
+        <v>49130</v>
       </c>
       <c r="B69">
-        <v>227.82</v>
+        <v>245.65</v>
       </c>
       <c r="C69">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="D69">
         <v>255</v>
       </c>
       <c r="E69">
-        <v>867.6440404040401</v>
+        <v>248.4698492462314</v>
       </c>
       <c r="F69">
-        <v>29.45579807786644</v>
+        <v>15.76292641758602</v>
       </c>
       <c r="G69">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H69">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="I69">
         <v>255</v>
       </c>
       <c r="J69">
-        <v>197.5</v>
+        <v>243</v>
       </c>
       <c r="K69">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="L69">
         <v>255</v>
@@ -3037,37 +3037,37 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70">
-        <v>22767</v>
+        <v>49436</v>
       </c>
       <c r="B70">
-        <v>227.67</v>
+        <v>247.18</v>
       </c>
       <c r="C70">
-        <v>239.5</v>
+        <v>254</v>
       </c>
       <c r="D70">
         <v>255</v>
       </c>
       <c r="E70">
-        <v>894.0617171717172</v>
+        <v>182.9121608040199</v>
       </c>
       <c r="F70">
-        <v>29.90086482314044</v>
+        <v>13.52450223867851</v>
       </c>
       <c r="G70">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H70">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I70">
         <v>255</v>
       </c>
       <c r="J70">
-        <v>194.75</v>
+        <v>245</v>
       </c>
       <c r="K70">
-        <v>239.5</v>
+        <v>254</v>
       </c>
       <c r="L70">
         <v>255</v>
@@ -3075,37 +3075,37 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71">
-        <v>22797</v>
+        <v>49471</v>
       </c>
       <c r="B71">
-        <v>227.97</v>
+        <v>247.355</v>
       </c>
       <c r="C71">
-        <v>242.5</v>
+        <v>254</v>
       </c>
       <c r="D71">
         <v>255</v>
       </c>
       <c r="E71">
-        <v>871.0798989898979</v>
+        <v>191.2753517587933</v>
       </c>
       <c r="F71">
-        <v>29.51406273270249</v>
+        <v>13.83023325033939</v>
       </c>
       <c r="G71">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H71">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="I71">
         <v>255</v>
       </c>
       <c r="J71">
-        <v>194.75</v>
+        <v>246.75</v>
       </c>
       <c r="K71">
-        <v>242.5</v>
+        <v>254</v>
       </c>
       <c r="L71">
         <v>255</v>
@@ -3113,37 +3113,37 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72">
-        <v>22915</v>
+        <v>49485</v>
       </c>
       <c r="B72">
-        <v>229.15</v>
+        <v>247.425</v>
       </c>
       <c r="C72">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="D72">
         <v>255</v>
       </c>
       <c r="E72">
-        <v>808.9570707070717</v>
+        <v>192.4466080402006</v>
       </c>
       <c r="F72">
-        <v>28.44217063986277</v>
+        <v>13.87251267940313</v>
       </c>
       <c r="G72">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H72">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="I72">
         <v>255</v>
       </c>
       <c r="J72">
-        <v>199.75</v>
+        <v>246</v>
       </c>
       <c r="K72">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="L72">
         <v>255</v>
@@ -3151,37 +3151,37 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73">
-        <v>22991</v>
+        <v>49538</v>
       </c>
       <c r="B73">
-        <v>229.91</v>
+        <v>247.69</v>
       </c>
       <c r="C73">
-        <v>248.5</v>
+        <v>254</v>
       </c>
       <c r="D73">
         <v>255</v>
       </c>
       <c r="E73">
-        <v>776.7291919191931</v>
+        <v>196.6672361809044</v>
       </c>
       <c r="F73">
-        <v>27.86986171331306</v>
+        <v>14.0238096172511</v>
       </c>
       <c r="G73">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H73">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I73">
         <v>255</v>
       </c>
       <c r="J73">
-        <v>204.5</v>
+        <v>248</v>
       </c>
       <c r="K73">
-        <v>248.5</v>
+        <v>254</v>
       </c>
       <c r="L73">
         <v>255</v>
@@ -3189,37 +3189,37 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74">
-        <v>23041</v>
+        <v>49580</v>
       </c>
       <c r="B74">
-        <v>230.41</v>
+        <v>247.9</v>
       </c>
       <c r="C74">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D74">
         <v>255</v>
       </c>
       <c r="E74">
-        <v>788.4665656565649</v>
+        <v>196.5226130653274</v>
       </c>
       <c r="F74">
-        <v>28.07964682214797</v>
+        <v>14.01865232700089</v>
       </c>
       <c r="G74">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H74">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I74">
         <v>255</v>
       </c>
       <c r="J74">
-        <v>201</v>
+        <v>248.75</v>
       </c>
       <c r="K74">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L74">
         <v>255</v>
@@ -3227,37 +3227,37 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75">
-        <v>23131</v>
+        <v>49493</v>
       </c>
       <c r="B75">
-        <v>231.31</v>
+        <v>247.465</v>
       </c>
       <c r="C75">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D75">
         <v>255</v>
       </c>
       <c r="E75">
-        <v>749.1453535353543</v>
+        <v>183.586708542714</v>
       </c>
       <c r="F75">
-        <v>27.37051978927975</v>
+        <v>13.54941727686892</v>
       </c>
       <c r="G75">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H75">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="I75">
         <v>255</v>
       </c>
       <c r="J75">
-        <v>200.5</v>
+        <v>247</v>
       </c>
       <c r="K75">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L75">
         <v>255</v>
@@ -3265,37 +3265,37 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76">
-        <v>23264</v>
+        <v>49472</v>
       </c>
       <c r="B76">
-        <v>232.64</v>
+        <v>247.36</v>
       </c>
       <c r="C76">
-        <v>246.5</v>
+        <v>254</v>
       </c>
       <c r="D76">
         <v>255</v>
       </c>
       <c r="E76">
-        <v>647.7276767676775</v>
+        <v>190.9250251256279</v>
       </c>
       <c r="F76">
-        <v>25.45049462717135</v>
+        <v>13.81756219908664</v>
       </c>
       <c r="G76">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H76">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I76">
         <v>255</v>
       </c>
       <c r="J76">
-        <v>209</v>
+        <v>245.75</v>
       </c>
       <c r="K76">
-        <v>246.5</v>
+        <v>254</v>
       </c>
       <c r="L76">
         <v>255</v>
@@ -3303,37 +3303,37 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77">
-        <v>23336</v>
+        <v>49495</v>
       </c>
       <c r="B77">
-        <v>233.36</v>
+        <v>247.475</v>
       </c>
       <c r="C77">
-        <v>247.5</v>
+        <v>254</v>
       </c>
       <c r="D77">
         <v>255</v>
       </c>
       <c r="E77">
-        <v>594.2327272727267</v>
+        <v>204.5219849246232</v>
       </c>
       <c r="F77">
-        <v>24.37688920417711</v>
+        <v>14.30111831027991</v>
       </c>
       <c r="G77">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H77">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I77">
         <v>255</v>
       </c>
       <c r="J77">
-        <v>208.5</v>
+        <v>247</v>
       </c>
       <c r="K77">
-        <v>247.5</v>
+        <v>254</v>
       </c>
       <c r="L77">
         <v>255</v>
@@ -3341,37 +3341,37 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78">
-        <v>23395</v>
+        <v>49544</v>
       </c>
       <c r="B78">
-        <v>233.95</v>
+        <v>247.72</v>
       </c>
       <c r="C78">
-        <v>249.5</v>
+        <v>254</v>
       </c>
       <c r="D78">
         <v>255</v>
       </c>
       <c r="E78">
-        <v>562.6338383838386</v>
+        <v>208.1222110552758</v>
       </c>
       <c r="F78">
-        <v>23.71990384432109</v>
+        <v>14.42644138570825</v>
       </c>
       <c r="G78">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H78">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I78">
         <v>255</v>
       </c>
       <c r="J78">
-        <v>210.25</v>
+        <v>248</v>
       </c>
       <c r="K78">
-        <v>249.5</v>
+        <v>254</v>
       </c>
       <c r="L78">
         <v>255</v>
@@ -3379,37 +3379,37 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79">
-        <v>23543</v>
+        <v>49513</v>
       </c>
       <c r="B79">
-        <v>235.43</v>
+        <v>247.565</v>
       </c>
       <c r="C79">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D79">
         <v>255</v>
       </c>
       <c r="E79">
-        <v>513.015252525253</v>
+        <v>214.7997738693464</v>
       </c>
       <c r="F79">
-        <v>22.64984001102994</v>
+        <v>14.65604905386668</v>
       </c>
       <c r="G79">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H79">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I79">
         <v>255</v>
       </c>
       <c r="J79">
-        <v>212.5</v>
+        <v>249</v>
       </c>
       <c r="K79">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L79">
         <v>255</v>
@@ -3417,37 +3417,37 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80">
-        <v>23586</v>
+        <v>49445</v>
       </c>
       <c r="B80">
-        <v>235.86</v>
+        <v>247.225</v>
       </c>
       <c r="C80">
-        <v>251.5</v>
+        <v>254</v>
       </c>
       <c r="D80">
         <v>255</v>
       </c>
       <c r="E80">
-        <v>537.3539393939394</v>
+        <v>215.7732412060298</v>
       </c>
       <c r="F80">
-        <v>23.18089600067131</v>
+        <v>14.68922194011752</v>
       </c>
       <c r="G80">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H80">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I80">
         <v>255</v>
       </c>
       <c r="J80">
-        <v>216.25</v>
+        <v>248</v>
       </c>
       <c r="K80">
-        <v>251.5</v>
+        <v>254</v>
       </c>
       <c r="L80">
         <v>255</v>
@@ -3455,37 +3455,37 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81">
-        <v>23621</v>
+        <v>49377</v>
       </c>
       <c r="B81">
-        <v>236.21</v>
+        <v>246.885</v>
       </c>
       <c r="C81">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D81">
         <v>255</v>
       </c>
       <c r="E81">
-        <v>543.8847474747482</v>
+        <v>221.2078140703515</v>
       </c>
       <c r="F81">
-        <v>23.32133674287879</v>
+        <v>14.87305664852896</v>
       </c>
       <c r="G81">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H81">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I81">
         <v>255</v>
       </c>
       <c r="J81">
-        <v>215.75</v>
+        <v>246</v>
       </c>
       <c r="K81">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L81">
         <v>255</v>
@@ -3493,37 +3493,37 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82">
-        <v>23694</v>
+        <v>49318</v>
       </c>
       <c r="B82">
-        <v>236.94</v>
+        <v>246.59</v>
       </c>
       <c r="C82">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D82">
         <v>255</v>
       </c>
       <c r="E82">
-        <v>507.1478787878787</v>
+        <v>235.5797989949749</v>
       </c>
       <c r="F82">
-        <v>22.51994402275189</v>
+        <v>15.348609024761</v>
       </c>
       <c r="G82">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H82">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="I82">
         <v>255</v>
       </c>
       <c r="J82">
-        <v>214.5</v>
+        <v>245</v>
       </c>
       <c r="K82">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L82">
         <v>255</v>
@@ -3531,10 +3531,10 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83">
-        <v>23728</v>
+        <v>49295</v>
       </c>
       <c r="B83">
-        <v>237.28</v>
+        <v>246.475</v>
       </c>
       <c r="C83">
         <v>253</v>
@@ -3543,22 +3543,22 @@
         <v>255</v>
       </c>
       <c r="E83">
-        <v>483.7389898989894</v>
+        <v>247.0847989949755</v>
       </c>
       <c r="F83">
-        <v>21.99406715227971</v>
+        <v>15.71893122941174</v>
       </c>
       <c r="G83">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="H83">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="I83">
         <v>255</v>
       </c>
       <c r="J83">
-        <v>213</v>
+        <v>246.75</v>
       </c>
       <c r="K83">
         <v>253</v>
@@ -3569,10 +3569,10 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84">
-        <v>23590</v>
+        <v>49227</v>
       </c>
       <c r="B84">
-        <v>235.9</v>
+        <v>246.135</v>
       </c>
       <c r="C84">
         <v>253</v>
@@ -3581,22 +3581,22 @@
         <v>255</v>
       </c>
       <c r="E84">
-        <v>568.1313131313129</v>
+        <v>238.650025125628</v>
       </c>
       <c r="F84">
-        <v>23.83550530471953</v>
+        <v>15.44830169065933</v>
       </c>
       <c r="G84">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="H84">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="I84">
         <v>255</v>
       </c>
       <c r="J84">
-        <v>210.25</v>
+        <v>244.75</v>
       </c>
       <c r="K84">
         <v>253</v>
@@ -3607,37 +3607,37 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85">
-        <v>23412</v>
+        <v>49069</v>
       </c>
       <c r="B85">
-        <v>234.12</v>
+        <v>245.345</v>
       </c>
       <c r="C85">
-        <v>254</v>
+        <v>252.5</v>
       </c>
       <c r="D85">
         <v>255</v>
       </c>
       <c r="E85">
-        <v>732.8339393939405</v>
+        <v>233.7346482412058</v>
       </c>
       <c r="F85">
-        <v>27.07090577343027</v>
+        <v>15.28838278697933</v>
       </c>
       <c r="G85">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H85">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="I85">
         <v>255</v>
       </c>
       <c r="J85">
-        <v>203.75</v>
+        <v>243</v>
       </c>
       <c r="K85">
-        <v>254</v>
+        <v>252.5</v>
       </c>
       <c r="L85">
         <v>255</v>
@@ -3645,37 +3645,37 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86">
-        <v>23211</v>
+        <v>48819</v>
       </c>
       <c r="B86">
-        <v>232.11</v>
+        <v>244.095</v>
       </c>
       <c r="C86">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D86">
         <v>255</v>
       </c>
       <c r="E86">
-        <v>958.0584848484834</v>
+        <v>252.3276130653272</v>
       </c>
       <c r="F86">
-        <v>30.95251984650819</v>
+        <v>15.8848233564408</v>
       </c>
       <c r="G86">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H86">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="I86">
         <v>255</v>
       </c>
       <c r="J86">
-        <v>198.5</v>
+        <v>241</v>
       </c>
       <c r="K86">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L86">
         <v>255</v>
@@ -3683,37 +3683,37 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87">
-        <v>23097</v>
+        <v>48720</v>
       </c>
       <c r="B87">
-        <v>230.97</v>
+        <v>243.6</v>
       </c>
       <c r="C87">
-        <v>253.5</v>
+        <v>251</v>
       </c>
       <c r="D87">
         <v>255</v>
       </c>
       <c r="E87">
-        <v>1156.049595959596</v>
+        <v>269.8492462311556</v>
       </c>
       <c r="F87">
-        <v>34.0007293445243</v>
+        <v>16.42708879354938</v>
       </c>
       <c r="G87">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H87">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="I87">
         <v>255</v>
       </c>
       <c r="J87">
-        <v>203.75</v>
+        <v>240.75</v>
       </c>
       <c r="K87">
-        <v>253.5</v>
+        <v>251</v>
       </c>
       <c r="L87">
         <v>255</v>
@@ -3721,37 +3721,37 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88">
-        <v>22922</v>
+        <v>48640</v>
       </c>
       <c r="B88">
-        <v>229.22</v>
+        <v>243.2</v>
       </c>
       <c r="C88">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D88">
         <v>255</v>
       </c>
       <c r="E88">
-        <v>1610.456161616161</v>
+        <v>263.5376884422107</v>
       </c>
       <c r="F88">
-        <v>40.13048917738433</v>
+        <v>16.23384392071732</v>
       </c>
       <c r="G88">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="H88">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="I88">
         <v>255</v>
       </c>
       <c r="J88">
-        <v>210.5</v>
+        <v>238</v>
       </c>
       <c r="K88">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L88">
         <v>255</v>
@@ -3759,37 +3759,37 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89">
-        <v>23409</v>
+        <v>48552</v>
       </c>
       <c r="B89">
-        <v>234.09</v>
+        <v>242.76</v>
       </c>
       <c r="C89">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D89">
         <v>255</v>
       </c>
       <c r="E89">
-        <v>1174.304949494948</v>
+        <v>281.1079396984928</v>
       </c>
       <c r="F89">
-        <v>34.26813314866959</v>
+        <v>16.76627387640119</v>
       </c>
       <c r="G89">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="H89">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="I89">
         <v>255</v>
       </c>
       <c r="J89">
-        <v>227</v>
+        <v>237.75</v>
       </c>
       <c r="K89">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L89">
         <v>255</v>
@@ -3797,37 +3797,37 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90">
-        <v>24498</v>
+        <v>48379</v>
       </c>
       <c r="B90">
-        <v>244.98</v>
+        <v>241.895</v>
       </c>
       <c r="C90">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D90">
         <v>255</v>
       </c>
       <c r="E90">
-        <v>288.2824242424239</v>
+        <v>333.5416834170857</v>
       </c>
       <c r="F90">
-        <v>16.97888171354121</v>
+        <v>18.26312359420167</v>
       </c>
       <c r="G90">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="H90">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="I90">
         <v>255</v>
       </c>
       <c r="J90">
-        <v>242.5</v>
+        <v>236</v>
       </c>
       <c r="K90">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L90">
         <v>255</v>
@@ -3835,37 +3835,37 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91">
-        <v>25077</v>
+        <v>48113</v>
       </c>
       <c r="B91">
-        <v>250.77</v>
+        <v>240.565</v>
       </c>
       <c r="C91">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D91">
         <v>255</v>
       </c>
       <c r="E91">
-        <v>53.18898989898988</v>
+        <v>380.0359547738699</v>
       </c>
       <c r="F91">
-        <v>7.29307821835128</v>
+        <v>19.49451088829545</v>
       </c>
       <c r="G91">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="H91">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="I91">
         <v>255</v>
       </c>
       <c r="J91">
-        <v>250.5</v>
+        <v>236</v>
       </c>
       <c r="K91">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L91">
         <v>255</v>
@@ -3873,37 +3873,37 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92">
-        <v>25330</v>
+        <v>47815</v>
       </c>
       <c r="B92">
-        <v>253.3</v>
+        <v>239.075</v>
       </c>
       <c r="C92">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D92">
         <v>255</v>
       </c>
       <c r="E92">
-        <v>10.51515151515152</v>
+        <v>415.0445979899491</v>
       </c>
       <c r="F92">
-        <v>3.242707435947856</v>
+        <v>20.37264337266888</v>
       </c>
       <c r="G92">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H92">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="I92">
         <v>255</v>
       </c>
       <c r="J92">
-        <v>253.75</v>
+        <v>231.5</v>
       </c>
       <c r="K92">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L92">
         <v>255</v>
@@ -3911,37 +3911,37 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93">
-        <v>25397</v>
+        <v>47525</v>
       </c>
       <c r="B93">
-        <v>253.97</v>
+        <v>237.625</v>
       </c>
       <c r="C93">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D93">
         <v>255</v>
       </c>
       <c r="E93">
-        <v>3.463737373737374</v>
+        <v>445.0395728643216</v>
       </c>
       <c r="F93">
-        <v>1.861111864917683</v>
+        <v>21.09596105571684</v>
       </c>
       <c r="G93">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="H93">
+        <v>177</v>
+      </c>
+      <c r="I93">
+        <v>255</v>
+      </c>
+      <c r="J93">
+        <v>228</v>
+      </c>
+      <c r="K93">
         <v>246</v>
-      </c>
-      <c r="I93">
-        <v>255</v>
-      </c>
-      <c r="J93">
-        <v>253.75</v>
-      </c>
-      <c r="K93">
-        <v>255</v>
       </c>
       <c r="L93">
         <v>255</v>
@@ -3949,37 +3949,37 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94">
-        <v>25441</v>
+        <v>47217</v>
       </c>
       <c r="B94">
-        <v>254.41</v>
+        <v>236.085</v>
       </c>
       <c r="C94">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D94">
         <v>255</v>
       </c>
       <c r="E94">
-        <v>1.597878787878793</v>
+        <v>476.5203768844216</v>
       </c>
       <c r="F94">
-        <v>1.264072303263857</v>
+        <v>21.82934668936342</v>
       </c>
       <c r="G94">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H94">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="I94">
         <v>255</v>
       </c>
       <c r="J94">
-        <v>255</v>
+        <v>225.75</v>
       </c>
       <c r="K94">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="L94">
         <v>255</v>
@@ -3987,37 +3987,37 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95">
-        <v>25430</v>
+        <v>47075</v>
       </c>
       <c r="B95">
-        <v>254.3</v>
+        <v>235.375</v>
       </c>
       <c r="C95">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D95">
         <v>255</v>
       </c>
       <c r="E95">
-        <v>1.424242424242423</v>
+        <v>501.5923366834171</v>
       </c>
       <c r="F95">
-        <v>1.193416282879709</v>
+        <v>22.39625720256439</v>
       </c>
       <c r="G95">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="H95">
-        <v>250</v>
+        <v>176</v>
       </c>
       <c r="I95">
         <v>255</v>
       </c>
       <c r="J95">
-        <v>254</v>
+        <v>225.5</v>
       </c>
       <c r="K95">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="L95">
         <v>255</v>
@@ -4025,37 +4025,37 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96">
-        <v>25476</v>
+        <v>46953</v>
       </c>
       <c r="B96">
-        <v>254.76</v>
+        <v>234.765</v>
       </c>
       <c r="C96">
-        <v>255</v>
+        <v>243.5</v>
       </c>
       <c r="D96">
         <v>255</v>
       </c>
       <c r="E96">
-        <v>0.2246464646464646</v>
+        <v>536.733442211055</v>
       </c>
       <c r="F96">
-        <v>0.4739688435398097</v>
+        <v>23.16750832979358</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="H96">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="I96">
         <v>255</v>
       </c>
       <c r="J96">
-        <v>255</v>
+        <v>224.75</v>
       </c>
       <c r="K96">
-        <v>255</v>
+        <v>243.5</v>
       </c>
       <c r="L96">
         <v>255</v>
@@ -4063,37 +4063,37 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97">
-        <v>25496</v>
+        <v>46787</v>
       </c>
       <c r="B97">
-        <v>254.96</v>
+        <v>233.935</v>
       </c>
       <c r="C97">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D97">
         <v>255</v>
       </c>
       <c r="E97">
-        <v>0.03878787878787879</v>
+        <v>591.2470100502502</v>
       </c>
       <c r="F97">
-        <v>0.1969463855669324</v>
+        <v>24.31557134945116</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="H97">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="I97">
         <v>255</v>
       </c>
       <c r="J97">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="K97">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="L97">
         <v>255</v>
@@ -4101,37 +4101,37 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98">
-        <v>25491</v>
+        <v>46529</v>
       </c>
       <c r="B98">
-        <v>254.91</v>
+        <v>232.645</v>
       </c>
       <c r="C98">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D98">
         <v>255</v>
       </c>
       <c r="E98">
-        <v>0.102929292929293</v>
+        <v>664.7125376884425</v>
       </c>
       <c r="F98">
-        <v>0.3208259542638235</v>
+        <v>25.78201965883283</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="H98">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c r="I98">
         <v>255</v>
       </c>
       <c r="J98">
-        <v>255</v>
+        <v>220.75</v>
       </c>
       <c r="K98">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="L98">
         <v>255</v>
@@ -4139,37 +4139,37 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99">
-        <v>25500</v>
+        <v>46349</v>
       </c>
       <c r="B99">
-        <v>255</v>
+        <v>231.745</v>
       </c>
       <c r="C99">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D99">
         <v>255</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>701.1356532663318</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>26.47896624240327</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="H99">
-        <v>255</v>
+        <v>162</v>
       </c>
       <c r="I99">
         <v>255</v>
       </c>
       <c r="J99">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="K99">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="L99">
         <v>255</v>
@@ -4177,37 +4177,37 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100">
-        <v>25500</v>
+        <v>46168</v>
       </c>
       <c r="B100">
-        <v>255</v>
+        <v>230.84</v>
       </c>
       <c r="C100">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="D100">
         <v>255</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>733.5119597989932</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>27.08342592433596</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H100">
-        <v>255</v>
+        <v>166</v>
       </c>
       <c r="I100">
         <v>255</v>
       </c>
       <c r="J100">
-        <v>255</v>
+        <v>217.5</v>
       </c>
       <c r="K100">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="L100">
         <v>255</v>
@@ -4215,39 +4215,3839 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101">
-        <v>25500</v>
+        <v>46013</v>
       </c>
       <c r="B101">
-        <v>255</v>
+        <v>230.065</v>
       </c>
       <c r="C101">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="D101">
         <v>255</v>
       </c>
       <c r="E101">
+        <v>734.5032914572878</v>
+      </c>
+      <c r="F101">
+        <v>27.10172118994083</v>
+      </c>
+      <c r="G101">
+        <v>84</v>
+      </c>
+      <c r="H101">
+        <v>171</v>
+      </c>
+      <c r="I101">
+        <v>255</v>
+      </c>
+      <c r="J101">
+        <v>212.75</v>
+      </c>
+      <c r="K101">
+        <v>241</v>
+      </c>
+      <c r="L101">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102">
+        <v>46011</v>
+      </c>
+      <c r="B102">
+        <v>230.055</v>
+      </c>
+      <c r="C102">
+        <v>238</v>
+      </c>
+      <c r="D102">
+        <v>255</v>
+      </c>
+      <c r="E102">
+        <v>672.2130402010052</v>
+      </c>
+      <c r="F102">
+        <v>25.92707157009841</v>
+      </c>
+      <c r="G102">
+        <v>80</v>
+      </c>
+      <c r="H102">
+        <v>175</v>
+      </c>
+      <c r="I102">
+        <v>255</v>
+      </c>
+      <c r="J102">
+        <v>207.75</v>
+      </c>
+      <c r="K102">
+        <v>238</v>
+      </c>
+      <c r="L102">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103">
+        <v>45812</v>
+      </c>
+      <c r="B103">
+        <v>229.06</v>
+      </c>
+      <c r="C103">
+        <v>235</v>
+      </c>
+      <c r="D103">
+        <v>255</v>
+      </c>
+      <c r="E103">
+        <v>683.8054271356787</v>
+      </c>
+      <c r="F103">
+        <v>26.14967355696202</v>
+      </c>
+      <c r="G103">
+        <v>79</v>
+      </c>
+      <c r="H103">
+        <v>176</v>
+      </c>
+      <c r="I103">
+        <v>255</v>
+      </c>
+      <c r="J103">
+        <v>207</v>
+      </c>
+      <c r="K103">
+        <v>235</v>
+      </c>
+      <c r="L103">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104">
+        <v>45536</v>
+      </c>
+      <c r="B104">
+        <v>227.68</v>
+      </c>
+      <c r="C104">
+        <v>235.5</v>
+      </c>
+      <c r="D104">
+        <v>255</v>
+      </c>
+      <c r="E104">
+        <v>741.937286432161</v>
+      </c>
+      <c r="F104">
+        <v>27.23852577567591</v>
+      </c>
+      <c r="G104">
+        <v>83</v>
+      </c>
+      <c r="H104">
+        <v>172</v>
+      </c>
+      <c r="I104">
+        <v>255</v>
+      </c>
+      <c r="J104">
+        <v>203.5</v>
+      </c>
+      <c r="K104">
+        <v>235.5</v>
+      </c>
+      <c r="L104">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105">
+        <v>45221</v>
+      </c>
+      <c r="B105">
+        <v>226.105</v>
+      </c>
+      <c r="C105">
+        <v>233</v>
+      </c>
+      <c r="D105">
+        <v>255</v>
+      </c>
+      <c r="E105">
+        <v>824.7376633165809</v>
+      </c>
+      <c r="F105">
+        <v>28.71824617410647</v>
+      </c>
+      <c r="G105">
+        <v>89</v>
+      </c>
+      <c r="H105">
+        <v>166</v>
+      </c>
+      <c r="I105">
+        <v>255</v>
+      </c>
+      <c r="J105">
+        <v>201.75</v>
+      </c>
+      <c r="K105">
+        <v>233</v>
+      </c>
+      <c r="L105">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106">
+        <v>45124</v>
+      </c>
+      <c r="B106">
+        <v>225.62</v>
+      </c>
+      <c r="C106">
+        <v>231</v>
+      </c>
+      <c r="D106">
+        <v>255</v>
+      </c>
+      <c r="E106">
+        <v>825.8448241206025</v>
+      </c>
+      <c r="F106">
+        <v>28.737515969906</v>
+      </c>
+      <c r="G106">
+        <v>87</v>
+      </c>
+      <c r="H106">
+        <v>168</v>
+      </c>
+      <c r="I106">
+        <v>255</v>
+      </c>
+      <c r="J106">
+        <v>200.75</v>
+      </c>
+      <c r="K106">
+        <v>231</v>
+      </c>
+      <c r="L106">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107">
+        <v>45060</v>
+      </c>
+      <c r="B107">
+        <v>225.3</v>
+      </c>
+      <c r="C107">
+        <v>230</v>
+      </c>
+      <c r="D107">
+        <v>255</v>
+      </c>
+      <c r="E107">
+        <v>830.8944723618087</v>
+      </c>
+      <c r="F107">
+        <v>28.82524019608178</v>
+      </c>
+      <c r="G107">
+        <v>91</v>
+      </c>
+      <c r="H107">
+        <v>164</v>
+      </c>
+      <c r="I107">
+        <v>255</v>
+      </c>
+      <c r="J107">
+        <v>199</v>
+      </c>
+      <c r="K107">
+        <v>230</v>
+      </c>
+      <c r="L107">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108">
+        <v>45085</v>
+      </c>
+      <c r="B108">
+        <v>225.425</v>
+      </c>
+      <c r="C108">
+        <v>229.5</v>
+      </c>
+      <c r="D108">
+        <v>255</v>
+      </c>
+      <c r="E108">
+        <v>817.9742462311571</v>
+      </c>
+      <c r="F108">
+        <v>28.60024905890082</v>
+      </c>
+      <c r="G108">
+        <v>93</v>
+      </c>
+      <c r="H108">
+        <v>162</v>
+      </c>
+      <c r="I108">
+        <v>255</v>
+      </c>
+      <c r="J108">
+        <v>199.75</v>
+      </c>
+      <c r="K108">
+        <v>229.5</v>
+      </c>
+      <c r="L108">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109">
+        <v>45157</v>
+      </c>
+      <c r="B109">
+        <v>225.785</v>
+      </c>
+      <c r="C109">
+        <v>228</v>
+      </c>
+      <c r="D109">
+        <v>255</v>
+      </c>
+      <c r="E109">
+        <v>798.8530402010049</v>
+      </c>
+      <c r="F109">
+        <v>28.26398839868508</v>
+      </c>
+      <c r="G109">
+        <v>91</v>
+      </c>
+      <c r="H109">
+        <v>164</v>
+      </c>
+      <c r="I109">
+        <v>255</v>
+      </c>
+      <c r="J109">
+        <v>201.75</v>
+      </c>
+      <c r="K109">
+        <v>228</v>
+      </c>
+      <c r="L109">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110">
+        <v>44872</v>
+      </c>
+      <c r="B110">
+        <v>224.36</v>
+      </c>
+      <c r="C110">
+        <v>228</v>
+      </c>
+      <c r="D110">
+        <v>255</v>
+      </c>
+      <c r="E110">
+        <v>874.824522613067</v>
+      </c>
+      <c r="F110">
+        <v>29.57743265756964</v>
+      </c>
+      <c r="G110">
+        <v>91</v>
+      </c>
+      <c r="H110">
+        <v>164</v>
+      </c>
+      <c r="I110">
+        <v>255</v>
+      </c>
+      <c r="J110">
+        <v>197</v>
+      </c>
+      <c r="K110">
+        <v>228</v>
+      </c>
+      <c r="L110">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111">
+        <v>44778</v>
+      </c>
+      <c r="B111">
+        <v>223.89</v>
+      </c>
+      <c r="C111">
+        <v>228.5</v>
+      </c>
+      <c r="D111">
+        <v>255</v>
+      </c>
+      <c r="E111">
+        <v>918.7014070351755</v>
+      </c>
+      <c r="F111">
+        <v>30.3100875458184</v>
+      </c>
+      <c r="G111">
+        <v>90</v>
+      </c>
+      <c r="H111">
+        <v>165</v>
+      </c>
+      <c r="I111">
+        <v>255</v>
+      </c>
+      <c r="J111">
+        <v>195</v>
+      </c>
+      <c r="K111">
+        <v>228.5</v>
+      </c>
+      <c r="L111">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112">
+        <v>44779</v>
+      </c>
+      <c r="B112">
+        <v>223.895</v>
+      </c>
+      <c r="C112">
+        <v>231</v>
+      </c>
+      <c r="D112">
+        <v>255</v>
+      </c>
+      <c r="E112">
+        <v>952.1245979899494</v>
+      </c>
+      <c r="F112">
+        <v>30.85651629704736</v>
+      </c>
+      <c r="G112">
+        <v>93</v>
+      </c>
+      <c r="H112">
+        <v>162</v>
+      </c>
+      <c r="I112">
+        <v>255</v>
+      </c>
+      <c r="J112">
+        <v>195.75</v>
+      </c>
+      <c r="K112">
+        <v>231</v>
+      </c>
+      <c r="L112">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113">
+        <v>44783</v>
+      </c>
+      <c r="B113">
+        <v>223.915</v>
+      </c>
+      <c r="C113">
+        <v>232.5</v>
+      </c>
+      <c r="D113">
+        <v>255</v>
+      </c>
+      <c r="E113">
+        <v>995.6661055276383</v>
+      </c>
+      <c r="F113">
+        <v>31.55417730709578</v>
+      </c>
+      <c r="G113">
+        <v>95</v>
+      </c>
+      <c r="H113">
+        <v>160</v>
+      </c>
+      <c r="I113">
+        <v>255</v>
+      </c>
+      <c r="J113">
+        <v>192.75</v>
+      </c>
+      <c r="K113">
+        <v>232.5</v>
+      </c>
+      <c r="L113">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114">
+        <v>44743</v>
+      </c>
+      <c r="B114">
+        <v>223.715</v>
+      </c>
+      <c r="C114">
+        <v>234</v>
+      </c>
+      <c r="D114">
+        <v>255</v>
+      </c>
+      <c r="E114">
+        <v>1002.717361809043</v>
+      </c>
+      <c r="F114">
+        <v>31.66571271594946</v>
+      </c>
+      <c r="G114">
+        <v>94</v>
+      </c>
+      <c r="H114">
+        <v>161</v>
+      </c>
+      <c r="I114">
+        <v>255</v>
+      </c>
+      <c r="J114">
+        <v>194</v>
+      </c>
+      <c r="K114">
+        <v>234</v>
+      </c>
+      <c r="L114">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115">
+        <v>44664</v>
+      </c>
+      <c r="B115">
+        <v>223.32</v>
+      </c>
+      <c r="C115">
+        <v>232.5</v>
+      </c>
+      <c r="D115">
+        <v>255</v>
+      </c>
+      <c r="E115">
+        <v>1030.047839195978</v>
+      </c>
+      <c r="F115">
+        <v>32.09435837021794</v>
+      </c>
+      <c r="G115">
+        <v>93</v>
+      </c>
+      <c r="H115">
+        <v>162</v>
+      </c>
+      <c r="I115">
+        <v>255</v>
+      </c>
+      <c r="J115">
+        <v>192.75</v>
+      </c>
+      <c r="K115">
+        <v>232.5</v>
+      </c>
+      <c r="L115">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116">
+        <v>44625</v>
+      </c>
+      <c r="B116">
+        <v>223.125</v>
+      </c>
+      <c r="C116">
+        <v>235</v>
+      </c>
+      <c r="D116">
+        <v>255</v>
+      </c>
+      <c r="E116">
+        <v>1067.416457286432</v>
+      </c>
+      <c r="F116">
+        <v>32.6713399983293</v>
+      </c>
+      <c r="G116">
+        <v>94</v>
+      </c>
+      <c r="H116">
+        <v>161</v>
+      </c>
+      <c r="I116">
+        <v>255</v>
+      </c>
+      <c r="J116">
+        <v>192.75</v>
+      </c>
+      <c r="K116">
+        <v>235</v>
+      </c>
+      <c r="L116">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117">
+        <v>44679</v>
+      </c>
+      <c r="B117">
+        <v>223.395</v>
+      </c>
+      <c r="C117">
+        <v>236</v>
+      </c>
+      <c r="D117">
+        <v>255</v>
+      </c>
+      <c r="E117">
+        <v>1089.74771356784</v>
+      </c>
+      <c r="F117">
+        <v>33.01132704948166</v>
+      </c>
+      <c r="G117">
+        <v>97</v>
+      </c>
+      <c r="H117">
+        <v>158</v>
+      </c>
+      <c r="I117">
+        <v>255</v>
+      </c>
+      <c r="J117">
+        <v>193</v>
+      </c>
+      <c r="K117">
+        <v>236</v>
+      </c>
+      <c r="L117">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118">
+        <v>44880</v>
+      </c>
+      <c r="B118">
+        <v>224.4</v>
+      </c>
+      <c r="C118">
+        <v>237.5</v>
+      </c>
+      <c r="D118">
+        <v>255</v>
+      </c>
+      <c r="E118">
+        <v>1076.070351758792</v>
+      </c>
+      <c r="F118">
+        <v>32.80351127179516</v>
+      </c>
+      <c r="G118">
+        <v>98</v>
+      </c>
+      <c r="H118">
+        <v>157</v>
+      </c>
+      <c r="I118">
+        <v>255</v>
+      </c>
+      <c r="J118">
+        <v>193</v>
+      </c>
+      <c r="K118">
+        <v>237.5</v>
+      </c>
+      <c r="L118">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119">
+        <v>45018</v>
+      </c>
+      <c r="B119">
+        <v>225.09</v>
+      </c>
+      <c r="C119">
+        <v>238</v>
+      </c>
+      <c r="D119">
+        <v>255</v>
+      </c>
+      <c r="E119">
+        <v>1100.052160804022</v>
+      </c>
+      <c r="F119">
+        <v>33.16703424793996</v>
+      </c>
+      <c r="G119">
+        <v>98</v>
+      </c>
+      <c r="H119">
+        <v>157</v>
+      </c>
+      <c r="I119">
+        <v>255</v>
+      </c>
+      <c r="J119">
+        <v>194</v>
+      </c>
+      <c r="K119">
+        <v>238</v>
+      </c>
+      <c r="L119">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120">
+        <v>45045</v>
+      </c>
+      <c r="B120">
+        <v>225.225</v>
+      </c>
+      <c r="C120">
+        <v>239.5</v>
+      </c>
+      <c r="D120">
+        <v>255</v>
+      </c>
+      <c r="E120">
+        <v>1124.98932160804</v>
+      </c>
+      <c r="F120">
+        <v>33.54086047805036</v>
+      </c>
+      <c r="G120">
+        <v>98</v>
+      </c>
+      <c r="H120">
+        <v>157</v>
+      </c>
+      <c r="I120">
+        <v>255</v>
+      </c>
+      <c r="J120">
+        <v>194.75</v>
+      </c>
+      <c r="K120">
+        <v>239.5</v>
+      </c>
+      <c r="L120">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121">
+        <v>44971</v>
+      </c>
+      <c r="B121">
+        <v>224.855</v>
+      </c>
+      <c r="C121">
+        <v>240.5</v>
+      </c>
+      <c r="D121">
+        <v>255</v>
+      </c>
+      <c r="E121">
+        <v>1136.0441959799</v>
+      </c>
+      <c r="F121">
+        <v>33.70525472355757</v>
+      </c>
+      <c r="G121">
+        <v>101</v>
+      </c>
+      <c r="H121">
+        <v>154</v>
+      </c>
+      <c r="I121">
+        <v>255</v>
+      </c>
+      <c r="J121">
+        <v>198</v>
+      </c>
+      <c r="K121">
+        <v>240.5</v>
+      </c>
+      <c r="L121">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122">
+        <v>44838</v>
+      </c>
+      <c r="B122">
+        <v>224.19</v>
+      </c>
+      <c r="C122">
+        <v>237</v>
+      </c>
+      <c r="D122">
+        <v>255</v>
+      </c>
+      <c r="E122">
+        <v>1133.903417085427</v>
+      </c>
+      <c r="F122">
+        <v>33.67348240211319</v>
+      </c>
+      <c r="G122">
+        <v>101</v>
+      </c>
+      <c r="H122">
+        <v>154</v>
+      </c>
+      <c r="I122">
+        <v>255</v>
+      </c>
+      <c r="J122">
+        <v>198.75</v>
+      </c>
+      <c r="K122">
+        <v>237</v>
+      </c>
+      <c r="L122">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123">
+        <v>44732</v>
+      </c>
+      <c r="B123">
+        <v>223.66</v>
+      </c>
+      <c r="C123">
+        <v>233.5</v>
+      </c>
+      <c r="D123">
+        <v>255</v>
+      </c>
+      <c r="E123">
+        <v>1142.959195979901</v>
+      </c>
+      <c r="F123">
+        <v>33.80767954148732</v>
+      </c>
+      <c r="G123">
+        <v>102</v>
+      </c>
+      <c r="H123">
+        <v>153</v>
+      </c>
+      <c r="I123">
+        <v>255</v>
+      </c>
+      <c r="J123">
+        <v>198</v>
+      </c>
+      <c r="K123">
+        <v>233.5</v>
+      </c>
+      <c r="L123">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124">
+        <v>44682</v>
+      </c>
+      <c r="B124">
+        <v>223.41</v>
+      </c>
+      <c r="C124">
+        <v>236</v>
+      </c>
+      <c r="D124">
+        <v>255</v>
+      </c>
+      <c r="E124">
+        <v>1167.248140703515</v>
+      </c>
+      <c r="F124">
+        <v>34.16501340119034</v>
+      </c>
+      <c r="G124">
+        <v>102</v>
+      </c>
+      <c r="H124">
+        <v>153</v>
+      </c>
+      <c r="I124">
+        <v>255</v>
+      </c>
+      <c r="J124">
+        <v>196.75</v>
+      </c>
+      <c r="K124">
+        <v>236</v>
+      </c>
+      <c r="L124">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125">
+        <v>44764</v>
+      </c>
+      <c r="B125">
+        <v>223.82</v>
+      </c>
+      <c r="C125">
+        <v>239</v>
+      </c>
+      <c r="D125">
+        <v>255</v>
+      </c>
+      <c r="E125">
+        <v>1190.902110552764</v>
+      </c>
+      <c r="F125">
+        <v>34.50944958345125</v>
+      </c>
+      <c r="G125">
+        <v>102</v>
+      </c>
+      <c r="H125">
+        <v>153</v>
+      </c>
+      <c r="I125">
+        <v>255</v>
+      </c>
+      <c r="J125">
+        <v>195</v>
+      </c>
+      <c r="K125">
+        <v>239</v>
+      </c>
+      <c r="L125">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126">
+        <v>44883</v>
+      </c>
+      <c r="B126">
+        <v>224.415</v>
+      </c>
+      <c r="C126">
+        <v>242.5</v>
+      </c>
+      <c r="D126">
+        <v>255</v>
+      </c>
+      <c r="E126">
+        <v>1153.359572864322</v>
+      </c>
+      <c r="F126">
+        <v>33.96114799096642</v>
+      </c>
+      <c r="G126">
+        <v>98</v>
+      </c>
+      <c r="H126">
+        <v>157</v>
+      </c>
+      <c r="I126">
+        <v>255</v>
+      </c>
+      <c r="J126">
+        <v>196</v>
+      </c>
+      <c r="K126">
+        <v>242.5</v>
+      </c>
+      <c r="L126">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127">
+        <v>45000</v>
+      </c>
+      <c r="B127">
+        <v>225</v>
+      </c>
+      <c r="C127">
+        <v>242.5</v>
+      </c>
+      <c r="D127">
+        <v>255</v>
+      </c>
+      <c r="E127">
+        <v>1094.180904522613</v>
+      </c>
+      <c r="F127">
+        <v>33.07840541082071</v>
+      </c>
+      <c r="G127">
+        <v>94</v>
+      </c>
+      <c r="H127">
+        <v>161</v>
+      </c>
+      <c r="I127">
+        <v>255</v>
+      </c>
+      <c r="J127">
+        <v>196</v>
+      </c>
+      <c r="K127">
+        <v>242.5</v>
+      </c>
+      <c r="L127">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128">
+        <v>45083</v>
+      </c>
+      <c r="B128">
+        <v>225.415</v>
+      </c>
+      <c r="C128">
+        <v>239.5</v>
+      </c>
+      <c r="D128">
+        <v>255</v>
+      </c>
+      <c r="E128">
+        <v>1042.183693467336</v>
+      </c>
+      <c r="F128">
+        <v>32.28286996949521</v>
+      </c>
+      <c r="G128">
+        <v>94</v>
+      </c>
+      <c r="H128">
+        <v>161</v>
+      </c>
+      <c r="I128">
+        <v>255</v>
+      </c>
+      <c r="J128">
+        <v>196.75</v>
+      </c>
+      <c r="K128">
+        <v>239.5</v>
+      </c>
+      <c r="L128">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129">
+        <v>45149</v>
+      </c>
+      <c r="B129">
+        <v>225.745</v>
+      </c>
+      <c r="C129">
+        <v>238</v>
+      </c>
+      <c r="D129">
+        <v>255</v>
+      </c>
+      <c r="E129">
+        <v>1009.457261306533</v>
+      </c>
+      <c r="F129">
+        <v>31.77195715259815</v>
+      </c>
+      <c r="G129">
+        <v>92</v>
+      </c>
+      <c r="H129">
+        <v>163</v>
+      </c>
+      <c r="I129">
+        <v>255</v>
+      </c>
+      <c r="J129">
+        <v>199</v>
+      </c>
+      <c r="K129">
+        <v>238</v>
+      </c>
+      <c r="L129">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130">
+        <v>45202</v>
+      </c>
+      <c r="B130">
+        <v>226.01</v>
+      </c>
+      <c r="C130">
+        <v>239.5</v>
+      </c>
+      <c r="D130">
+        <v>255</v>
+      </c>
+      <c r="E130">
+        <v>987.5375879396961</v>
+      </c>
+      <c r="F130">
+        <v>31.42511078643473</v>
+      </c>
+      <c r="G130">
+        <v>93</v>
+      </c>
+      <c r="H130">
+        <v>162</v>
+      </c>
+      <c r="I130">
+        <v>255</v>
+      </c>
+      <c r="J130">
+        <v>201</v>
+      </c>
+      <c r="K130">
+        <v>239.5</v>
+      </c>
+      <c r="L130">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131">
+        <v>45325</v>
+      </c>
+      <c r="B131">
+        <v>226.625</v>
+      </c>
+      <c r="C131">
+        <v>238.5</v>
+      </c>
+      <c r="D131">
+        <v>255</v>
+      </c>
+      <c r="E131">
+        <v>950.768216080402</v>
+      </c>
+      <c r="F131">
+        <v>30.8345296069261</v>
+      </c>
+      <c r="G131">
+        <v>91</v>
+      </c>
+      <c r="H131">
+        <v>164</v>
+      </c>
+      <c r="I131">
+        <v>255</v>
+      </c>
+      <c r="J131">
+        <v>202</v>
+      </c>
+      <c r="K131">
+        <v>238.5</v>
+      </c>
+      <c r="L131">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132">
+        <v>45538</v>
+      </c>
+      <c r="B132">
+        <v>227.69</v>
+      </c>
+      <c r="C132">
+        <v>243</v>
+      </c>
+      <c r="D132">
+        <v>255</v>
+      </c>
+      <c r="E132">
+        <v>914.0642211055246</v>
+      </c>
+      <c r="F132">
+        <v>30.23349501968842</v>
+      </c>
+      <c r="G132">
+        <v>88</v>
+      </c>
+      <c r="H132">
+        <v>167</v>
+      </c>
+      <c r="I132">
+        <v>255</v>
+      </c>
+      <c r="J132">
+        <v>203</v>
+      </c>
+      <c r="K132">
+        <v>243</v>
+      </c>
+      <c r="L132">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133">
+        <v>45576</v>
+      </c>
+      <c r="B133">
+        <v>227.88</v>
+      </c>
+      <c r="C133">
+        <v>239.5</v>
+      </c>
+      <c r="D133">
+        <v>255</v>
+      </c>
+      <c r="E133">
+        <v>874.9704522613058</v>
+      </c>
+      <c r="F133">
+        <v>29.57989946334006</v>
+      </c>
+      <c r="G133">
+        <v>88</v>
+      </c>
+      <c r="H133">
+        <v>167</v>
+      </c>
+      <c r="I133">
+        <v>255</v>
+      </c>
+      <c r="J133">
+        <v>202.75</v>
+      </c>
+      <c r="K133">
+        <v>239.5</v>
+      </c>
+      <c r="L133">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134">
+        <v>45561</v>
+      </c>
+      <c r="B134">
+        <v>227.805</v>
+      </c>
+      <c r="C134">
+        <v>237</v>
+      </c>
+      <c r="D134">
+        <v>255</v>
+      </c>
+      <c r="E134">
+        <v>861.8964572864296</v>
+      </c>
+      <c r="F134">
+        <v>29.35807311944075</v>
+      </c>
+      <c r="G134">
+        <v>85</v>
+      </c>
+      <c r="H134">
+        <v>170</v>
+      </c>
+      <c r="I134">
+        <v>255</v>
+      </c>
+      <c r="J134">
+        <v>200</v>
+      </c>
+      <c r="K134">
+        <v>237</v>
+      </c>
+      <c r="L134">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135">
+        <v>45545</v>
+      </c>
+      <c r="B135">
+        <v>227.725</v>
+      </c>
+      <c r="C135">
+        <v>238</v>
+      </c>
+      <c r="D135">
+        <v>255</v>
+      </c>
+      <c r="E135">
+        <v>861.6275125628143</v>
+      </c>
+      <c r="F135">
+        <v>29.35349234014267</v>
+      </c>
+      <c r="G135">
+        <v>84</v>
+      </c>
+      <c r="H135">
+        <v>171</v>
+      </c>
+      <c r="I135">
+        <v>255</v>
+      </c>
+      <c r="J135">
+        <v>198.75</v>
+      </c>
+      <c r="K135">
+        <v>238</v>
+      </c>
+      <c r="L135">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136">
+        <v>45535</v>
+      </c>
+      <c r="B136">
+        <v>227.675</v>
+      </c>
+      <c r="C136">
+        <v>239</v>
+      </c>
+      <c r="D136">
+        <v>255</v>
+      </c>
+      <c r="E136">
+        <v>871.6275125628173</v>
+      </c>
+      <c r="F136">
+        <v>29.52333843864574</v>
+      </c>
+      <c r="G136">
+        <v>85</v>
+      </c>
+      <c r="H136">
+        <v>170</v>
+      </c>
+      <c r="I136">
+        <v>255</v>
+      </c>
+      <c r="J136">
+        <v>196.75</v>
+      </c>
+      <c r="K136">
+        <v>239</v>
+      </c>
+      <c r="L136">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137">
+        <v>45569</v>
+      </c>
+      <c r="B137">
+        <v>227.845</v>
+      </c>
+      <c r="C137">
+        <v>242</v>
+      </c>
+      <c r="D137">
+        <v>255</v>
+      </c>
+      <c r="E137">
+        <v>861.5487185929621</v>
+      </c>
+      <c r="F137">
+        <v>29.35215015280758</v>
+      </c>
+      <c r="G137">
+        <v>80</v>
+      </c>
+      <c r="H137">
+        <v>175</v>
+      </c>
+      <c r="I137">
+        <v>255</v>
+      </c>
+      <c r="J137">
+        <v>196.75</v>
+      </c>
+      <c r="K137">
+        <v>242</v>
+      </c>
+      <c r="L137">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138">
+        <v>45549</v>
+      </c>
+      <c r="B138">
+        <v>227.745</v>
+      </c>
+      <c r="C138">
+        <v>240.5</v>
+      </c>
+      <c r="D138">
+        <v>255</v>
+      </c>
+      <c r="E138">
+        <v>873.7587688442223</v>
+      </c>
+      <c r="F138">
+        <v>29.5594108338482</v>
+      </c>
+      <c r="G138">
+        <v>79</v>
+      </c>
+      <c r="H138">
+        <v>176</v>
+      </c>
+      <c r="I138">
+        <v>255</v>
+      </c>
+      <c r="J138">
+        <v>195.75</v>
+      </c>
+      <c r="K138">
+        <v>240.5</v>
+      </c>
+      <c r="L138">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139">
+        <v>45514</v>
+      </c>
+      <c r="B139">
+        <v>227.57</v>
+      </c>
+      <c r="C139">
+        <v>240.5</v>
+      </c>
+      <c r="D139">
+        <v>255</v>
+      </c>
+      <c r="E139">
+        <v>891.7438190954761</v>
+      </c>
+      <c r="F139">
+        <v>29.86207995260002</v>
+      </c>
+      <c r="G139">
+        <v>81</v>
+      </c>
+      <c r="H139">
+        <v>174</v>
+      </c>
+      <c r="I139">
+        <v>255</v>
+      </c>
+      <c r="J139">
+        <v>194</v>
+      </c>
+      <c r="K139">
+        <v>240.5</v>
+      </c>
+      <c r="L139">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140">
+        <v>45525</v>
+      </c>
+      <c r="B140">
+        <v>227.625</v>
+      </c>
+      <c r="C140">
+        <v>240</v>
+      </c>
+      <c r="D140">
+        <v>255</v>
+      </c>
+      <c r="E140">
+        <v>891.8134422110553</v>
+      </c>
+      <c r="F140">
+        <v>29.86324567442486</v>
+      </c>
+      <c r="G140">
+        <v>83</v>
+      </c>
+      <c r="H140">
+        <v>172</v>
+      </c>
+      <c r="I140">
+        <v>255</v>
+      </c>
+      <c r="J140">
+        <v>195</v>
+      </c>
+      <c r="K140">
+        <v>240</v>
+      </c>
+      <c r="L140">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141">
+        <v>45645</v>
+      </c>
+      <c r="B141">
+        <v>228.225</v>
+      </c>
+      <c r="C141">
+        <v>239.5</v>
+      </c>
+      <c r="D141">
+        <v>255</v>
+      </c>
+      <c r="E141">
+        <v>847.7732412060313</v>
+      </c>
+      <c r="F141">
+        <v>29.11654583232756</v>
+      </c>
+      <c r="G141">
+        <v>80</v>
+      </c>
+      <c r="H141">
+        <v>175</v>
+      </c>
+      <c r="I141">
+        <v>255</v>
+      </c>
+      <c r="J141">
+        <v>197.25</v>
+      </c>
+      <c r="K141">
+        <v>239.5</v>
+      </c>
+      <c r="L141">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142">
+        <v>45744</v>
+      </c>
+      <c r="B142">
+        <v>228.72</v>
+      </c>
+      <c r="C142">
+        <v>239</v>
+      </c>
+      <c r="D142">
+        <v>255</v>
+      </c>
+      <c r="E142">
+        <v>817.9614070351752</v>
+      </c>
+      <c r="F142">
+        <v>28.60002459850647</v>
+      </c>
+      <c r="G142">
+        <v>77</v>
+      </c>
+      <c r="H142">
+        <v>178</v>
+      </c>
+      <c r="I142">
+        <v>255</v>
+      </c>
+      <c r="J142">
+        <v>197.75</v>
+      </c>
+      <c r="K142">
+        <v>239</v>
+      </c>
+      <c r="L142">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143">
+        <v>45839</v>
+      </c>
+      <c r="B143">
+        <v>229.195</v>
+      </c>
+      <c r="C143">
+        <v>239.5</v>
+      </c>
+      <c r="D143">
+        <v>255</v>
+      </c>
+      <c r="E143">
+        <v>798.5497236180905</v>
+      </c>
+      <c r="F143">
+        <v>28.25862211110249</v>
+      </c>
+      <c r="G143">
+        <v>83</v>
+      </c>
+      <c r="H143">
+        <v>172</v>
+      </c>
+      <c r="I143">
+        <v>255</v>
+      </c>
+      <c r="J143">
+        <v>198</v>
+      </c>
+      <c r="K143">
+        <v>239.5</v>
+      </c>
+      <c r="L143">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144">
+        <v>45959</v>
+      </c>
+      <c r="B144">
+        <v>229.795</v>
+      </c>
+      <c r="C144">
+        <v>246.5</v>
+      </c>
+      <c r="D144">
+        <v>255</v>
+      </c>
+      <c r="E144">
+        <v>775.9527386934676</v>
+      </c>
+      <c r="F144">
+        <v>27.85592825043652</v>
+      </c>
+      <c r="G144">
+        <v>77</v>
+      </c>
+      <c r="H144">
+        <v>178</v>
+      </c>
+      <c r="I144">
+        <v>255</v>
+      </c>
+      <c r="J144">
+        <v>203.75</v>
+      </c>
+      <c r="K144">
+        <v>246.5</v>
+      </c>
+      <c r="L144">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145">
+        <v>46026</v>
+      </c>
+      <c r="B145">
+        <v>230.13</v>
+      </c>
+      <c r="C145">
+        <v>248</v>
+      </c>
+      <c r="D145">
+        <v>255</v>
+      </c>
+      <c r="E145">
+        <v>771.6815075376862</v>
+      </c>
+      <c r="F145">
+        <v>27.77915599037678</v>
+      </c>
+      <c r="G145">
+        <v>75</v>
+      </c>
+      <c r="H145">
+        <v>180</v>
+      </c>
+      <c r="I145">
+        <v>255</v>
+      </c>
+      <c r="J145">
+        <v>203</v>
+      </c>
+      <c r="K145">
+        <v>248</v>
+      </c>
+      <c r="L145">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146">
+        <v>46068</v>
+      </c>
+      <c r="B146">
+        <v>230.34</v>
+      </c>
+      <c r="C146">
+        <v>248</v>
+      </c>
+      <c r="D146">
+        <v>255</v>
+      </c>
+      <c r="E146">
+        <v>778.11497487437</v>
+      </c>
+      <c r="F146">
+        <v>27.89471231029942</v>
+      </c>
+      <c r="G146">
+        <v>76</v>
+      </c>
+      <c r="H146">
+        <v>179</v>
+      </c>
+      <c r="I146">
+        <v>255</v>
+      </c>
+      <c r="J146">
+        <v>202</v>
+      </c>
+      <c r="K146">
+        <v>248</v>
+      </c>
+      <c r="L146">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147">
+        <v>46104</v>
+      </c>
+      <c r="B147">
+        <v>230.52</v>
+      </c>
+      <c r="C147">
+        <v>249.5</v>
+      </c>
+      <c r="D147">
+        <v>255</v>
+      </c>
+      <c r="E147">
+        <v>791.5975879397001</v>
+      </c>
+      <c r="F147">
+        <v>28.13534410558542</v>
+      </c>
+      <c r="G147">
+        <v>78</v>
+      </c>
+      <c r="H147">
+        <v>177</v>
+      </c>
+      <c r="I147">
+        <v>255</v>
+      </c>
+      <c r="J147">
+        <v>199</v>
+      </c>
+      <c r="K147">
+        <v>249.5</v>
+      </c>
+      <c r="L147">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148">
+        <v>46179</v>
+      </c>
+      <c r="B148">
+        <v>230.895</v>
+      </c>
+      <c r="C148">
+        <v>249.5</v>
+      </c>
+      <c r="D148">
+        <v>255</v>
+      </c>
+      <c r="E148">
+        <v>767.1195728643204</v>
+      </c>
+      <c r="F148">
+        <v>27.69692352706922</v>
+      </c>
+      <c r="G148">
+        <v>78</v>
+      </c>
+      <c r="H148">
+        <v>177</v>
+      </c>
+      <c r="I148">
+        <v>255</v>
+      </c>
+      <c r="J148">
+        <v>199.75</v>
+      </c>
+      <c r="K148">
+        <v>249.5</v>
+      </c>
+      <c r="L148">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149">
+        <v>46290</v>
+      </c>
+      <c r="B149">
+        <v>231.45</v>
+      </c>
+      <c r="C149">
+        <v>248.5</v>
+      </c>
+      <c r="D149">
+        <v>255</v>
+      </c>
+      <c r="E149">
+        <v>715.4547738693469</v>
+      </c>
+      <c r="F149">
+        <v>26.74798635167416</v>
+      </c>
+      <c r="G149">
+        <v>73</v>
+      </c>
+      <c r="H149">
+        <v>182</v>
+      </c>
+      <c r="I149">
+        <v>255</v>
+      </c>
+      <c r="J149">
+        <v>201.75</v>
+      </c>
+      <c r="K149">
+        <v>248.5</v>
+      </c>
+      <c r="L149">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150">
+        <v>46431</v>
+      </c>
+      <c r="B150">
+        <v>232.155</v>
+      </c>
+      <c r="C150">
+        <v>245.5</v>
+      </c>
+      <c r="D150">
+        <v>255</v>
+      </c>
+      <c r="E150">
+        <v>666.9658040201007</v>
+      </c>
+      <c r="F150">
+        <v>25.82568109498955</v>
+      </c>
+      <c r="G150">
+        <v>72</v>
+      </c>
+      <c r="H150">
+        <v>183</v>
+      </c>
+      <c r="I150">
+        <v>255</v>
+      </c>
+      <c r="J150">
+        <v>205.75</v>
+      </c>
+      <c r="K150">
+        <v>245.5</v>
+      </c>
+      <c r="L150">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151">
+        <v>46592</v>
+      </c>
+      <c r="B151">
+        <v>232.96</v>
+      </c>
+      <c r="C151">
+        <v>247</v>
+      </c>
+      <c r="D151">
+        <v>255</v>
+      </c>
+      <c r="E151">
+        <v>623.475778894472</v>
+      </c>
+      <c r="F151">
+        <v>24.96949696919167</v>
+      </c>
+      <c r="G151">
+        <v>70</v>
+      </c>
+      <c r="H151">
+        <v>185</v>
+      </c>
+      <c r="I151">
+        <v>255</v>
+      </c>
+      <c r="J151">
+        <v>209</v>
+      </c>
+      <c r="K151">
+        <v>247</v>
+      </c>
+      <c r="L151">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152">
+        <v>46646</v>
+      </c>
+      <c r="B152">
+        <v>233.23</v>
+      </c>
+      <c r="C152">
+        <v>247</v>
+      </c>
+      <c r="D152">
+        <v>255</v>
+      </c>
+      <c r="E152">
+        <v>599.4543718592967</v>
+      </c>
+      <c r="F152">
+        <v>24.48375730682071</v>
+      </c>
+      <c r="G152">
+        <v>69</v>
+      </c>
+      <c r="H152">
+        <v>186</v>
+      </c>
+      <c r="I152">
+        <v>255</v>
+      </c>
+      <c r="J152">
+        <v>207.75</v>
+      </c>
+      <c r="K152">
+        <v>247</v>
+      </c>
+      <c r="L152">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153">
+        <v>46706</v>
+      </c>
+      <c r="B153">
+        <v>233.53</v>
+      </c>
+      <c r="C153">
+        <v>248.5</v>
+      </c>
+      <c r="D153">
+        <v>255</v>
+      </c>
+      <c r="E153">
+        <v>584.1397989949759</v>
+      </c>
+      <c r="F153">
+        <v>24.16898423589572</v>
+      </c>
+      <c r="G153">
+        <v>69</v>
+      </c>
+      <c r="H153">
+        <v>186</v>
+      </c>
+      <c r="I153">
+        <v>255</v>
+      </c>
+      <c r="J153">
+        <v>210</v>
+      </c>
+      <c r="K153">
+        <v>248.5</v>
+      </c>
+      <c r="L153">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154">
+        <v>46756</v>
+      </c>
+      <c r="B154">
+        <v>233.78</v>
+      </c>
+      <c r="C154">
+        <v>249</v>
+      </c>
+      <c r="D154">
+        <v>255</v>
+      </c>
+      <c r="E154">
+        <v>569.8810050251266</v>
+      </c>
+      <c r="F154">
+        <v>23.87218056703506</v>
+      </c>
+      <c r="G154">
+        <v>73</v>
+      </c>
+      <c r="H154">
+        <v>182</v>
+      </c>
+      <c r="I154">
+        <v>255</v>
+      </c>
+      <c r="J154">
+        <v>211</v>
+      </c>
+      <c r="K154">
+        <v>249</v>
+      </c>
+      <c r="L154">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155">
+        <v>46822</v>
+      </c>
+      <c r="B155">
+        <v>234.11</v>
+      </c>
+      <c r="C155">
+        <v>249.5</v>
+      </c>
+      <c r="D155">
+        <v>255</v>
+      </c>
+      <c r="E155">
+        <v>558.0883417085425</v>
+      </c>
+      <c r="F155">
+        <v>23.62389344939869</v>
+      </c>
+      <c r="G155">
+        <v>75</v>
+      </c>
+      <c r="H155">
+        <v>180</v>
+      </c>
+      <c r="I155">
+        <v>255</v>
+      </c>
+      <c r="J155">
+        <v>210</v>
+      </c>
+      <c r="K155">
+        <v>249.5</v>
+      </c>
+      <c r="L155">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156">
+        <v>47017</v>
+      </c>
+      <c r="B156">
+        <v>235.085</v>
+      </c>
+      <c r="C156">
+        <v>251</v>
+      </c>
+      <c r="D156">
+        <v>255</v>
+      </c>
+      <c r="E156">
+        <v>520.5706281407032</v>
+      </c>
+      <c r="F156">
+        <v>22.81601692102947</v>
+      </c>
+      <c r="G156">
+        <v>68</v>
+      </c>
+      <c r="H156">
+        <v>187</v>
+      </c>
+      <c r="I156">
+        <v>255</v>
+      </c>
+      <c r="J156">
+        <v>211.75</v>
+      </c>
+      <c r="K156">
+        <v>251</v>
+      </c>
+      <c r="L156">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157">
+        <v>47114</v>
+      </c>
+      <c r="B157">
+        <v>235.57</v>
+      </c>
+      <c r="C157">
+        <v>251</v>
+      </c>
+      <c r="D157">
+        <v>255</v>
+      </c>
+      <c r="E157">
+        <v>508.4071356783928</v>
+      </c>
+      <c r="F157">
+        <v>22.5478853926126</v>
+      </c>
+      <c r="G157">
+        <v>66</v>
+      </c>
+      <c r="H157">
+        <v>189</v>
+      </c>
+      <c r="I157">
+        <v>255</v>
+      </c>
+      <c r="J157">
+        <v>213.75</v>
+      </c>
+      <c r="K157">
+        <v>251</v>
+      </c>
+      <c r="L157">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158">
+        <v>47161</v>
+      </c>
+      <c r="B158">
+        <v>235.805</v>
+      </c>
+      <c r="C158">
+        <v>251</v>
+      </c>
+      <c r="D158">
+        <v>255</v>
+      </c>
+      <c r="E158">
+        <v>523.1326381909561</v>
+      </c>
+      <c r="F158">
+        <v>22.87209299978811</v>
+      </c>
+      <c r="G158">
+        <v>65</v>
+      </c>
+      <c r="H158">
+        <v>190</v>
+      </c>
+      <c r="I158">
+        <v>255</v>
+      </c>
+      <c r="J158">
+        <v>214.5</v>
+      </c>
+      <c r="K158">
+        <v>251</v>
+      </c>
+      <c r="L158">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159">
+        <v>47172</v>
+      </c>
+      <c r="B159">
+        <v>235.86</v>
+      </c>
+      <c r="C159">
+        <v>252</v>
+      </c>
+      <c r="D159">
+        <v>255</v>
+      </c>
+      <c r="E159">
+        <v>543.1963819095488</v>
+      </c>
+      <c r="F159">
+        <v>23.30657379173414</v>
+      </c>
+      <c r="G159">
+        <v>69</v>
+      </c>
+      <c r="H159">
+        <v>186</v>
+      </c>
+      <c r="I159">
+        <v>255</v>
+      </c>
+      <c r="J159">
+        <v>216</v>
+      </c>
+      <c r="K159">
+        <v>252</v>
+      </c>
+      <c r="L159">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160">
+        <v>47220</v>
+      </c>
+      <c r="B160">
+        <v>236.1</v>
+      </c>
+      <c r="C160">
+        <v>252</v>
+      </c>
+      <c r="D160">
+        <v>255</v>
+      </c>
+      <c r="E160">
+        <v>539.3366834170865</v>
+      </c>
+      <c r="F160">
+        <v>23.22362339121711</v>
+      </c>
+      <c r="G160">
+        <v>66</v>
+      </c>
+      <c r="H160">
+        <v>189</v>
+      </c>
+      <c r="I160">
+        <v>255</v>
+      </c>
+      <c r="J160">
+        <v>215.75</v>
+      </c>
+      <c r="K160">
+        <v>252</v>
+      </c>
+      <c r="L160">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161">
+        <v>47274</v>
+      </c>
+      <c r="B161">
+        <v>236.37</v>
+      </c>
+      <c r="C161">
+        <v>252</v>
+      </c>
+      <c r="D161">
+        <v>255</v>
+      </c>
+      <c r="E161">
+        <v>532.5659296482418</v>
+      </c>
+      <c r="F161">
+        <v>23.07739000944955</v>
+      </c>
+      <c r="G161">
+        <v>65</v>
+      </c>
+      <c r="H161">
+        <v>190</v>
+      </c>
+      <c r="I161">
+        <v>255</v>
+      </c>
+      <c r="J161">
+        <v>213.75</v>
+      </c>
+      <c r="K161">
+        <v>252</v>
+      </c>
+      <c r="L161">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162">
+        <v>47345</v>
+      </c>
+      <c r="B162">
+        <v>236.725</v>
+      </c>
+      <c r="C162">
+        <v>252</v>
+      </c>
+      <c r="D162">
+        <v>255</v>
+      </c>
+      <c r="E162">
+        <v>521.1451005025139</v>
+      </c>
+      <c r="F162">
+        <v>22.82860268396894</v>
+      </c>
+      <c r="G162">
+        <v>65</v>
+      </c>
+      <c r="H162">
+        <v>190</v>
+      </c>
+      <c r="I162">
+        <v>255</v>
+      </c>
+      <c r="J162">
+        <v>214</v>
+      </c>
+      <c r="K162">
+        <v>252</v>
+      </c>
+      <c r="L162">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163">
+        <v>47448</v>
+      </c>
+      <c r="B163">
+        <v>237.24</v>
+      </c>
+      <c r="C163">
+        <v>253</v>
+      </c>
+      <c r="D163">
+        <v>255</v>
+      </c>
+      <c r="E163">
+        <v>490.7561809045228</v>
+      </c>
+      <c r="F163">
+        <v>22.15301742211482</v>
+      </c>
+      <c r="G163">
+        <v>72</v>
+      </c>
+      <c r="H163">
+        <v>183</v>
+      </c>
+      <c r="I163">
+        <v>255</v>
+      </c>
+      <c r="J163">
+        <v>217</v>
+      </c>
+      <c r="K163">
+        <v>253</v>
+      </c>
+      <c r="L163">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164">
+        <v>47458</v>
+      </c>
+      <c r="B164">
+        <v>237.29</v>
+      </c>
+      <c r="C164">
+        <v>253</v>
+      </c>
+      <c r="D164">
+        <v>255</v>
+      </c>
+      <c r="E164">
+        <v>475.3225125628148</v>
+      </c>
+      <c r="F164">
+        <v>21.80189240783503</v>
+      </c>
+      <c r="G164">
+        <v>65</v>
+      </c>
+      <c r="H164">
+        <v>190</v>
+      </c>
+      <c r="I164">
+        <v>255</v>
+      </c>
+      <c r="J164">
+        <v>214</v>
+      </c>
+      <c r="K164">
+        <v>253</v>
+      </c>
+      <c r="L164">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165">
+        <v>47424</v>
+      </c>
+      <c r="B165">
+        <v>237.12</v>
+      </c>
+      <c r="C165">
+        <v>253</v>
+      </c>
+      <c r="D165">
+        <v>255</v>
+      </c>
+      <c r="E165">
+        <v>487.0207035175867</v>
+      </c>
+      <c r="F165">
+        <v>22.06854556869543</v>
+      </c>
+      <c r="G165">
+        <v>65</v>
+      </c>
+      <c r="H165">
+        <v>190</v>
+      </c>
+      <c r="I165">
+        <v>255</v>
+      </c>
+      <c r="J165">
+        <v>212</v>
+      </c>
+      <c r="K165">
+        <v>253</v>
+      </c>
+      <c r="L165">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166">
+        <v>47310</v>
+      </c>
+      <c r="B166">
+        <v>236.55</v>
+      </c>
+      <c r="C166">
+        <v>253</v>
+      </c>
+      <c r="D166">
+        <v>255</v>
+      </c>
+      <c r="E166">
+        <v>527.0326633165824</v>
+      </c>
+      <c r="F166">
+        <v>22.95719197368403</v>
+      </c>
+      <c r="G166">
+        <v>70</v>
+      </c>
+      <c r="H166">
+        <v>185</v>
+      </c>
+      <c r="I166">
+        <v>255</v>
+      </c>
+      <c r="J166">
+        <v>211</v>
+      </c>
+      <c r="K166">
+        <v>253</v>
+      </c>
+      <c r="L166">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167">
+        <v>47043</v>
+      </c>
+      <c r="B167">
+        <v>235.215</v>
+      </c>
+      <c r="C167">
+        <v>253</v>
+      </c>
+      <c r="D167">
+        <v>255</v>
+      </c>
+      <c r="E167">
+        <v>619.2047989949758</v>
+      </c>
+      <c r="F167">
+        <v>24.88382605217646</v>
+      </c>
+      <c r="G167">
+        <v>71</v>
+      </c>
+      <c r="H167">
+        <v>184</v>
+      </c>
+      <c r="I167">
+        <v>255</v>
+      </c>
+      <c r="J167">
+        <v>206.75</v>
+      </c>
+      <c r="K167">
+        <v>253</v>
+      </c>
+      <c r="L167">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168">
+        <v>46894</v>
+      </c>
+      <c r="B168">
+        <v>234.47</v>
+      </c>
+      <c r="C168">
+        <v>254</v>
+      </c>
+      <c r="D168">
+        <v>255</v>
+      </c>
+      <c r="E168">
+        <v>686.1397989949742</v>
+      </c>
+      <c r="F168">
+        <v>26.19427034668029</v>
+      </c>
+      <c r="G168">
+        <v>68</v>
+      </c>
+      <c r="H168">
+        <v>187</v>
+      </c>
+      <c r="I168">
+        <v>255</v>
+      </c>
+      <c r="J168">
+        <v>204.75</v>
+      </c>
+      <c r="K168">
+        <v>254</v>
+      </c>
+      <c r="L168">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169">
+        <v>46739</v>
+      </c>
+      <c r="B169">
+        <v>233.695</v>
+      </c>
+      <c r="C169">
+        <v>253.5</v>
+      </c>
+      <c r="D169">
+        <v>255</v>
+      </c>
+      <c r="E169">
+        <v>775.1075125628149</v>
+      </c>
+      <c r="F169">
+        <v>27.84075272981704</v>
+      </c>
+      <c r="G169">
+        <v>73</v>
+      </c>
+      <c r="H169">
+        <v>182</v>
+      </c>
+      <c r="I169">
+        <v>255</v>
+      </c>
+      <c r="J169">
+        <v>200.75</v>
+      </c>
+      <c r="K169">
+        <v>253.5</v>
+      </c>
+      <c r="L169">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170">
+        <v>46542</v>
+      </c>
+      <c r="B170">
+        <v>232.71</v>
+      </c>
+      <c r="C170">
+        <v>253</v>
+      </c>
+      <c r="D170">
+        <v>255</v>
+      </c>
+      <c r="E170">
+        <v>885.9757788944703</v>
+      </c>
+      <c r="F170">
+        <v>29.76534526751656</v>
+      </c>
+      <c r="G170">
+        <v>83</v>
+      </c>
+      <c r="H170">
+        <v>172</v>
+      </c>
+      <c r="I170">
+        <v>255</v>
+      </c>
+      <c r="J170">
+        <v>196.75</v>
+      </c>
+      <c r="K170">
+        <v>253</v>
+      </c>
+      <c r="L170">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171">
+        <v>46282</v>
+      </c>
+      <c r="B171">
+        <v>231.41</v>
+      </c>
+      <c r="C171">
+        <v>253</v>
+      </c>
+      <c r="D171">
+        <v>255</v>
+      </c>
+      <c r="E171">
+        <v>1031.831055276379</v>
+      </c>
+      <c r="F171">
+        <v>32.12212719102487</v>
+      </c>
+      <c r="G171">
+        <v>93</v>
+      </c>
+      <c r="H171">
+        <v>162</v>
+      </c>
+      <c r="I171">
+        <v>255</v>
+      </c>
+      <c r="J171">
+        <v>198.5</v>
+      </c>
+      <c r="K171">
+        <v>253</v>
+      </c>
+      <c r="L171">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172">
+        <v>46232</v>
+      </c>
+      <c r="B172">
+        <v>231.16</v>
+      </c>
+      <c r="C172">
+        <v>253</v>
+      </c>
+      <c r="D172">
+        <v>255</v>
+      </c>
+      <c r="E172">
+        <v>1100.516984924624</v>
+      </c>
+      <c r="F172">
+        <v>33.17404082900701</v>
+      </c>
+      <c r="G172">
+        <v>90</v>
+      </c>
+      <c r="H172">
+        <v>165</v>
+      </c>
+      <c r="I172">
+        <v>255</v>
+      </c>
+      <c r="J172">
+        <v>202.5</v>
+      </c>
+      <c r="K172">
+        <v>253</v>
+      </c>
+      <c r="L172">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173">
+        <v>46027</v>
+      </c>
+      <c r="B173">
+        <v>230.135</v>
+      </c>
+      <c r="C173">
+        <v>253</v>
+      </c>
+      <c r="D173">
+        <v>255</v>
+      </c>
+      <c r="E173">
+        <v>1285.554547738695</v>
+      </c>
+      <c r="F173">
+        <v>35.8546307711946</v>
+      </c>
+      <c r="G173">
+        <v>96</v>
+      </c>
+      <c r="H173">
+        <v>159</v>
+      </c>
+      <c r="I173">
+        <v>255</v>
+      </c>
+      <c r="J173">
+        <v>203</v>
+      </c>
+      <c r="K173">
+        <v>253</v>
+      </c>
+      <c r="L173">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174">
+        <v>45786</v>
+      </c>
+      <c r="B174">
+        <v>228.93</v>
+      </c>
+      <c r="C174">
+        <v>254</v>
+      </c>
+      <c r="D174">
+        <v>255</v>
+      </c>
+      <c r="E174">
+        <v>1566.859396984927</v>
+      </c>
+      <c r="F174">
+        <v>39.58357483837112</v>
+      </c>
+      <c r="G174">
+        <v>114</v>
+      </c>
+      <c r="H174">
+        <v>141</v>
+      </c>
+      <c r="I174">
+        <v>255</v>
+      </c>
+      <c r="J174">
+        <v>206</v>
+      </c>
+      <c r="K174">
+        <v>254</v>
+      </c>
+      <c r="L174">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175">
+        <v>45902</v>
+      </c>
+      <c r="B175">
+        <v>229.51</v>
+      </c>
+      <c r="C175">
+        <v>255</v>
+      </c>
+      <c r="D175">
+        <v>255</v>
+      </c>
+      <c r="E175">
+        <v>1656.210954773868</v>
+      </c>
+      <c r="F175">
+        <v>40.69657178158705</v>
+      </c>
+      <c r="G175">
+        <v>124</v>
+      </c>
+      <c r="H175">
+        <v>131</v>
+      </c>
+      <c r="I175">
+        <v>255</v>
+      </c>
+      <c r="J175">
+        <v>212</v>
+      </c>
+      <c r="K175">
+        <v>255</v>
+      </c>
+      <c r="L175">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176">
+        <v>46473</v>
+      </c>
+      <c r="B176">
+        <v>232.365</v>
+      </c>
+      <c r="C176">
+        <v>255</v>
+      </c>
+      <c r="D176">
+        <v>255</v>
+      </c>
+      <c r="E176">
+        <v>1343.26811557789</v>
+      </c>
+      <c r="F176">
+        <v>36.65062230819403</v>
+      </c>
+      <c r="G176">
+        <v>115</v>
+      </c>
+      <c r="H176">
+        <v>140</v>
+      </c>
+      <c r="I176">
+        <v>255</v>
+      </c>
+      <c r="J176">
+        <v>220.75</v>
+      </c>
+      <c r="K176">
+        <v>255</v>
+      </c>
+      <c r="L176">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177">
+        <v>47429</v>
+      </c>
+      <c r="B177">
+        <v>237.145</v>
+      </c>
+      <c r="C177">
+        <v>255</v>
+      </c>
+      <c r="D177">
+        <v>255</v>
+      </c>
+      <c r="E177">
+        <v>863.0793718592952</v>
+      </c>
+      <c r="F177">
+        <v>29.37821253683238</v>
+      </c>
+      <c r="G177">
+        <v>94</v>
+      </c>
+      <c r="H177">
+        <v>161</v>
+      </c>
+      <c r="I177">
+        <v>255</v>
+      </c>
+      <c r="J177">
+        <v>230.5</v>
+      </c>
+      <c r="K177">
+        <v>255</v>
+      </c>
+      <c r="L177">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178">
+        <v>48614</v>
+      </c>
+      <c r="B178">
+        <v>243.07</v>
+      </c>
+      <c r="C178">
+        <v>255</v>
+      </c>
+      <c r="D178">
+        <v>255</v>
+      </c>
+      <c r="E178">
+        <v>410.7488442211077</v>
+      </c>
+      <c r="F178">
+        <v>20.26693968563354</v>
+      </c>
+      <c r="G178">
+        <v>64</v>
+      </c>
+      <c r="H178">
+        <v>191</v>
+      </c>
+      <c r="I178">
+        <v>255</v>
+      </c>
+      <c r="J178">
+        <v>240.25</v>
+      </c>
+      <c r="K178">
+        <v>255</v>
+      </c>
+      <c r="L178">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179">
+        <v>49399</v>
+      </c>
+      <c r="B179">
+        <v>246.995</v>
+      </c>
+      <c r="C179">
+        <v>255</v>
+      </c>
+      <c r="D179">
+        <v>255</v>
+      </c>
+      <c r="E179">
+        <v>183.904497487438</v>
+      </c>
+      <c r="F179">
+        <v>13.5611392400284</v>
+      </c>
+      <c r="G179">
+        <v>40</v>
+      </c>
+      <c r="H179">
+        <v>215</v>
+      </c>
+      <c r="I179">
+        <v>255</v>
+      </c>
+      <c r="J179">
+        <v>243.75</v>
+      </c>
+      <c r="K179">
+        <v>255</v>
+      </c>
+      <c r="L179">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180">
+        <v>49913</v>
+      </c>
+      <c r="B180">
+        <v>249.565</v>
+      </c>
+      <c r="C180">
+        <v>255</v>
+      </c>
+      <c r="D180">
+        <v>255</v>
+      </c>
+      <c r="E180">
+        <v>83.96560301507549</v>
+      </c>
+      <c r="F180">
+        <v>9.163274688400184</v>
+      </c>
+      <c r="G180">
+        <v>28</v>
+      </c>
+      <c r="H180">
+        <v>227</v>
+      </c>
+      <c r="I180">
+        <v>255</v>
+      </c>
+      <c r="J180">
+        <v>247.75</v>
+      </c>
+      <c r="K180">
+        <v>255</v>
+      </c>
+      <c r="L180">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181">
+        <v>50305</v>
+      </c>
+      <c r="B181">
+        <v>251.525</v>
+      </c>
+      <c r="C181">
+        <v>255</v>
+      </c>
+      <c r="D181">
+        <v>255</v>
+      </c>
+      <c r="E181">
+        <v>36.60238693467348</v>
+      </c>
+      <c r="F181">
+        <v>6.049990655750922</v>
+      </c>
+      <c r="G181">
+        <v>20</v>
+      </c>
+      <c r="H181">
+        <v>235</v>
+      </c>
+      <c r="I181">
+        <v>255</v>
+      </c>
+      <c r="J181">
+        <v>251.75</v>
+      </c>
+      <c r="K181">
+        <v>255</v>
+      </c>
+      <c r="L181">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182">
+        <v>50588</v>
+      </c>
+      <c r="B182">
+        <v>252.94</v>
+      </c>
+      <c r="C182">
+        <v>255</v>
+      </c>
+      <c r="D182">
+        <v>255</v>
+      </c>
+      <c r="E182">
+        <v>15.55417085427129</v>
+      </c>
+      <c r="F182">
+        <v>3.94387764189906</v>
+      </c>
+      <c r="G182">
+        <v>16</v>
+      </c>
+      <c r="H182">
+        <v>239</v>
+      </c>
+      <c r="I182">
+        <v>255</v>
+      </c>
+      <c r="J182">
+        <v>253.75</v>
+      </c>
+      <c r="K182">
+        <v>255</v>
+      </c>
+      <c r="L182">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="A183">
+        <v>50742</v>
+      </c>
+      <c r="B183">
+        <v>253.71</v>
+      </c>
+      <c r="C183">
+        <v>255</v>
+      </c>
+      <c r="D183">
+        <v>255</v>
+      </c>
+      <c r="E183">
+        <v>6.367738693467336</v>
+      </c>
+      <c r="F183">
+        <v>2.523437871925389</v>
+      </c>
+      <c r="G183">
+        <v>13</v>
+      </c>
+      <c r="H183">
+        <v>242</v>
+      </c>
+      <c r="I183">
+        <v>255</v>
+      </c>
+      <c r="J183">
+        <v>254</v>
+      </c>
+      <c r="K183">
+        <v>255</v>
+      </c>
+      <c r="L183">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184">
+        <v>50787</v>
+      </c>
+      <c r="B184">
+        <v>253.935</v>
+      </c>
+      <c r="C184">
+        <v>255</v>
+      </c>
+      <c r="D184">
+        <v>255</v>
+      </c>
+      <c r="E184">
+        <v>3.839974874371868</v>
+      </c>
+      <c r="F184">
+        <v>1.959585383281848</v>
+      </c>
+      <c r="G184">
+        <v>10</v>
+      </c>
+      <c r="H184">
+        <v>245</v>
+      </c>
+      <c r="I184">
+        <v>255</v>
+      </c>
+      <c r="J184">
+        <v>253</v>
+      </c>
+      <c r="K184">
+        <v>255</v>
+      </c>
+      <c r="L184">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="A185">
+        <v>50822</v>
+      </c>
+      <c r="B185">
+        <v>254.11</v>
+      </c>
+      <c r="C185">
+        <v>255</v>
+      </c>
+      <c r="D185">
+        <v>255</v>
+      </c>
+      <c r="E185">
+        <v>2.530552763819085</v>
+      </c>
+      <c r="F185">
+        <v>1.590771122386588</v>
+      </c>
+      <c r="G185">
+        <v>8</v>
+      </c>
+      <c r="H185">
+        <v>247</v>
+      </c>
+      <c r="I185">
+        <v>255</v>
+      </c>
+      <c r="J185">
+        <v>254</v>
+      </c>
+      <c r="K185">
+        <v>255</v>
+      </c>
+      <c r="L185">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="A186">
+        <v>50907</v>
+      </c>
+      <c r="B186">
+        <v>254.535</v>
+      </c>
+      <c r="C186">
+        <v>255</v>
+      </c>
+      <c r="D186">
+        <v>255</v>
+      </c>
+      <c r="E186">
+        <v>1.194748743718595</v>
+      </c>
+      <c r="F186">
+        <v>1.093045627464195</v>
+      </c>
+      <c r="G186">
+        <v>5</v>
+      </c>
+      <c r="H186">
+        <v>250</v>
+      </c>
+      <c r="I186">
+        <v>255</v>
+      </c>
+      <c r="J186">
+        <v>255</v>
+      </c>
+      <c r="K186">
+        <v>255</v>
+      </c>
+      <c r="L186">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187">
+        <v>50848</v>
+      </c>
+      <c r="B187">
+        <v>254.24</v>
+      </c>
+      <c r="C187">
+        <v>255</v>
+      </c>
+      <c r="D187">
+        <v>255</v>
+      </c>
+      <c r="E187">
+        <v>1.88180904522612</v>
+      </c>
+      <c r="F187">
+        <v>1.371790452374604</v>
+      </c>
+      <c r="G187">
+        <v>5</v>
+      </c>
+      <c r="H187">
+        <v>250</v>
+      </c>
+      <c r="I187">
+        <v>255</v>
+      </c>
+      <c r="J187">
+        <v>254</v>
+      </c>
+      <c r="K187">
+        <v>255</v>
+      </c>
+      <c r="L187">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188">
+        <v>50835</v>
+      </c>
+      <c r="B188">
+        <v>254.175</v>
+      </c>
+      <c r="C188">
+        <v>255</v>
+      </c>
+      <c r="D188">
+        <v>255</v>
+      </c>
+      <c r="E188">
+        <v>1.923994974874364</v>
+      </c>
+      <c r="F188">
+        <v>1.387081459350663</v>
+      </c>
+      <c r="G188">
+        <v>6</v>
+      </c>
+      <c r="H188">
+        <v>249</v>
+      </c>
+      <c r="I188">
+        <v>255</v>
+      </c>
+      <c r="J188">
+        <v>254</v>
+      </c>
+      <c r="K188">
+        <v>255</v>
+      </c>
+      <c r="L188">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189">
+        <v>50878</v>
+      </c>
+      <c r="B189">
+        <v>254.39</v>
+      </c>
+      <c r="C189">
+        <v>255</v>
+      </c>
+      <c r="D189">
+        <v>255</v>
+      </c>
+      <c r="E189">
+        <v>0.972763819095478</v>
+      </c>
+      <c r="F189">
+        <v>0.9862878986865234</v>
+      </c>
+      <c r="G189">
+        <v>4</v>
+      </c>
+      <c r="H189">
+        <v>251</v>
+      </c>
+      <c r="I189">
+        <v>255</v>
+      </c>
+      <c r="J189">
+        <v>254</v>
+      </c>
+      <c r="K189">
+        <v>255</v>
+      </c>
+      <c r="L189">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190">
+        <v>50940</v>
+      </c>
+      <c r="B190">
+        <v>254.7</v>
+      </c>
+      <c r="C190">
+        <v>255</v>
+      </c>
+      <c r="D190">
+        <v>255</v>
+      </c>
+      <c r="E190">
+        <v>0.3718592964824106</v>
+      </c>
+      <c r="F190">
+        <v>0.609802670117482</v>
+      </c>
+      <c r="G190">
+        <v>3</v>
+      </c>
+      <c r="H190">
+        <v>252</v>
+      </c>
+      <c r="I190">
+        <v>255</v>
+      </c>
+      <c r="J190">
+        <v>255</v>
+      </c>
+      <c r="K190">
+        <v>255</v>
+      </c>
+      <c r="L190">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191">
+        <v>50975</v>
+      </c>
+      <c r="B191">
+        <v>254.875</v>
+      </c>
+      <c r="C191">
+        <v>255</v>
+      </c>
+      <c r="D191">
+        <v>255</v>
+      </c>
+      <c r="E191">
+        <v>0.1199748743718593</v>
+      </c>
+      <c r="F191">
+        <v>0.346373893894819</v>
+      </c>
+      <c r="G191">
+        <v>2</v>
+      </c>
+      <c r="H191">
+        <v>253</v>
+      </c>
+      <c r="I191">
+        <v>255</v>
+      </c>
+      <c r="J191">
+        <v>255</v>
+      </c>
+      <c r="K191">
+        <v>255</v>
+      </c>
+      <c r="L191">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192">
+        <v>50984</v>
+      </c>
+      <c r="B192">
+        <v>254.92</v>
+      </c>
+      <c r="C192">
+        <v>255</v>
+      </c>
+      <c r="D192">
+        <v>255</v>
+      </c>
+      <c r="E192">
+        <v>0.07396984924623147</v>
+      </c>
+      <c r="F192">
+        <v>0.2719739863410313</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>254</v>
+      </c>
+      <c r="I192">
+        <v>255</v>
+      </c>
+      <c r="J192">
+        <v>255</v>
+      </c>
+      <c r="K192">
+        <v>255</v>
+      </c>
+      <c r="L192">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193">
+        <v>50991</v>
+      </c>
+      <c r="B193">
+        <v>254.955</v>
+      </c>
+      <c r="C193">
+        <v>255</v>
+      </c>
+      <c r="D193">
+        <v>255</v>
+      </c>
+      <c r="E193">
+        <v>0.053241206030151</v>
+      </c>
+      <c r="F193">
+        <v>0.230740560002248</v>
+      </c>
+      <c r="G193">
+        <v>2</v>
+      </c>
+      <c r="H193">
+        <v>253</v>
+      </c>
+      <c r="I193">
+        <v>255</v>
+      </c>
+      <c r="J193">
+        <v>255</v>
+      </c>
+      <c r="K193">
+        <v>255</v>
+      </c>
+      <c r="L193">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194">
+        <v>50980</v>
+      </c>
+      <c r="B194">
+        <v>254.9</v>
+      </c>
+      <c r="C194">
+        <v>255</v>
+      </c>
+      <c r="D194">
+        <v>255</v>
+      </c>
+      <c r="E194">
+        <v>0.1306532663316581</v>
+      </c>
+      <c r="F194">
+        <v>0.3614599097156669</v>
+      </c>
+      <c r="G194">
+        <v>3</v>
+      </c>
+      <c r="H194">
+        <v>252</v>
+      </c>
+      <c r="I194">
+        <v>255</v>
+      </c>
+      <c r="J194">
+        <v>255</v>
+      </c>
+      <c r="K194">
+        <v>255</v>
+      </c>
+      <c r="L194">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="A195">
+        <v>50982</v>
+      </c>
+      <c r="B195">
+        <v>254.91</v>
+      </c>
+      <c r="C195">
+        <v>255</v>
+      </c>
+      <c r="D195">
+        <v>255</v>
+      </c>
+      <c r="E195">
+        <v>0.09236180904522567</v>
+      </c>
+      <c r="F195">
+        <v>0.3039108570703352</v>
+      </c>
+      <c r="G195">
+        <v>2</v>
+      </c>
+      <c r="H195">
+        <v>253</v>
+      </c>
+      <c r="I195">
+        <v>255</v>
+      </c>
+      <c r="J195">
+        <v>255</v>
+      </c>
+      <c r="K195">
+        <v>255</v>
+      </c>
+      <c r="L195">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="A196">
+        <v>50987</v>
+      </c>
+      <c r="B196">
+        <v>254.935</v>
+      </c>
+      <c r="C196">
+        <v>255</v>
+      </c>
+      <c r="D196">
+        <v>255</v>
+      </c>
+      <c r="E196">
+        <v>0.0610804020100504</v>
+      </c>
+      <c r="F196">
+        <v>0.2471444962163843</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <v>254</v>
+      </c>
+      <c r="I196">
+        <v>255</v>
+      </c>
+      <c r="J196">
+        <v>255</v>
+      </c>
+      <c r="K196">
+        <v>255</v>
+      </c>
+      <c r="L196">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="A197">
+        <v>51000</v>
+      </c>
+      <c r="B197">
+        <v>255</v>
+      </c>
+      <c r="C197">
+        <v>255</v>
+      </c>
+      <c r="D197">
+        <v>255</v>
+      </c>
+      <c r="E197">
         <v>0</v>
       </c>
-      <c r="F101">
+      <c r="F197">
         <v>0</v>
       </c>
-      <c r="G101">
+      <c r="G197">
         <v>0</v>
       </c>
-      <c r="H101">
-        <v>255</v>
-      </c>
-      <c r="I101">
-        <v>255</v>
-      </c>
-      <c r="J101">
-        <v>255</v>
-      </c>
-      <c r="K101">
-        <v>255</v>
-      </c>
-      <c r="L101">
+      <c r="H197">
+        <v>255</v>
+      </c>
+      <c r="I197">
+        <v>255</v>
+      </c>
+      <c r="J197">
+        <v>255</v>
+      </c>
+      <c r="K197">
+        <v>255</v>
+      </c>
+      <c r="L197">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="A198">
+        <v>51000</v>
+      </c>
+      <c r="B198">
+        <v>255</v>
+      </c>
+      <c r="C198">
+        <v>255</v>
+      </c>
+      <c r="D198">
+        <v>255</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>255</v>
+      </c>
+      <c r="I198">
+        <v>255</v>
+      </c>
+      <c r="J198">
+        <v>255</v>
+      </c>
+      <c r="K198">
+        <v>255</v>
+      </c>
+      <c r="L198">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="A199">
+        <v>51000</v>
+      </c>
+      <c r="B199">
+        <v>255</v>
+      </c>
+      <c r="C199">
+        <v>255</v>
+      </c>
+      <c r="D199">
+        <v>255</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>255</v>
+      </c>
+      <c r="I199">
+        <v>255</v>
+      </c>
+      <c r="J199">
+        <v>255</v>
+      </c>
+      <c r="K199">
+        <v>255</v>
+      </c>
+      <c r="L199">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="A200">
+        <v>51000</v>
+      </c>
+      <c r="B200">
+        <v>255</v>
+      </c>
+      <c r="C200">
+        <v>255</v>
+      </c>
+      <c r="D200">
+        <v>255</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>255</v>
+      </c>
+      <c r="I200">
+        <v>255</v>
+      </c>
+      <c r="J200">
+        <v>255</v>
+      </c>
+      <c r="K200">
+        <v>255</v>
+      </c>
+      <c r="L200">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201">
+        <v>51000</v>
+      </c>
+      <c r="B201">
+        <v>255</v>
+      </c>
+      <c r="C201">
+        <v>255</v>
+      </c>
+      <c r="D201">
+        <v>255</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>255</v>
+      </c>
+      <c r="I201">
+        <v>255</v>
+      </c>
+      <c r="J201">
+        <v>255</v>
+      </c>
+      <c r="K201">
+        <v>255</v>
+      </c>
+      <c r="L201">
         <v>255</v>
       </c>
     </row>
